--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41439DDD-7FAA-49F9-861C-AF340DCF9058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B2EB11-1CB7-4C0F-A262-C50459096BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_15.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_11!$B$5:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_15.1'!$B$5:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -251,17 +251,17 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -535,45 +535,45 @@
       <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="14"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -610,25 +610,25 @@
       <c r="B7" s="8">
         <v>45383</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>21782</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>3381</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>537</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>221</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>167537</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="12">
         <v>34455</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>4564</v>
       </c>
       <c r="J7" s="5">
@@ -668,25 +668,25 @@
       <c r="B9" s="8">
         <v>45323</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>21675</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>3345</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>538</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>215</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>166478</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="12">
         <v>34057</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="12">
         <v>4499</v>
       </c>
       <c r="J9" s="5">
@@ -726,25 +726,25 @@
       <c r="B11" s="8">
         <v>45261</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>21607</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>3331</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>527</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>213</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>165843</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="12">
         <v>33744</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="12">
         <v>4441</v>
       </c>
       <c r="J11" s="5">
@@ -784,25 +784,25 @@
       <c r="B13" s="8">
         <v>45200</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>21461</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>3281</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>527</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>213</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <v>164931</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="12">
         <v>33376</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <v>4381</v>
       </c>
       <c r="J13" s="5">
@@ -842,25 +842,25 @@
       <c r="B15" s="8">
         <v>45139</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>21333</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <v>3249</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>520</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="12">
         <v>213</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="12">
         <v>164018</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="12">
         <v>33086</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <v>4345</v>
       </c>
       <c r="J15" s="5">
@@ -900,25 +900,25 @@
       <c r="B17" s="8">
         <v>45078</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>21204</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <v>3230</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>515</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="12">
         <v>213</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <v>163109</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="12">
         <v>32765</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="12">
         <v>4282</v>
       </c>
       <c r="J17" s="5">
@@ -958,25 +958,25 @@
       <c r="B19" s="8">
         <v>45017</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>21068</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <v>3196</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>508</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="12">
         <v>215</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="12">
         <v>162289</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="12">
         <v>32483</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="12">
         <v>4234</v>
       </c>
       <c r="J19" s="5">
@@ -1016,25 +1016,25 @@
       <c r="B21" s="8">
         <v>44958</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>20929</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <v>3165</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>506</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="12">
         <v>212</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="12">
         <v>161330</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="12">
         <v>32261</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="12">
         <v>4201</v>
       </c>
       <c r="J21" s="5">
@@ -1074,25 +1074,25 @@
       <c r="B23" s="8">
         <v>44896</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>20835</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <v>3137</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>506</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="12">
         <v>209</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="12">
         <v>160773</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="12">
         <v>32040</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="12">
         <v>4173</v>
       </c>
       <c r="J23" s="5">
@@ -1132,25 +1132,25 @@
       <c r="B25" s="8">
         <v>44835</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>20711</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <v>3095</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>501</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="12">
         <v>210</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="12">
         <v>160213</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="12">
         <v>31874</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="12">
         <v>4145</v>
       </c>
       <c r="J25" s="5">
@@ -1190,25 +1190,25 @@
       <c r="B27" s="8">
         <v>44774</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>20751</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <v>3106</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="12">
         <v>501</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="12">
         <v>211</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="12">
         <v>159400</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="12">
         <v>31688</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="12">
         <v>4111</v>
       </c>
       <c r="J27" s="5">
@@ -1248,25 +1248,25 @@
       <c r="B29" s="8">
         <v>44713</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>20522</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <v>3038</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <v>490</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="12">
         <v>207</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="12">
         <v>158518</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="12">
         <v>31468</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="12">
         <v>4073</v>
       </c>
       <c r="J29" s="5">
@@ -1306,25 +1306,25 @@
       <c r="B31" s="8">
         <v>44652</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>20432</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="12">
         <v>3010</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="12">
         <v>487</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="12">
         <v>206</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="12">
         <v>157470</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="12">
         <v>31286</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="12">
         <v>4046</v>
       </c>
       <c r="J31" s="5">
@@ -1364,25 +1364,25 @@
       <c r="B33" s="8">
         <v>44593</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>20318</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="12">
         <v>2994</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="12">
         <v>489</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="12">
         <v>204</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="12">
         <v>156255</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="12">
         <v>31032</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="12">
         <v>4013</v>
       </c>
       <c r="J33" s="5">
@@ -1422,25 +1422,25 @@
       <c r="B35" s="8">
         <v>44531</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>20263</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="12">
         <v>2989</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="12">
         <v>487</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="12">
         <v>203</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="12">
         <v>155476</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="12">
         <v>30843</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="12">
         <v>4009</v>
       </c>
       <c r="J35" s="5">
@@ -1480,25 +1480,25 @@
       <c r="B37" s="8">
         <v>44470</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="12">
         <v>20146</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="12">
         <v>2967</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="12">
         <v>483</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="12">
         <v>203</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="12">
         <v>154593</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="12">
         <v>30634</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="12">
         <v>3971</v>
       </c>
       <c r="J37" s="5">
@@ -1538,25 +1538,25 @@
       <c r="B39" s="8">
         <v>44409</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="12">
         <v>20021</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="12">
         <v>2931</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="12">
         <v>477</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="12">
         <v>205</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="12">
         <v>153674</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="12">
         <v>30371</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="12">
         <v>3913</v>
       </c>
       <c r="J39" s="5">
@@ -1596,25 +1596,25 @@
       <c r="B41" s="8">
         <v>44348</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="12">
         <v>19989</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="12">
         <v>2916</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="12">
         <v>479</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="12">
         <v>204</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="12">
         <v>152772</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="12">
         <v>30071</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="12">
         <v>3878</v>
       </c>
       <c r="J41" s="5">
@@ -1654,25 +1654,25 @@
       <c r="B43" s="8">
         <v>44287</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="12">
         <v>19923</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="12">
         <v>2897</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="12">
         <v>476</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="12">
         <v>205</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="12">
         <v>151877</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="12">
         <v>29764</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="12">
         <v>3855</v>
       </c>
       <c r="J43" s="5">
@@ -1712,25 +1712,25 @@
       <c r="B45" s="8">
         <v>44228</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="12">
         <v>19844</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="12">
         <v>2870</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="12">
         <v>478</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="12">
         <v>208</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="12">
         <v>150941</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="12">
         <v>29527</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="12">
         <v>3793</v>
       </c>
       <c r="J45" s="5">
@@ -1770,25 +1770,25 @@
       <c r="B47" s="8">
         <v>44166</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="12">
         <v>19806</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="12">
         <v>2877</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="12">
         <v>477</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="12">
         <v>210</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="12">
         <v>150512</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="12">
         <v>29328</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="12">
         <v>3753</v>
       </c>
       <c r="J47" s="5">
@@ -1828,25 +1828,25 @@
       <c r="B49" s="8">
         <v>44105</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="12">
         <v>19711</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="12">
         <v>2853</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="12">
         <v>483</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="12">
         <v>207</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="12">
         <v>149557</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="12">
         <v>29064</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="12">
         <v>3720</v>
       </c>
       <c r="J49" s="5">
@@ -1886,25 +1886,25 @@
       <c r="B51" s="8">
         <v>44044</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="12">
         <v>19641</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="12">
         <v>2841</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="12">
         <v>482</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="12">
         <v>209</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="12">
         <v>149165</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="12">
         <v>28805</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="12">
         <v>3675</v>
       </c>
       <c r="J51" s="5">
@@ -1944,25 +1944,25 @@
       <c r="B53" s="8">
         <v>43983</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="12">
         <v>19635</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="12">
         <v>2839</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="12">
         <v>481</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="12">
         <v>208</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="12">
         <v>148936</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="12">
         <v>28662</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="12">
         <v>3641</v>
       </c>
       <c r="J53" s="5">
@@ -2002,25 +2002,25 @@
       <c r="B55" s="8">
         <v>43922</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="12">
         <v>19634</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="12">
         <v>2839</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="12">
         <v>481</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="12">
         <v>207</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="12">
         <v>148909</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="12">
         <v>28641</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="12">
         <v>3645</v>
       </c>
       <c r="J55" s="5">
@@ -2060,25 +2060,25 @@
       <c r="B57" s="8">
         <v>43862</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="12">
         <v>19600</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="12">
         <v>2827</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="12">
         <v>479</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="12">
         <v>207</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="12">
         <v>148599</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="12">
         <v>28517</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="12">
         <v>3624</v>
       </c>
       <c r="J57" s="5">
@@ -2118,25 +2118,25 @@
       <c r="B59" s="8">
         <v>43800</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="12">
         <v>19514</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="12">
         <v>2807</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="12">
         <v>477</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="12">
         <v>206</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="12">
         <v>147966</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="12">
         <v>28318</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="12">
         <v>3601</v>
       </c>
       <c r="J59" s="5">
@@ -2176,25 +2176,25 @@
       <c r="B61" s="8">
         <v>43739</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="12">
         <v>19270</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="12">
         <v>2775</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="12">
         <v>473</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="12">
         <v>203</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="12">
         <v>147145</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="12">
         <v>28082</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="12">
         <v>3566</v>
       </c>
       <c r="J61" s="5">
@@ -2234,25 +2234,25 @@
       <c r="B63" s="8">
         <v>43678</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="12">
         <v>18210</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="12">
         <v>2531</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="12">
         <v>428</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="12">
         <v>174</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="12">
         <v>135525</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="12">
         <v>25971</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="12">
         <v>3310</v>
       </c>
       <c r="J63" s="5">
@@ -2292,25 +2292,25 @@
       <c r="B65" s="8">
         <v>43617</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="12">
         <v>18061</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="12">
         <v>2503</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="12">
         <v>431</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F65" s="12">
         <v>171</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="12">
         <v>134678</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="12">
         <v>25745</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="12">
         <v>3256</v>
       </c>
       <c r="J65" s="5">
@@ -2350,25 +2350,25 @@
       <c r="B67" s="8">
         <v>43556</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="12">
         <v>17400</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="12">
         <v>2444</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="12">
         <v>408</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="12">
         <v>174</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="12">
         <v>124413</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="12">
         <v>25571</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="12">
         <v>3256</v>
       </c>
       <c r="J67" s="5">
@@ -2408,25 +2408,25 @@
       <c r="B69" s="8">
         <v>43497</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="12">
         <v>17252</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="12">
         <v>2424</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="12">
         <v>401</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="12">
         <v>171</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="12">
         <v>123619</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="12">
         <v>25350</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="12">
         <v>3211</v>
       </c>
       <c r="J69" s="5">
@@ -2466,25 +2466,25 @@
       <c r="B71" s="8">
         <v>43435</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="12">
         <v>17176</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="12">
         <v>2409</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="12">
         <v>394</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="12">
         <v>170</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="12">
         <v>123073</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="12">
         <v>25189</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="12">
         <v>3183</v>
       </c>
       <c r="J71" s="5">
@@ -2524,25 +2524,25 @@
       <c r="B73" s="8">
         <v>43374</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="12">
         <v>16927</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="12">
         <v>2392</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="12">
         <v>382</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="12">
         <v>168</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="12">
         <v>122104</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="12">
         <v>24950</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="12">
         <v>3156</v>
       </c>
       <c r="J73" s="5">
@@ -2582,25 +2582,25 @@
       <c r="B75" s="8">
         <v>43313</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="12">
         <v>16753</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="12">
         <v>2373</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="12">
         <v>373</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="12">
         <v>165</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="12">
         <v>121024</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="12">
         <v>24729</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="12">
         <v>3111</v>
       </c>
       <c r="J75" s="5">
@@ -2640,25 +2640,25 @@
       <c r="B77" s="8">
         <v>43252</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="12">
         <v>16612</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="12">
         <v>2334</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="12">
         <v>369</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="12">
         <v>168</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="12">
         <v>120020</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="12">
         <v>24500</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="12">
         <v>3076</v>
       </c>
       <c r="J77" s="5">
@@ -2698,25 +2698,25 @@
       <c r="B79" s="8">
         <v>43191</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="12">
         <v>16474</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="12">
         <v>2306</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="12">
         <v>363</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F79" s="12">
         <v>166</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="12">
         <v>119076</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H79" s="12">
         <v>24234</v>
       </c>
-      <c r="I79" s="15">
+      <c r="I79" s="12">
         <v>3031</v>
       </c>
       <c r="J79" s="5">
@@ -2756,25 +2756,25 @@
       <c r="B81" s="8">
         <v>43132</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="12">
         <v>16312</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="12">
         <v>2280</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="12">
         <v>355</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F81" s="12">
         <v>163</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="12">
         <v>118068</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H81" s="12">
         <v>23912</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I81" s="12">
         <v>3000</v>
       </c>
       <c r="J81" s="5">

--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B2EB11-1CB7-4C0F-A262-C50459096BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8AE197-2A1A-4372-89BB-56510A7FBD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Ultima actualización: mayo 2024</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>Empresas permisionaras en servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hombre Camión </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pequeña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande </t>
   </si>
 </sst>
 </file>
@@ -167,35 +179,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -216,6 +199,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -223,7 +241,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -231,43 +251,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -278,6 +392,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:J82" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:J82" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{0A01C91C-F4EF-421A-A518-8EBD5EB6922F}" name="Periodo" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B2F74D9C-ECD0-4A20-A12B-C6F5DB97CCBF}" name="Hombre Camión" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{B62E04DD-7FDC-4E78-862B-A6B704ACE0B9}" name="Pequeña" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E847F83E-EA3B-4EC8-B82C-A34A7D8E93B3}" name="Mediana" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E76F71DB-6970-457A-AB5E-23839F746FFA}" name="Grande" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{1AE585DD-B7B8-4334-B771-C72286E4340F}" name="Hombre Camión " dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{D0EFDC27-E355-4B28-B5CB-1F0C4C97BBEF}" name="Pequeña " dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BD93B80B-0166-449A-B133-18B97100A597}" name="Mediana " dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{94F6D958-9D80-47BB-B1EE-5E217EEE935E}" name="Grande " dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,14 +651,14 @@
   <cols>
     <col min="1" max="1" width="5.59765625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" customWidth="1"/>
+    <col min="10" max="10" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
@@ -532,82 +670,82 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>8</v>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="9">
+      <c r="B6" s="15">
         <v>45413</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="11">
         <v>21844</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="11">
         <v>3399</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="11">
         <v>540</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="11">
         <v>221</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="11">
         <v>167901</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="11">
         <v>34526</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="11">
         <v>4584</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="11">
         <v>1400</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="8">
+      <c r="B7" s="16">
         <v>45383</v>
       </c>
       <c r="C7" s="12">
@@ -631,12 +769,12 @@
       <c r="I7" s="12">
         <v>4564</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="12">
         <v>1401</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="9">
+      <c r="B8" s="17">
         <v>45352</v>
       </c>
       <c r="C8" s="3">
@@ -660,12 +798,12 @@
       <c r="I8" s="3">
         <v>4522</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>1391</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="8">
+      <c r="B9" s="16">
         <v>45323</v>
       </c>
       <c r="C9" s="12">
@@ -689,70 +827,70 @@
       <c r="I9" s="12">
         <v>4499</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="12">
         <v>1379</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="9">
+      <c r="B10" s="18">
         <v>45292</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>21635</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>3332</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>535</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>212</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>166076</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>33897</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>4471</v>
       </c>
       <c r="J10" s="4">
         <v>1371</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="8">
+    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="19">
         <v>45261</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>21607</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <v>3331</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>527</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="13">
         <v>213</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <v>165843</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="13">
         <v>33744</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="13">
         <v>4441</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="13">
         <v>1370</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="9">
+    <row r="12" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="17">
         <v>45231</v>
       </c>
       <c r="C12" s="3">
@@ -776,12 +914,12 @@
       <c r="I12" s="3">
         <v>4409</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>1361</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="8">
+    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16">
         <v>45200</v>
       </c>
       <c r="C13" s="12">
@@ -805,12 +943,12 @@
       <c r="I13" s="12">
         <v>4381</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="12">
         <v>1353</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="9">
+    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="17">
         <v>45170</v>
       </c>
       <c r="C14" s="3">
@@ -834,12 +972,12 @@
       <c r="I14" s="3">
         <v>4371</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>1339</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="8">
+    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="16">
         <v>45139</v>
       </c>
       <c r="C15" s="12">
@@ -863,12 +1001,12 @@
       <c r="I15" s="12">
         <v>4345</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="12">
         <v>1335</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="9">
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="17">
         <v>45108</v>
       </c>
       <c r="C16" s="3">
@@ -892,12 +1030,12 @@
       <c r="I16" s="3">
         <v>4314</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>1333</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="8">
+    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16">
         <v>45078</v>
       </c>
       <c r="C17" s="12">
@@ -921,12 +1059,12 @@
       <c r="I17" s="12">
         <v>4282</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="12">
         <v>1324</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="9">
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="17">
         <v>45047</v>
       </c>
       <c r="C18" s="3">
@@ -950,12 +1088,12 @@
       <c r="I18" s="3">
         <v>4264</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>1317</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="8">
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="16">
         <v>45017</v>
       </c>
       <c r="C19" s="12">
@@ -979,12 +1117,12 @@
       <c r="I19" s="12">
         <v>4234</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="12">
         <v>1308</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="9">
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="17">
         <v>44986</v>
       </c>
       <c r="C20" s="3">
@@ -1008,12 +1146,12 @@
       <c r="I20" s="3">
         <v>4232</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>1304</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="8">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16">
         <v>44958</v>
       </c>
       <c r="C21" s="12">
@@ -1037,70 +1175,70 @@
       <c r="I21" s="12">
         <v>4201</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="12">
         <v>1299</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="9">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="18">
         <v>44927</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>20899</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>3142</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>506</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>211</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>161006</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <v>32141</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="4">
         <v>4183</v>
       </c>
       <c r="J22" s="4">
         <v>1295</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="8">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="19">
         <v>44896</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="13">
         <v>20835</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="13">
         <v>3137</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="13">
         <v>506</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="13">
         <v>209</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="13">
         <v>160773</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="13">
         <v>32040</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="13">
         <v>4173</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="13">
         <v>1286</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="9">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="17">
         <v>44866</v>
       </c>
       <c r="C24" s="3">
@@ -1124,12 +1262,12 @@
       <c r="I24" s="3">
         <v>4162</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>1280</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="8">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="16">
         <v>44835</v>
       </c>
       <c r="C25" s="12">
@@ -1153,12 +1291,12 @@
       <c r="I25" s="12">
         <v>4145</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="12">
         <v>1274</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="9">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="17">
         <v>44805</v>
       </c>
       <c r="C26" s="3">
@@ -1182,12 +1320,12 @@
       <c r="I26" s="3">
         <v>4135</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>1270</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="8">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="16">
         <v>44774</v>
       </c>
       <c r="C27" s="12">
@@ -1211,12 +1349,12 @@
       <c r="I27" s="12">
         <v>4111</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="12">
         <v>1260</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="9">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="17">
         <v>44743</v>
       </c>
       <c r="C28" s="3">
@@ -1240,12 +1378,12 @@
       <c r="I28" s="3">
         <v>4081</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>1253</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="8">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="16">
         <v>44713</v>
       </c>
       <c r="C29" s="12">
@@ -1269,12 +1407,12 @@
       <c r="I29" s="12">
         <v>4073</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="12">
         <v>1251</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="9">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="17">
         <v>44682</v>
       </c>
       <c r="C30" s="3">
@@ -1298,12 +1436,12 @@
       <c r="I30" s="3">
         <v>4062</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>1250</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="8">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="16">
         <v>44652</v>
       </c>
       <c r="C31" s="12">
@@ -1327,12 +1465,12 @@
       <c r="I31" s="12">
         <v>4046</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="12">
         <v>1244</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="9">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="17">
         <v>44621</v>
       </c>
       <c r="C32" s="3">
@@ -1356,12 +1494,12 @@
       <c r="I32" s="3">
         <v>4034</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="3">
         <v>1237</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="8">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="16">
         <v>44593</v>
       </c>
       <c r="C33" s="12">
@@ -1385,70 +1523,70 @@
       <c r="I33" s="12">
         <v>4013</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="12">
         <v>1234</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="9">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="18">
         <v>44562</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>20280</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>2988</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>491</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>203</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="4">
         <v>155756</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="4">
         <v>30919</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="4">
         <v>4015</v>
       </c>
       <c r="J34" s="4">
         <v>1222</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="8">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="19">
         <v>44531</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="13">
         <v>20263</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="13">
         <v>2989</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="13">
         <v>487</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="13">
         <v>203</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="13">
         <v>155476</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="13">
         <v>30843</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="13">
         <v>4009</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="13">
         <v>1222</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="9">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="17">
         <v>44501</v>
       </c>
       <c r="C36" s="3">
@@ -1472,12 +1610,12 @@
       <c r="I36" s="3">
         <v>3992</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="3">
         <v>1216</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="8">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="16">
         <v>44470</v>
       </c>
       <c r="C37" s="12">
@@ -1501,12 +1639,12 @@
       <c r="I37" s="12">
         <v>3971</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="12">
         <v>1218</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="9">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="17">
         <v>44440</v>
       </c>
       <c r="C38" s="3">
@@ -1530,12 +1668,12 @@
       <c r="I38" s="3">
         <v>3948</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="3">
         <v>1214</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="8">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="16">
         <v>44409</v>
       </c>
       <c r="C39" s="12">
@@ -1559,12 +1697,12 @@
       <c r="I39" s="12">
         <v>3913</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="12">
         <v>1220</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="9">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="17">
         <v>44378</v>
       </c>
       <c r="C40" s="3">
@@ -1588,12 +1726,12 @@
       <c r="I40" s="3">
         <v>3889</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
         <v>1215</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="8">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="16">
         <v>44348</v>
       </c>
       <c r="C41" s="12">
@@ -1617,12 +1755,12 @@
       <c r="I41" s="12">
         <v>3878</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="12">
         <v>1211</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="9">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="17">
         <v>44317</v>
       </c>
       <c r="C42" s="3">
@@ -1646,12 +1784,12 @@
       <c r="I42" s="3">
         <v>3848</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3">
         <v>1208</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="8">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="16">
         <v>44287</v>
       </c>
       <c r="C43" s="12">
@@ -1675,12 +1813,12 @@
       <c r="I43" s="12">
         <v>3855</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="12">
         <v>1197</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="9">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="17">
         <v>44256</v>
       </c>
       <c r="C44" s="3">
@@ -1704,12 +1842,12 @@
       <c r="I44" s="3">
         <v>3837</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3">
         <v>1196</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="8">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="16">
         <v>44228</v>
       </c>
       <c r="C45" s="12">
@@ -1733,70 +1871,70 @@
       <c r="I45" s="12">
         <v>3793</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="12">
         <v>1186</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="9">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="18">
         <v>44197</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>19809</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <v>2878</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>478</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>210</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="4">
         <v>150642</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="4">
         <v>29399</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="4">
         <v>3775</v>
       </c>
       <c r="J46" s="4">
         <v>1181</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="8">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="19">
         <v>44166</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="13">
         <v>19806</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="13">
         <v>2877</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="13">
         <v>477</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="13">
         <v>210</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="13">
         <v>150512</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="13">
         <v>29328</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="13">
         <v>3753</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="13">
         <v>1181</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="9">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="17">
         <v>44136</v>
       </c>
       <c r="C48" s="3">
@@ -1820,12 +1958,12 @@
       <c r="I48" s="3">
         <v>3724</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="3">
         <v>1177</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="8">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="16">
         <v>44105</v>
       </c>
       <c r="C49" s="12">
@@ -1849,12 +1987,12 @@
       <c r="I49" s="12">
         <v>3720</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="12">
         <v>1169</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="9">
+    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="17">
         <v>44075</v>
       </c>
       <c r="C50" s="3">
@@ -1878,12 +2016,12 @@
       <c r="I50" s="3">
         <v>3682</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="3">
         <v>1165</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="8">
+    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="16">
         <v>44044</v>
       </c>
       <c r="C51" s="12">
@@ -1907,12 +2045,12 @@
       <c r="I51" s="12">
         <v>3675</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="12">
         <v>1160</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="9">
+    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="17">
         <v>44013</v>
       </c>
       <c r="C52" s="3">
@@ -1936,12 +2074,12 @@
       <c r="I52" s="3">
         <v>3651</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="3">
         <v>1156</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="8">
+    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="16">
         <v>43983</v>
       </c>
       <c r="C53" s="12">
@@ -1965,12 +2103,12 @@
       <c r="I53" s="12">
         <v>3641</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="12">
         <v>1154</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="9">
+    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="17">
         <v>43952</v>
       </c>
       <c r="C54" s="3">
@@ -1994,12 +2132,12 @@
       <c r="I54" s="3">
         <v>3645</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="3">
         <v>1152</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="8">
+    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="16">
         <v>43922</v>
       </c>
       <c r="C55" s="12">
@@ -2023,12 +2161,12 @@
       <c r="I55" s="12">
         <v>3645</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="12">
         <v>1151</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="9">
+    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="17">
         <v>43891</v>
       </c>
       <c r="C56" s="3">
@@ -2052,12 +2190,12 @@
       <c r="I56" s="3">
         <v>3647</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="3">
         <v>1150</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="8">
+    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="16">
         <v>43862</v>
       </c>
       <c r="C57" s="12">
@@ -2081,70 +2219,70 @@
       <c r="I57" s="12">
         <v>3624</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="12">
         <v>1150</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="9">
+    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="18">
         <v>43831</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="4">
         <v>19541</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="4">
         <v>2817</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="4">
         <v>476</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>207</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="4">
         <v>148188</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="4">
         <v>28401</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="4">
         <v>3614</v>
       </c>
       <c r="J58" s="4">
         <v>1147</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="8">
+    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="19">
         <v>43800</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="13">
         <v>19514</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="13">
         <v>2807</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="13">
         <v>477</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="13">
         <v>206</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="13">
         <v>147966</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="13">
         <v>28318</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="13">
         <v>3601</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="13">
         <v>1146</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="9">
+    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="17">
         <v>43770</v>
       </c>
       <c r="C60" s="3">
@@ -2168,12 +2306,12 @@
       <c r="I60" s="3">
         <v>3578</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="3">
         <v>1143</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="8">
+    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="16">
         <v>43739</v>
       </c>
       <c r="C61" s="12">
@@ -2197,12 +2335,12 @@
       <c r="I61" s="12">
         <v>3566</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="12">
         <v>1131</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="9">
+    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="17">
         <v>43709</v>
       </c>
       <c r="C62" s="3">
@@ -2226,12 +2364,12 @@
       <c r="I62" s="3">
         <v>3315</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="3">
         <v>1067</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="8">
+    <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="16">
         <v>43678</v>
       </c>
       <c r="C63" s="12">
@@ -2255,12 +2393,12 @@
       <c r="I63" s="12">
         <v>3310</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="12">
         <v>1060</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="9">
+    <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="17">
         <v>43647</v>
       </c>
       <c r="C64" s="3">
@@ -2284,12 +2422,12 @@
       <c r="I64" s="3">
         <v>3256</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="3">
         <v>1052</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="8">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="16">
         <v>43617</v>
       </c>
       <c r="C65" s="12">
@@ -2313,12 +2451,12 @@
       <c r="I65" s="12">
         <v>3256</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="12">
         <v>1054</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="9">
+    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="17">
         <v>43586</v>
       </c>
       <c r="C66" s="3">
@@ -2342,12 +2480,12 @@
       <c r="I66" s="3">
         <v>3289</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J66" s="3">
         <v>1066</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="8">
+    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="16">
         <v>43556</v>
       </c>
       <c r="C67" s="12">
@@ -2371,12 +2509,12 @@
       <c r="I67" s="12">
         <v>3256</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="12">
         <v>1066</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="9">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="17">
         <v>43525</v>
       </c>
       <c r="C68" s="3">
@@ -2400,12 +2538,12 @@
       <c r="I68" s="3">
         <v>3244</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="3">
         <v>1056</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="8">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="16">
         <v>43497</v>
       </c>
       <c r="C69" s="12">
@@ -2429,70 +2567,70 @@
       <c r="I69" s="12">
         <v>3211</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="12">
         <v>1050</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="9">
+    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="18">
         <v>43466</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4">
         <v>17187</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="4">
         <v>2415</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="4">
         <v>397</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="4">
         <v>170</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="4">
         <v>123279</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="4">
         <v>25269</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="4">
         <v>3198</v>
       </c>
       <c r="J70" s="4">
         <v>1045</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="8">
+    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="16">
         <v>43435</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="6">
         <v>17176</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="6">
         <v>2409</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="6">
         <v>394</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="6">
         <v>170</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="6">
         <v>123073</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="6">
         <v>25189</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="6">
         <v>3183</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="12">
         <v>1042</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="9">
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="17">
         <v>43405</v>
       </c>
       <c r="C72" s="3">
@@ -2516,41 +2654,41 @@
       <c r="I72" s="3">
         <v>3170</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="3">
         <v>1035</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="8">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="16">
         <v>43374</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="6">
         <v>16927</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="6">
         <v>2392</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="6">
         <v>382</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="6">
         <v>168</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="6">
         <v>122104</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="6">
         <v>24950</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="6">
         <v>3156</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="12">
         <v>1026</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="9">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="17">
         <v>43344</v>
       </c>
       <c r="C74" s="3">
@@ -2574,41 +2712,41 @@
       <c r="I74" s="3">
         <v>3133</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="3">
         <v>1019</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="8">
+    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="16">
         <v>43313</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="6">
         <v>16753</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="6">
         <v>2373</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="6">
         <v>373</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="6">
         <v>165</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="6">
         <v>121024</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="6">
         <v>24729</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="6">
         <v>3111</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="12">
         <v>1016</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="9">
+    <row r="76" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="17">
         <v>43282</v>
       </c>
       <c r="C76" s="3">
@@ -2632,41 +2770,41 @@
       <c r="I76" s="3">
         <v>3094</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="3">
         <v>1005</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="8">
+    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="16">
         <v>43252</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="6">
         <v>16612</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="6">
         <v>2334</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="6">
         <v>369</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="6">
         <v>168</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="6">
         <v>120020</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="6">
         <v>24500</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="6">
         <v>3076</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="12">
         <v>1003</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="9">
+    <row r="78" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="17">
         <v>43221</v>
       </c>
       <c r="C78" s="3">
@@ -2690,41 +2828,41 @@
       <c r="I78" s="3">
         <v>3068</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="3">
         <v>998</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="8">
+    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="16">
         <v>43191</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="6">
         <v>16474</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="6">
         <v>2306</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="6">
         <v>363</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="6">
         <v>166</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="6">
         <v>119076</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="6">
         <v>24234</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="6">
         <v>3031</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="12">
         <v>994</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="9">
+    <row r="80" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="17">
         <v>43160</v>
       </c>
       <c r="C80" s="3">
@@ -2748,65 +2886,65 @@
       <c r="I80" s="3">
         <v>3016</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="3">
         <v>982</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="8">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="16">
         <v>43132</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="6">
         <v>16312</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="6">
         <v>2280</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="6">
         <v>355</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F81" s="6">
         <v>163</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="6">
         <v>118068</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="6">
         <v>23912</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="6">
         <v>3000</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="12">
         <v>971</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="10">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="17">
         <v>43101</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="3">
         <v>16235</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="3">
         <v>2282</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="3">
         <v>350</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="3">
         <v>164</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G82" s="3">
         <v>117820</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H82" s="3">
         <v>23812</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82" s="3">
         <v>2985</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="3">
         <v>967</v>
       </c>
     </row>
@@ -2826,12 +2964,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="2">
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="C4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB56BF-AA34-4F01-9C59-A05F1EFAB136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C68BC4-C8AC-4C52-B231-98107D96297F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
   <si>
     <t>Empresas permisionarios de pasaje</t>
   </si>
@@ -84,6 +84,42 @@
   </si>
   <si>
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -284,12 +320,6 @@
     <xf numFmtId="17" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,6 +330,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -342,6 +378,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -349,12 +391,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -408,7 +444,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K85" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K85" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B5:K85" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
     <filterColumn colId="0">
       <filters>
@@ -689,18 +725,18 @@
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="8"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="1"/>
       <c r="M4" s="2"/>
     </row>
@@ -737,11 +773,11 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="15">
-        <v>8</v>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="6">
         <v>22054</v>
@@ -769,11 +805,11 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>2024</v>
       </c>
-      <c r="C7" s="16">
-        <v>7</v>
+      <c r="C7" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="3">
         <v>21977</v>
@@ -801,11 +837,11 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="15">
-        <v>6</v>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="6">
         <v>21900</v>
@@ -833,11 +869,11 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="16">
-        <v>5</v>
+      <c r="C9" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>21844</v>
@@ -865,11 +901,11 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="15">
-        <v>4</v>
+      <c r="C10" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="6">
         <v>21782</v>
@@ -897,11 +933,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="16">
-        <v>3</v>
+      <c r="C11" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="3">
         <v>21711</v>
@@ -929,11 +965,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="15">
-        <v>2</v>
+      <c r="C12" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="6">
         <v>21675</v>
@@ -961,11 +997,11 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="17">
-        <v>1</v>
+      <c r="C13" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="4">
         <v>21635</v>
@@ -993,11 +1029,11 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="18">
+      <c r="B14" s="16">
         <v>2023</v>
       </c>
-      <c r="C14" s="18">
-        <v>12</v>
+      <c r="C14" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="9">
         <v>21607</v>
@@ -1025,11 +1061,11 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>2023</v>
       </c>
-      <c r="C15" s="16">
-        <v>11</v>
+      <c r="C15" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="3">
         <v>21539</v>
@@ -1057,11 +1093,11 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>2023</v>
       </c>
-      <c r="C16" s="15">
-        <v>10</v>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6">
         <v>21461</v>
@@ -1089,11 +1125,11 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="16">
-        <v>9</v>
+      <c r="C17" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="3">
         <v>21397</v>
@@ -1121,11 +1157,11 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="15">
-        <v>8</v>
+      <c r="C18" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="6">
         <v>21333</v>
@@ -1153,11 +1189,11 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="16">
-        <v>7</v>
+      <c r="C19" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="3">
         <v>21275</v>
@@ -1185,11 +1221,11 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="15">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="15">
-        <v>6</v>
+      <c r="C20" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="6">
         <v>21204</v>
@@ -1217,11 +1253,11 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="16">
-        <v>5</v>
+      <c r="C21" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="3">
         <v>21106</v>
@@ -1249,11 +1285,11 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="15">
-        <v>4</v>
+      <c r="C22" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="6">
         <v>21068</v>
@@ -1281,11 +1317,11 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="16">
-        <v>3</v>
+      <c r="C23" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="3">
         <v>21005</v>
@@ -1313,11 +1349,11 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="15">
-        <v>2</v>
+      <c r="C24" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="6">
         <v>20929</v>
@@ -1345,11 +1381,11 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="17">
-        <v>1</v>
+      <c r="C25" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="4">
         <v>20899</v>
@@ -1377,11 +1413,11 @@
       </c>
     </row>
     <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="18">
+      <c r="B26" s="16">
         <v>2022</v>
       </c>
-      <c r="C26" s="18">
-        <v>12</v>
+      <c r="C26" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D26" s="9">
         <v>20835</v>
@@ -1409,11 +1445,11 @@
       </c>
     </row>
     <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>2022</v>
       </c>
-      <c r="C27" s="16">
-        <v>11</v>
+      <c r="C27" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D27" s="3">
         <v>20752</v>
@@ -1441,11 +1477,11 @@
       </c>
     </row>
     <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15">
+      <c r="B28" s="13">
         <v>2022</v>
       </c>
-      <c r="C28" s="15">
-        <v>10</v>
+      <c r="C28" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="6">
         <v>20711</v>
@@ -1473,11 +1509,11 @@
       </c>
     </row>
     <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="16">
-        <v>9</v>
+      <c r="C29" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D29" s="3">
         <v>20657</v>
@@ -1505,11 +1541,11 @@
       </c>
     </row>
     <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="15">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="15">
-        <v>8</v>
+      <c r="C30" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D30" s="6">
         <v>20751</v>
@@ -1537,11 +1573,11 @@
       </c>
     </row>
     <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="16">
-        <v>7</v>
+      <c r="C31" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D31" s="3">
         <v>20551</v>
@@ -1569,11 +1605,11 @@
       </c>
     </row>
     <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="15">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="15">
-        <v>6</v>
+      <c r="C32" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="6">
         <v>20522</v>
@@ -1601,11 +1637,11 @@
       </c>
     </row>
     <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="16">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="16">
-        <v>5</v>
+      <c r="C33" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D33" s="3">
         <v>20484</v>
@@ -1633,11 +1669,11 @@
       </c>
     </row>
     <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="15">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="15">
-        <v>4</v>
+      <c r="C34" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D34" s="6">
         <v>20432</v>
@@ -1665,11 +1701,11 @@
       </c>
     </row>
     <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="16">
-        <v>3</v>
+      <c r="C35" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D35" s="3">
         <v>20400</v>
@@ -1697,11 +1733,11 @@
       </c>
     </row>
     <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="15">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="15">
-        <v>2</v>
+      <c r="C36" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D36" s="6">
         <v>20318</v>
@@ -1729,11 +1765,11 @@
       </c>
     </row>
     <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="17">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="17">
-        <v>1</v>
+      <c r="C37" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D37" s="4">
         <v>20280</v>
@@ -1761,11 +1797,11 @@
       </c>
     </row>
     <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="18">
+      <c r="B38" s="16">
         <v>2021</v>
       </c>
-      <c r="C38" s="18">
-        <v>12</v>
+      <c r="C38" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D38" s="9">
         <v>20263</v>
@@ -1793,11 +1829,11 @@
       </c>
     </row>
     <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="16">
+      <c r="B39" s="14">
         <v>2021</v>
       </c>
-      <c r="C39" s="16">
-        <v>11</v>
+      <c r="C39" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D39" s="3">
         <v>20206</v>
@@ -1825,11 +1861,11 @@
       </c>
     </row>
     <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="15">
+      <c r="B40" s="13">
         <v>2021</v>
       </c>
-      <c r="C40" s="15">
-        <v>10</v>
+      <c r="C40" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D40" s="6">
         <v>20146</v>
@@ -1857,11 +1893,11 @@
       </c>
     </row>
     <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="16">
+      <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C41" s="16">
-        <v>9</v>
+      <c r="C41" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D41" s="3">
         <v>20103</v>
@@ -1889,11 +1925,11 @@
       </c>
     </row>
     <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="15">
+      <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="15">
-        <v>8</v>
+      <c r="C42" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D42" s="6">
         <v>20021</v>
@@ -1921,11 +1957,11 @@
       </c>
     </row>
     <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="16">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="16">
-        <v>7</v>
+      <c r="C43" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="3">
         <v>20037</v>
@@ -1953,11 +1989,11 @@
       </c>
     </row>
     <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="15">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="15">
-        <v>6</v>
+      <c r="C44" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D44" s="6">
         <v>19989</v>
@@ -1985,11 +2021,11 @@
       </c>
     </row>
     <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="16">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="16">
-        <v>5</v>
+      <c r="C45" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D45" s="3">
         <v>19946</v>
@@ -2017,11 +2053,11 @@
       </c>
     </row>
     <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="15">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="15">
-        <v>4</v>
+      <c r="C46" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D46" s="6">
         <v>19923</v>
@@ -2049,11 +2085,11 @@
       </c>
     </row>
     <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="16">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="16">
-        <v>3</v>
+      <c r="C47" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D47" s="3">
         <v>19894</v>
@@ -2081,11 +2117,11 @@
       </c>
     </row>
     <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="15">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="15">
-        <v>2</v>
+      <c r="C48" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D48" s="6">
         <v>19844</v>
@@ -2113,11 +2149,11 @@
       </c>
     </row>
     <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="17">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="17">
-        <v>1</v>
+      <c r="C49" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D49" s="4">
         <v>19809</v>
@@ -2145,11 +2181,11 @@
       </c>
     </row>
     <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="18">
+      <c r="B50" s="16">
         <v>2020</v>
       </c>
-      <c r="C50" s="18">
-        <v>12</v>
+      <c r="C50" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D50" s="9">
         <v>19806</v>
@@ -2177,11 +2213,11 @@
       </c>
     </row>
     <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="16">
+      <c r="B51" s="14">
         <v>2020</v>
       </c>
-      <c r="C51" s="16">
-        <v>11</v>
+      <c r="C51" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D51" s="3">
         <v>19746</v>
@@ -2209,11 +2245,11 @@
       </c>
     </row>
     <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="15">
+      <c r="B52" s="13">
         <v>2020</v>
       </c>
-      <c r="C52" s="15">
-        <v>10</v>
+      <c r="C52" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D52" s="6">
         <v>19711</v>
@@ -2241,11 +2277,11 @@
       </c>
     </row>
     <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="16">
+      <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C53" s="16">
-        <v>9</v>
+      <c r="C53" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D53" s="3">
         <v>19666</v>
@@ -2273,11 +2309,11 @@
       </c>
     </row>
     <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="15">
+      <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="15">
-        <v>8</v>
+      <c r="C54" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D54" s="6">
         <v>19641</v>
@@ -2305,11 +2341,11 @@
       </c>
     </row>
     <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="16">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="16">
-        <v>7</v>
+      <c r="C55" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D55" s="3">
         <v>19637</v>
@@ -2337,11 +2373,11 @@
       </c>
     </row>
     <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="15">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="15">
-        <v>6</v>
+      <c r="C56" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D56" s="6">
         <v>19635</v>
@@ -2369,11 +2405,11 @@
       </c>
     </row>
     <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="16">
-        <v>5</v>
+      <c r="C57" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D57" s="3">
         <v>19634</v>
@@ -2401,11 +2437,11 @@
       </c>
     </row>
     <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="15">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="15">
-        <v>4</v>
+      <c r="C58" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D58" s="6">
         <v>19634</v>
@@ -2433,11 +2469,11 @@
       </c>
     </row>
     <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="16">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="16">
-        <v>3</v>
+      <c r="C59" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D59" s="3">
         <v>19633</v>
@@ -2465,11 +2501,11 @@
       </c>
     </row>
     <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="15">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="15">
-        <v>2</v>
+      <c r="C60" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D60" s="6">
         <v>19600</v>
@@ -2497,11 +2533,11 @@
       </c>
     </row>
     <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="17">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="17">
-        <v>1</v>
+      <c r="C61" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D61" s="4">
         <v>19541</v>
@@ -2529,11 +2565,11 @@
       </c>
     </row>
     <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="18">
+      <c r="B62" s="16">
         <v>2019</v>
       </c>
-      <c r="C62" s="18">
-        <v>12</v>
+      <c r="C62" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="D62" s="9">
         <v>19514</v>
@@ -2561,11 +2597,11 @@
       </c>
     </row>
     <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="16">
+      <c r="B63" s="14">
         <v>2019</v>
       </c>
-      <c r="C63" s="16">
-        <v>11</v>
+      <c r="C63" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D63" s="3">
         <v>19374</v>
@@ -2593,11 +2629,11 @@
       </c>
     </row>
     <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="15">
+      <c r="B64" s="13">
         <v>2019</v>
       </c>
-      <c r="C64" s="15">
-        <v>10</v>
+      <c r="C64" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D64" s="6">
         <v>19270</v>
@@ -2625,11 +2661,11 @@
       </c>
     </row>
     <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="16">
+      <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C65" s="16">
-        <v>9</v>
+      <c r="C65" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D65" s="3">
         <v>18283</v>
@@ -2657,11 +2693,11 @@
       </c>
     </row>
     <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="15">
+      <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="15">
-        <v>8</v>
+      <c r="C66" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D66" s="6">
         <v>18210</v>
@@ -2689,11 +2725,11 @@
       </c>
     </row>
     <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="16">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="16">
-        <v>7</v>
+      <c r="C67" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D67" s="3">
         <v>18415</v>
@@ -2721,11 +2757,11 @@
       </c>
     </row>
     <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="15">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="15">
-        <v>6</v>
+      <c r="C68" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D68" s="6">
         <v>18061</v>
@@ -2753,11 +2789,11 @@
       </c>
     </row>
     <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="16">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="16">
-        <v>5</v>
+      <c r="C69" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D69" s="3">
         <v>17466</v>
@@ -2785,11 +2821,11 @@
       </c>
     </row>
     <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="15">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="15">
-        <v>4</v>
+      <c r="C70" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D70" s="6">
         <v>17400</v>
@@ -2817,11 +2853,11 @@
       </c>
     </row>
     <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="16">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="16">
-        <v>3</v>
+      <c r="C71" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D71" s="3">
         <v>17310</v>
@@ -2849,11 +2885,11 @@
       </c>
     </row>
     <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="15">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="15">
-        <v>2</v>
+      <c r="C72" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D72" s="6">
         <v>17252</v>
@@ -2881,11 +2917,11 @@
       </c>
     </row>
     <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="17">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="17">
-        <v>1</v>
+      <c r="C73" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="D73" s="4">
         <v>17187</v>
@@ -2913,11 +2949,11 @@
       </c>
     </row>
     <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="15">
+      <c r="B74" s="13">
         <v>2018</v>
       </c>
-      <c r="C74" s="15">
-        <v>12</v>
+      <c r="C74" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D74" s="6">
         <v>17176</v>
@@ -2945,11 +2981,11 @@
       </c>
     </row>
     <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="16">
+      <c r="B75" s="14">
         <v>2018</v>
       </c>
-      <c r="C75" s="16">
-        <v>11</v>
+      <c r="C75" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="D75" s="3">
         <v>17063</v>
@@ -2977,11 +3013,11 @@
       </c>
     </row>
     <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="15">
+      <c r="B76" s="13">
         <v>2018</v>
       </c>
-      <c r="C76" s="15">
-        <v>10</v>
+      <c r="C76" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D76" s="6">
         <v>16927</v>
@@ -3009,11 +3045,11 @@
       </c>
     </row>
     <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="16">
+      <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C77" s="16">
-        <v>9</v>
+      <c r="C77" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D77" s="3">
         <v>16818</v>
@@ -3041,11 +3077,11 @@
       </c>
     </row>
     <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="15">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="15">
-        <v>8</v>
+      <c r="C78" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D78" s="6">
         <v>16753</v>
@@ -3073,11 +3109,11 @@
       </c>
     </row>
     <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="16">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C79" s="16">
-        <v>7</v>
+      <c r="C79" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D79" s="3">
         <v>16665</v>
@@ -3105,11 +3141,11 @@
       </c>
     </row>
     <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="15">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="15">
-        <v>6</v>
+      <c r="C80" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D80" s="6">
         <v>16612</v>
@@ -3137,11 +3173,11 @@
       </c>
     </row>
     <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="16">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C81" s="16">
-        <v>5</v>
+      <c r="C81" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D81" s="3">
         <v>16553</v>
@@ -3169,11 +3205,11 @@
       </c>
     </row>
     <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="15">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="15">
-        <v>4</v>
+      <c r="C82" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D82" s="6">
         <v>16474</v>
@@ -3201,11 +3237,11 @@
       </c>
     </row>
     <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="16">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C83" s="16">
-        <v>3</v>
+      <c r="C83" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="D83" s="3">
         <v>16403</v>
@@ -3233,11 +3269,11 @@
       </c>
     </row>
     <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="15">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="15">
-        <v>2</v>
+      <c r="C84" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D84" s="6">
         <v>16312</v>
@@ -3265,11 +3301,11 @@
       </c>
     </row>
     <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="16">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C85" s="16">
-        <v>1</v>
+      <c r="C85" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="D85" s="3">
         <v>16235</v>

--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904E0352-72B5-405F-8FAC-A17B0D9687A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D84930-8B7E-409A-BCDF-6F1D1B6986D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
   <si>
     <t>Empresas permisionarios de pasaje</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -133,33 +133,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -167,7 +167,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -409,7 +409,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -444,8 +444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K86" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K86" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K87" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K87" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -472,7 +472,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -480,28 +480,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -510,14 +510,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -692,37 +692,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:M89"/>
+  <dimension ref="B2:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
-    <col min="11" max="11" width="9.09765625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="12"/>
       <c r="D4" s="18" t="s">
@@ -740,7 +738,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
@@ -772,2610 +770,2642 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="14">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6">
+        <v>22266</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3453</v>
+      </c>
+      <c r="F6" s="6">
+        <v>553</v>
+      </c>
+      <c r="G6" s="6">
+        <v>222</v>
+      </c>
+      <c r="H6" s="6">
+        <v>171475</v>
+      </c>
+      <c r="I6" s="6">
+        <v>35741</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4799</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <v>22164</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <v>3444</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>550</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="3">
         <v>222</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="3">
         <v>170782</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I7" s="3">
         <v>35496</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J7" s="3">
         <v>4768</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K7" s="3">
         <v>1447</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>22054</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="6">
         <v>3448</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="6">
         <v>545</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="6">
         <v>221</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H8" s="6">
         <v>170125</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I8" s="6">
         <v>35287</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J8" s="6">
         <v>4743</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K8" s="6">
         <v>1439</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="14">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>21977</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>3439</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <v>539</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>222</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3">
         <v>169471</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I9" s="3">
         <v>35095</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J9" s="3">
         <v>4695</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K9" s="3">
         <v>1433</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>21900</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>3414</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="6">
         <v>541</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G10" s="6">
         <v>222</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H10" s="6">
         <v>168764</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I10" s="6">
         <v>34901</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J10" s="6">
         <v>4637</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K10" s="6">
         <v>1428</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="14">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>21844</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>3399</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <v>540</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>221</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>167901</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <v>34526</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="3">
         <v>4584</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>21782</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="6">
         <v>3381</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="6">
         <v>537</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G12" s="6">
         <v>221</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <v>167537</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I12" s="6">
         <v>34455</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J12" s="6">
         <v>4564</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K12" s="6">
         <v>1401</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="14">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>21711</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>3370</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>537</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>216</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="3">
         <v>166979</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <v>34249</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J13" s="3">
         <v>4522</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="3">
         <v>1391</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>21675</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>3345</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>538</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>215</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <v>166478</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="6">
         <v>34057</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J14" s="6">
         <v>4499</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K14" s="6">
         <v>1379</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>21635</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>3332</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <v>535</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="4">
         <v>212</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="4">
         <v>166076</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <v>33897</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J15" s="4">
         <v>4471</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K15" s="4">
         <v>1371</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="16">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
         <v>2023</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>21607</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>3331</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>527</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>213</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>165843</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="9">
         <v>33744</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J16" s="9">
         <v>4441</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K16" s="9">
         <v>1370</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
         <v>2023</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>21539</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>3304</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>524</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>215</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>165469</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>33558</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>4409</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>1361</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>21461</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>3281</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="6">
         <v>527</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <v>213</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <v>164931</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I18" s="6">
         <v>33376</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J18" s="6">
         <v>4381</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K18" s="6">
         <v>1353</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="14">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>21397</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>3274</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>524</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>214</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <v>164459</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="3">
         <v>33219</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J19" s="3">
         <v>4371</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K19" s="3">
         <v>1339</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <v>21333</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <v>3249</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <v>520</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="6">
         <v>213</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="6">
         <v>164018</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="6">
         <v>33086</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J20" s="6">
         <v>4345</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K20" s="6">
         <v>1335</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>21275</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>3244</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>515</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>214</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <v>163591</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <v>32899</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="3">
         <v>4314</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K21" s="3">
         <v>1333</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>21204</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>3230</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <v>515</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="6">
         <v>213</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="6">
         <v>163109</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="6">
         <v>32765</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J22" s="6">
         <v>4282</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K22" s="6">
         <v>1324</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="14">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>21106</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>3207</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>515</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>214</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>162727</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <v>32622</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J23" s="3">
         <v>4264</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K23" s="3">
         <v>1317</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="13">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>21068</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <v>3196</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <v>508</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <v>215</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="6">
         <v>162289</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="6">
         <v>32483</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J24" s="6">
         <v>4234</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K24" s="6">
         <v>1308</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="14">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>21005</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>3186</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>509</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>213</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>161844</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <v>32370</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J25" s="3">
         <v>4232</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K25" s="3">
         <v>1304</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="13">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="6">
         <v>20929</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>3165</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>506</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>212</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <v>161330</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <v>32261</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="6">
         <v>4201</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K26" s="6">
         <v>1299</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="15">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>20899</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <v>3142</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>506</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <v>211</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H27" s="4">
         <v>161006</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I27" s="4">
         <v>32141</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J27" s="4">
         <v>4183</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K27" s="4">
         <v>1295</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="16">
         <v>2022</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>20835</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>3137</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>506</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>209</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="9">
         <v>160773</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I28" s="9">
         <v>32040</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J28" s="9">
         <v>4173</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="9">
         <v>1286</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="14">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
         <v>2022</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>20752</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="3">
         <v>3107</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>505</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>211</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="3">
         <v>160470</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I29" s="3">
         <v>31958</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J29" s="3">
         <v>4162</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K29" s="3">
         <v>1280</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="6">
         <v>20711</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="6">
         <v>3095</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="6">
         <v>501</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G30" s="6">
         <v>210</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="6">
         <v>160213</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I30" s="6">
         <v>31874</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J30" s="6">
         <v>4145</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K30" s="6">
         <v>1274</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="14">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>20657</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>3083</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="3">
         <v>499</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>209</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H31" s="3">
         <v>159867</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I31" s="3">
         <v>31794</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J31" s="3">
         <v>4135</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K31" s="3">
         <v>1270</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="6">
         <v>20751</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="6">
         <v>3106</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="6">
         <v>501</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G32" s="6">
         <v>211</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H32" s="6">
         <v>159400</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I32" s="6">
         <v>31688</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J32" s="6">
         <v>4111</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K32" s="6">
         <v>1260</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="14">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <v>20551</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="3">
         <v>3046</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>490</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>208</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H33" s="3">
         <v>158821</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I33" s="3">
         <v>31547</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J33" s="3">
         <v>4081</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K33" s="3">
         <v>1253</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>20522</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="6">
         <v>3038</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="6">
         <v>490</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G34" s="6">
         <v>207</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H34" s="6">
         <v>158518</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I34" s="6">
         <v>31468</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J34" s="6">
         <v>4073</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K34" s="6">
         <v>1251</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="14">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="3">
         <v>20484</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E35" s="3">
         <v>3026</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>488</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>206</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H35" s="3">
         <v>158024</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I35" s="3">
         <v>31395</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J35" s="3">
         <v>4062</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K35" s="3">
         <v>1250</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="13">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <v>20432</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="6">
         <v>3010</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="6">
         <v>487</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G36" s="6">
         <v>206</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="6">
         <v>157470</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I36" s="6">
         <v>31286</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J36" s="6">
         <v>4046</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K36" s="6">
         <v>1244</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="14">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37" s="3">
         <v>20400</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E37" s="3">
         <v>3000</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F37" s="3">
         <v>487</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G37" s="3">
         <v>207</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H37" s="3">
         <v>156952</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I37" s="3">
         <v>31147</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J37" s="3">
         <v>4034</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K37" s="3">
         <v>1237</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="13">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="6">
         <v>20318</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>2994</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>489</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>204</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <v>156255</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="6">
         <v>31032</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J38" s="6">
         <v>4013</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K38" s="6">
         <v>1234</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="15">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="4">
         <v>20280</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <v>2988</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F39" s="4">
         <v>491</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G39" s="4">
         <v>203</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H39" s="4">
         <v>155756</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I39" s="4">
         <v>30919</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J39" s="4">
         <v>4015</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K39" s="4">
         <v>1222</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="16">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="16">
         <v>2021</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C40" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>20263</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>2989</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>487</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="9">
         <v>203</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H40" s="9">
         <v>155476</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="9">
         <v>30843</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J40" s="9">
         <v>4009</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K40" s="9">
         <v>1222</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="14">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="14">
         <v>2021</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <v>20206</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="3">
         <v>2973</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="3">
         <v>485</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G41" s="3">
         <v>203</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H41" s="3">
         <v>154922</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I41" s="3">
         <v>30721</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J41" s="3">
         <v>3992</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K41" s="3">
         <v>1216</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>20146</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <v>2967</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <v>483</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="6">
         <v>203</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H42" s="6">
         <v>154593</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I42" s="6">
         <v>30634</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J42" s="6">
         <v>3971</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K42" s="6">
         <v>1218</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="3">
         <v>20103</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="3">
         <v>2962</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="3">
         <v>483</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="3">
         <v>201</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H43" s="3">
         <v>154071</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I43" s="3">
         <v>30444</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J43" s="3">
         <v>3948</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K43" s="3">
         <v>1214</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="6">
         <v>20021</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="6">
         <v>2931</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="6">
         <v>477</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G44" s="6">
         <v>205</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H44" s="6">
         <v>153674</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I44" s="6">
         <v>30371</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J44" s="6">
         <v>3913</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K44" s="6">
         <v>1220</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="14">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="3">
         <v>20037</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="3">
         <v>2938</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="3">
         <v>478</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G45" s="3">
         <v>205</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H45" s="3">
         <v>153148</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I45" s="3">
         <v>30163</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J45" s="3">
         <v>3889</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K45" s="3">
         <v>1215</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="6">
         <v>19989</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="6">
         <v>2916</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="6">
         <v>479</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G46" s="6">
         <v>204</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H46" s="6">
         <v>152772</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I46" s="6">
         <v>30071</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J46" s="6">
         <v>3878</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K46" s="6">
         <v>1211</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="14">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D47" s="3">
         <v>19946</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E47" s="3">
         <v>2902</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F47" s="3">
         <v>478</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G47" s="3">
         <v>204</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H47" s="3">
         <v>152274</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I47" s="3">
         <v>29923</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J47" s="3">
         <v>3848</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K47" s="3">
         <v>1208</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="13">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <v>19923</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="6">
         <v>2897</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="6">
         <v>476</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G48" s="6">
         <v>205</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H48" s="6">
         <v>151877</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I48" s="6">
         <v>29764</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J48" s="6">
         <v>3855</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K48" s="6">
         <v>1197</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="14">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <v>19894</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E49" s="3">
         <v>2881</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <v>475</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>209</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="3">
         <v>151428</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I49" s="3">
         <v>29625</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J49" s="3">
         <v>3837</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K49" s="3">
         <v>1196</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="13">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="6">
         <v>19844</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>2870</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>478</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="6">
         <v>208</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H50" s="6">
         <v>150941</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I50" s="6">
         <v>29527</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J50" s="6">
         <v>3793</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K50" s="6">
         <v>1186</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="15">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D51" s="4">
         <v>19809</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E51" s="4">
         <v>2878</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F51" s="4">
         <v>478</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G51" s="4">
         <v>210</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H51" s="4">
         <v>150642</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I51" s="4">
         <v>29399</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J51" s="4">
         <v>3775</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K51" s="4">
         <v>1181</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="16">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="16">
         <v>2020</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>19806</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>2877</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>477</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="9">
         <v>210</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H52" s="9">
         <v>150512</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I52" s="9">
         <v>29328</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J52" s="9">
         <v>3753</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K52" s="9">
         <v>1181</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="14">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
         <v>2020</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="3">
         <v>19746</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="3">
         <v>2866</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F53" s="3">
         <v>480</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G53" s="3">
         <v>208</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H53" s="3">
         <v>149978</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I53" s="3">
         <v>29202</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J53" s="3">
         <v>3724</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K53" s="3">
         <v>1177</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="13">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <v>19711</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="6">
         <v>2853</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="6">
         <v>483</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G54" s="6">
         <v>207</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H54" s="6">
         <v>149557</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I54" s="6">
         <v>29064</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J54" s="6">
         <v>3720</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K54" s="6">
         <v>1169</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="14">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55" s="3">
         <v>19666</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E55" s="3">
         <v>2846</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F55" s="3">
         <v>481</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G55" s="3">
         <v>209</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H55" s="3">
         <v>149333</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I55" s="3">
         <v>28918</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J55" s="3">
         <v>3682</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K55" s="3">
         <v>1165</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="13">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="6">
         <v>19641</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="6">
         <v>2841</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F56" s="6">
         <v>482</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G56" s="6">
         <v>209</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H56" s="6">
         <v>149165</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I56" s="6">
         <v>28805</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J56" s="6">
         <v>3675</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K56" s="6">
         <v>1160</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="14">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D57" s="3">
         <v>19637</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E57" s="3">
         <v>2839</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F57" s="3">
         <v>481</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G57" s="3">
         <v>209</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H57" s="3">
         <v>149034</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I57" s="3">
         <v>28738</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J57" s="3">
         <v>3651</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K57" s="3">
         <v>1156</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="13">
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>19635</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <v>2839</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="6">
         <v>481</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G58" s="6">
         <v>208</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H58" s="6">
         <v>148936</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I58" s="6">
         <v>28662</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J58" s="6">
         <v>3641</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K58" s="6">
         <v>1154</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="14">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D59" s="3">
         <v>19634</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="3">
         <v>2839</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F59" s="3">
         <v>481</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G59" s="3">
         <v>207</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H59" s="3">
         <v>148915</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I59" s="3">
         <v>28646</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J59" s="3">
         <v>3645</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K59" s="3">
         <v>1152</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="13">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="6">
         <v>19634</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="6">
         <v>2839</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="6">
         <v>481</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G60" s="6">
         <v>207</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H60" s="6">
         <v>148909</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I60" s="6">
         <v>28641</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J60" s="6">
         <v>3645</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K60" s="6">
         <v>1151</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="14">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D61" s="3">
         <v>19633</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E61" s="3">
         <v>2839</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="3">
         <v>481</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G61" s="3">
         <v>207</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H61" s="3">
         <v>148896</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I61" s="3">
         <v>28639</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J61" s="3">
         <v>3647</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K61" s="3">
         <v>1150</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="13">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="6">
         <v>19600</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>2827</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <v>479</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>207</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="6">
         <v>148599</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I62" s="6">
         <v>28517</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J62" s="6">
         <v>3624</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K62" s="6">
         <v>1150</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="15">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D63" s="4">
         <v>19541</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E63" s="4">
         <v>2817</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F63" s="4">
         <v>476</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G63" s="4">
         <v>207</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H63" s="4">
         <v>148188</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I63" s="4">
         <v>28401</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J63" s="4">
         <v>3614</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K63" s="4">
         <v>1147</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="16">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="16">
         <v>2019</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>19514</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>2807</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>477</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>206</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H64" s="9">
         <v>147966</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I64" s="9">
         <v>28318</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J64" s="9">
         <v>3601</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K64" s="9">
         <v>1146</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="14">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="14">
         <v>2019</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D65" s="3">
         <v>19374</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E65" s="3">
         <v>2784</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F65" s="3">
         <v>474</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G65" s="3">
         <v>205</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H65" s="3">
         <v>147552</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I65" s="3">
         <v>28216</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J65" s="3">
         <v>3578</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K65" s="3">
         <v>1143</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="13">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <v>19270</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="6">
         <v>2775</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="6">
         <v>473</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G66" s="6">
         <v>203</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H66" s="6">
         <v>147145</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I66" s="6">
         <v>28082</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J66" s="6">
         <v>3566</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K66" s="6">
         <v>1131</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="14">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D67" s="3">
         <v>18283</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E67" s="3">
         <v>2541</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="3">
         <v>429</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G67" s="3">
         <v>173</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H67" s="3">
         <v>135900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I67" s="3">
         <v>26071</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J67" s="3">
         <v>3315</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K67" s="3">
         <v>1067</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="13">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="6">
         <v>18210</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="6">
         <v>2531</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F68" s="6">
         <v>428</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G68" s="6">
         <v>174</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H68" s="6">
         <v>135525</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I68" s="6">
         <v>25971</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J68" s="6">
         <v>3310</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K68" s="6">
         <v>1060</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="14">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D69" s="3">
         <v>18415</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E69" s="3">
         <v>2539</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F69" s="3">
         <v>433</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G69" s="3">
         <v>170</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H69" s="3">
         <v>135981</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I69" s="3">
         <v>25844</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J69" s="3">
         <v>3256</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K69" s="3">
         <v>1052</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="6">
         <v>18061</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="6">
         <v>2503</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F70" s="6">
         <v>431</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G70" s="6">
         <v>171</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H70" s="6">
         <v>134678</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I70" s="6">
         <v>25745</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J70" s="6">
         <v>3256</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K70" s="6">
         <v>1054</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="14">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="3">
         <v>17466</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E71" s="3">
         <v>2457</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F71" s="3">
         <v>414</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G71" s="3">
         <v>174</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H71" s="3">
         <v>124831</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I71" s="3">
         <v>25684</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J71" s="3">
         <v>3289</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K71" s="3">
         <v>1066</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="13">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="6">
         <v>17400</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="6">
         <v>2444</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F72" s="6">
         <v>408</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G72" s="6">
         <v>174</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H72" s="6">
         <v>124413</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I72" s="6">
         <v>25571</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J72" s="6">
         <v>3256</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K72" s="6">
         <v>1066</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="14">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="3">
         <v>17310</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E73" s="3">
         <v>2439</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="3">
         <v>406</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G73" s="3">
         <v>172</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H73" s="3">
         <v>124028</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I73" s="3">
         <v>25443</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J73" s="3">
         <v>3244</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K73" s="3">
         <v>1056</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="13">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>17252</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="6">
         <v>2424</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="6">
         <v>401</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G74" s="6">
         <v>171</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H74" s="6">
         <v>123619</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I74" s="6">
         <v>25350</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J74" s="6">
         <v>3211</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K74" s="6">
         <v>1050</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="15">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D75" s="4">
         <v>17187</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E75" s="4">
         <v>2415</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F75" s="4">
         <v>397</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G75" s="4">
         <v>170</v>
       </c>
-      <c r="H74" s="4">
+      <c r="H75" s="4">
         <v>123279</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I75" s="4">
         <v>25269</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J75" s="4">
         <v>3198</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K75" s="4">
         <v>1045</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="13">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="13">
         <v>2018</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>17176</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="6">
         <v>2409</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="6">
         <v>394</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="6">
         <v>170</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H76" s="6">
         <v>123073</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I76" s="6">
         <v>25189</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J76" s="6">
         <v>3183</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K76" s="6">
         <v>1042</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="14">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="14">
         <v>2018</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="3">
         <v>17063</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E77" s="3">
         <v>2394</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F77" s="3">
         <v>392</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G77" s="3">
         <v>167</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H77" s="3">
         <v>122612</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I77" s="3">
         <v>25091</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J77" s="3">
         <v>3170</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K77" s="3">
         <v>1035</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="13">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>16927</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>2392</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="6">
         <v>382</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G78" s="6">
         <v>168</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H78" s="6">
         <v>122104</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I78" s="6">
         <v>24950</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J78" s="6">
         <v>3156</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K78" s="6">
         <v>1026</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="14">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D79" s="3">
         <v>16818</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E79" s="3">
         <v>2382</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F79" s="3">
         <v>382</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G79" s="3">
         <v>168</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H79" s="3">
         <v>121579</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I79" s="3">
         <v>24817</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J79" s="3">
         <v>3133</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K79" s="3">
         <v>1019</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="13">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D80" s="6">
         <v>16753</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E80" s="6">
         <v>2373</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F80" s="6">
         <v>373</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G80" s="6">
         <v>165</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H80" s="6">
         <v>121024</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I80" s="6">
         <v>24729</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J80" s="6">
         <v>3111</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K80" s="6">
         <v>1016</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="14">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="14">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D81" s="3">
         <v>16665</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E81" s="3">
         <v>2355</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F81" s="3">
         <v>371</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G81" s="3">
         <v>165</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H81" s="3">
         <v>120510</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I81" s="3">
         <v>24592</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J81" s="3">
         <v>3094</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K81" s="3">
         <v>1005</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="13">
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <v>16612</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <v>2334</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <v>369</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <v>168</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H82" s="6">
         <v>120020</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I82" s="6">
         <v>24500</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J82" s="6">
         <v>3076</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K82" s="6">
         <v>1003</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="14">
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="14">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D83" s="3">
         <v>16553</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E83" s="3">
         <v>2326</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F83" s="3">
         <v>368</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G83" s="3">
         <v>167</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H83" s="3">
         <v>119627</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I83" s="3">
         <v>24395</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J83" s="3">
         <v>3068</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K83" s="3">
         <v>998</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="13">
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="6">
         <v>16474</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="6">
         <v>2306</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="6">
         <v>363</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G84" s="6">
         <v>166</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H84" s="6">
         <v>119076</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I84" s="6">
         <v>24234</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J84" s="6">
         <v>3031</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K84" s="6">
         <v>994</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="14">
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="14">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D85" s="3">
         <v>16403</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E85" s="3">
         <v>2307</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F85" s="3">
         <v>356</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G85" s="3">
         <v>164</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H85" s="3">
         <v>118573</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I85" s="3">
         <v>24067</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J85" s="3">
         <v>3016</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K85" s="3">
         <v>982</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="13">
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="6">
         <v>16312</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="6">
         <v>2280</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <v>355</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G86" s="6">
         <v>163</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H86" s="6">
         <v>118068</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I86" s="6">
         <v>23912</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J86" s="6">
         <v>3000</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K86" s="6">
         <v>971</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="14">
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="14">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D87" s="3">
         <v>16235</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E87" s="3">
         <v>2282</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F87" s="3">
         <v>350</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G87" s="3">
         <v>164</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H87" s="3">
         <v>117820</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I87" s="3">
         <v>23812</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J87" s="3">
         <v>2985</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K87" s="3">
         <v>967</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="K89" s="2"/>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E64D7A-FCFE-4CD5-860F-098F8C3885FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858499E2-3FD7-4DE7-BDE6-03FF0DA192AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>Empresas permisionarios de pasaje</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -319,12 +319,6 @@
     <xf numFmtId="17" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -350,60 +344,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -566,6 +518,54 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -580,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="13">
-  <autoFilter ref="B5:K88" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K89" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K89" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -589,16 +589,16 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0A01C91C-F4EF-421A-A518-8EBD5EB6922F}" name="Año" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{F2146E89-842B-40C0-81BD-1B5D88F17C48}" name="Mes" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B2F74D9C-ECD0-4A20-A12B-C6F5DB97CCBF}" name="Hombre Camión" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{B62E04DD-7FDC-4E78-862B-A6B704ACE0B9}" name="Pequeña" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E847F83E-EA3B-4EC8-B82C-A34A7D8E93B3}" name="Mediana" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{E76F71DB-6970-457A-AB5E-23839F746FFA}" name="Grande" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{1AE585DD-B7B8-4334-B771-C72286E4340F}" name="Hombre Camión " dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D0EFDC27-E355-4B28-B5CB-1F0C4C97BBEF}" name="Pequeña " dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{BD93B80B-0166-449A-B133-18B97100A597}" name="Mediana " dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{94F6D958-9D80-47BB-B1EE-5E217EEE935E}" name="Grande " dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0A01C91C-F4EF-421A-A518-8EBD5EB6922F}" name="Año" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{F2146E89-842B-40C0-81BD-1B5D88F17C48}" name="Mes" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{B2F74D9C-ECD0-4A20-A12B-C6F5DB97CCBF}" name="Hombre Camión" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B62E04DD-7FDC-4E78-862B-A6B704ACE0B9}" name="Pequeña" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E847F83E-EA3B-4EC8-B82C-A34A7D8E93B3}" name="Mediana" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E76F71DB-6970-457A-AB5E-23839F746FFA}" name="Grande" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1AE585DD-B7B8-4334-B771-C72286E4340F}" name="Hombre Camión " dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D0EFDC27-E355-4B28-B5CB-1F0C4C97BBEF}" name="Pequeña " dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{BD93B80B-0166-449A-B133-18B97100A597}" name="Mediana " dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{94F6D958-9D80-47BB-B1EE-5E217EEE935E}" name="Grande " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -827,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:M91"/>
+  <dimension ref="B2:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -838,12 +838,12 @@
     <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
@@ -859,50 +859,50 @@
     <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="8"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -911,63 +911,63 @@
         <v>2024</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="14">
+        <v>22428</v>
+      </c>
+      <c r="E6" s="14">
+        <v>3496</v>
+      </c>
+      <c r="F6" s="14">
+        <v>554</v>
+      </c>
+      <c r="G6" s="14">
+        <v>227</v>
+      </c>
+      <c r="H6" s="14">
+        <v>172611</v>
+      </c>
+      <c r="I6" s="14">
+        <v>36098</v>
+      </c>
+      <c r="J6" s="14">
+        <v>4868</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="12">
         <v>22336</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E7" s="12">
         <v>3475</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F7" s="12">
         <v>549</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G7" s="12">
         <v>225</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H7" s="12">
         <v>172070</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I7" s="12">
         <v>35927</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J7" s="12">
         <v>4832</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K7" s="12">
         <v>1464</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="15">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="16">
-        <v>22266</v>
-      </c>
-      <c r="E7" s="16">
-        <v>3453</v>
-      </c>
-      <c r="F7" s="16">
-        <v>553</v>
-      </c>
-      <c r="G7" s="16">
-        <v>222</v>
-      </c>
-      <c r="H7" s="16">
-        <v>171475</v>
-      </c>
-      <c r="I7" s="16">
-        <v>35741</v>
-      </c>
-      <c r="J7" s="16">
-        <v>4799</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1462</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.45">
@@ -975,63 +975,63 @@
         <v>2024</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="14">
-        <v>22164</v>
+        <v>22266</v>
       </c>
       <c r="E8" s="14">
-        <v>3444</v>
+        <v>3453</v>
       </c>
       <c r="F8" s="14">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G8" s="14">
         <v>222</v>
       </c>
       <c r="H8" s="14">
+        <v>171475</v>
+      </c>
+      <c r="I8" s="14">
+        <v>35741</v>
+      </c>
+      <c r="J8" s="14">
+        <v>4799</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12">
+        <v>22164</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3444</v>
+      </c>
+      <c r="F9" s="12">
+        <v>550</v>
+      </c>
+      <c r="G9" s="12">
+        <v>222</v>
+      </c>
+      <c r="H9" s="12">
         <v>170782</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="12">
         <v>35496</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J9" s="12">
         <v>4768</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K9" s="12">
         <v>1447</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="15">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="16">
-        <v>22054</v>
-      </c>
-      <c r="E9" s="16">
-        <v>3448</v>
-      </c>
-      <c r="F9" s="16">
-        <v>545</v>
-      </c>
-      <c r="G9" s="16">
-        <v>221</v>
-      </c>
-      <c r="H9" s="16">
-        <v>170125</v>
-      </c>
-      <c r="I9" s="16">
-        <v>35287</v>
-      </c>
-      <c r="J9" s="16">
-        <v>4743</v>
-      </c>
-      <c r="K9" s="16">
-        <v>1439</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.45">
@@ -1039,63 +1039,63 @@
         <v>2024</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14">
+        <v>22054</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3448</v>
+      </c>
+      <c r="F10" s="14">
+        <v>545</v>
+      </c>
+      <c r="G10" s="14">
+        <v>221</v>
+      </c>
+      <c r="H10" s="14">
+        <v>170125</v>
+      </c>
+      <c r="I10" s="14">
+        <v>35287</v>
+      </c>
+      <c r="J10" s="14">
+        <v>4743</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="12">
         <v>21977</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="12">
         <v>3439</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="12">
         <v>539</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G11" s="12">
         <v>222</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="12">
         <v>169471</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="12">
         <v>35095</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="12">
         <v>4695</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K11" s="12">
         <v>1433</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="15">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16">
-        <v>21900</v>
-      </c>
-      <c r="E11" s="16">
-        <v>3414</v>
-      </c>
-      <c r="F11" s="16">
-        <v>541</v>
-      </c>
-      <c r="G11" s="16">
-        <v>222</v>
-      </c>
-      <c r="H11" s="16">
-        <v>168764</v>
-      </c>
-      <c r="I11" s="16">
-        <v>34901</v>
-      </c>
-      <c r="J11" s="16">
-        <v>4637</v>
-      </c>
-      <c r="K11" s="16">
-        <v>1428</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.45">
@@ -1103,63 +1103,63 @@
         <v>2024</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="14">
+        <v>21900</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3414</v>
+      </c>
+      <c r="F12" s="14">
+        <v>541</v>
+      </c>
+      <c r="G12" s="14">
+        <v>222</v>
+      </c>
+      <c r="H12" s="14">
+        <v>168764</v>
+      </c>
+      <c r="I12" s="14">
+        <v>34901</v>
+      </c>
+      <c r="J12" s="14">
+        <v>4637</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="12">
         <v>21844</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="12">
         <v>3399</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F13" s="12">
         <v>540</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="12">
         <v>221</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H13" s="12">
         <v>167901</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="12">
         <v>34526</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J13" s="12">
         <v>4584</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K13" s="12">
         <v>1400</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="15">
-        <v>2024</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="16">
-        <v>21782</v>
-      </c>
-      <c r="E13" s="16">
-        <v>3381</v>
-      </c>
-      <c r="F13" s="16">
-        <v>537</v>
-      </c>
-      <c r="G13" s="16">
-        <v>221</v>
-      </c>
-      <c r="H13" s="16">
-        <v>167537</v>
-      </c>
-      <c r="I13" s="16">
-        <v>34455</v>
-      </c>
-      <c r="J13" s="16">
-        <v>4564</v>
-      </c>
-      <c r="K13" s="16">
-        <v>1401</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.45">
@@ -1167,191 +1167,191 @@
         <v>2024</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="14">
-        <v>21711</v>
+        <v>21782</v>
       </c>
       <c r="E14" s="14">
-        <v>3370</v>
+        <v>3381</v>
       </c>
       <c r="F14" s="14">
         <v>537</v>
       </c>
       <c r="G14" s="14">
+        <v>221</v>
+      </c>
+      <c r="H14" s="14">
+        <v>167537</v>
+      </c>
+      <c r="I14" s="14">
+        <v>34455</v>
+      </c>
+      <c r="J14" s="14">
+        <v>4564</v>
+      </c>
+      <c r="K14" s="14">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="12">
+        <v>21711</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3370</v>
+      </c>
+      <c r="F15" s="12">
+        <v>537</v>
+      </c>
+      <c r="G15" s="12">
         <v>216</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="12">
         <v>166979</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="12">
         <v>34249</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J15" s="12">
         <v>4522</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K15" s="12">
         <v>1391</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="15">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="13">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="14">
         <v>21675</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E16" s="14">
         <v>3345</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F16" s="14">
         <v>538</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="14">
         <v>215</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H16" s="14">
         <v>166478</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I16" s="14">
         <v>34057</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J16" s="14">
         <v>4499</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K16" s="14">
         <v>1379</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="17">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
         <v>2024</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D17" s="16">
         <v>21635</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E17" s="16">
         <v>3332</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F17" s="16">
         <v>535</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G17" s="16">
         <v>212</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H17" s="16">
         <v>166076</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I17" s="16">
         <v>33897</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J17" s="16">
         <v>4471</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K17" s="16">
         <v>1371</v>
       </c>
     </row>
-    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="19">
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="17">
         <v>2023</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D18" s="18">
         <v>21607</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E18" s="18">
         <v>3331</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F18" s="18">
         <v>527</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G18" s="18">
         <v>213</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H18" s="18">
         <v>165843</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I18" s="18">
         <v>33744</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J18" s="18">
         <v>4441</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K18" s="18">
         <v>1370</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="13">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
         <v>2023</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="12">
         <v>21539</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="12">
         <v>3304</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F19" s="12">
         <v>524</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="12">
         <v>215</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H19" s="12">
         <v>165469</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I19" s="12">
         <v>33558</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="12">
         <v>4409</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K19" s="12">
         <v>1361</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="16">
-        <v>21461</v>
-      </c>
-      <c r="E19" s="16">
-        <v>3281</v>
-      </c>
-      <c r="F19" s="16">
-        <v>527</v>
-      </c>
-      <c r="G19" s="16">
-        <v>213</v>
-      </c>
-      <c r="H19" s="16">
-        <v>164931</v>
-      </c>
-      <c r="I19" s="16">
-        <v>33376</v>
-      </c>
-      <c r="J19" s="16">
-        <v>4381</v>
-      </c>
-      <c r="K19" s="16">
-        <v>1353</v>
       </c>
     </row>
     <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1359,63 +1359,63 @@
         <v>2023</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="14">
+        <v>21461</v>
+      </c>
+      <c r="E20" s="14">
+        <v>3281</v>
+      </c>
+      <c r="F20" s="14">
+        <v>527</v>
+      </c>
+      <c r="G20" s="14">
+        <v>213</v>
+      </c>
+      <c r="H20" s="14">
+        <v>164931</v>
+      </c>
+      <c r="I20" s="14">
+        <v>33376</v>
+      </c>
+      <c r="J20" s="14">
+        <v>4381</v>
+      </c>
+      <c r="K20" s="14">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="12">
         <v>21397</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E21" s="12">
         <v>3274</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F21" s="12">
         <v>524</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="12">
         <v>214</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H21" s="12">
         <v>164459</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="12">
         <v>33219</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="12">
         <v>4371</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K21" s="12">
         <v>1339</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="16">
-        <v>21333</v>
-      </c>
-      <c r="E21" s="16">
-        <v>3249</v>
-      </c>
-      <c r="F21" s="16">
-        <v>520</v>
-      </c>
-      <c r="G21" s="16">
-        <v>213</v>
-      </c>
-      <c r="H21" s="16">
-        <v>164018</v>
-      </c>
-      <c r="I21" s="16">
-        <v>33086</v>
-      </c>
-      <c r="J21" s="16">
-        <v>4345</v>
-      </c>
-      <c r="K21" s="16">
-        <v>1335</v>
       </c>
     </row>
     <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1423,63 +1423,63 @@
         <v>2023</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="14">
+        <v>21333</v>
+      </c>
+      <c r="E22" s="14">
+        <v>3249</v>
+      </c>
+      <c r="F22" s="14">
+        <v>520</v>
+      </c>
+      <c r="G22" s="14">
+        <v>213</v>
+      </c>
+      <c r="H22" s="14">
+        <v>164018</v>
+      </c>
+      <c r="I22" s="14">
+        <v>33086</v>
+      </c>
+      <c r="J22" s="14">
+        <v>4345</v>
+      </c>
+      <c r="K22" s="14">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="12">
         <v>21275</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="12">
         <v>3244</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F23" s="12">
         <v>515</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="12">
         <v>214</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H23" s="12">
         <v>163591</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="12">
         <v>32899</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J23" s="12">
         <v>4314</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K23" s="12">
         <v>1333</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="16">
-        <v>21204</v>
-      </c>
-      <c r="E23" s="16">
-        <v>3230</v>
-      </c>
-      <c r="F23" s="16">
-        <v>515</v>
-      </c>
-      <c r="G23" s="16">
-        <v>213</v>
-      </c>
-      <c r="H23" s="16">
-        <v>163109</v>
-      </c>
-      <c r="I23" s="16">
-        <v>32765</v>
-      </c>
-      <c r="J23" s="16">
-        <v>4282</v>
-      </c>
-      <c r="K23" s="16">
-        <v>1324</v>
       </c>
     </row>
     <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1487,63 +1487,63 @@
         <v>2023</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="14">
-        <v>21106</v>
+        <v>21204</v>
       </c>
       <c r="E24" s="14">
-        <v>3207</v>
+        <v>3230</v>
       </c>
       <c r="F24" s="14">
         <v>515</v>
       </c>
       <c r="G24" s="14">
+        <v>213</v>
+      </c>
+      <c r="H24" s="14">
+        <v>163109</v>
+      </c>
+      <c r="I24" s="14">
+        <v>32765</v>
+      </c>
+      <c r="J24" s="14">
+        <v>4282</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="12">
+        <v>21106</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3207</v>
+      </c>
+      <c r="F25" s="12">
+        <v>515</v>
+      </c>
+      <c r="G25" s="12">
         <v>214</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="12">
         <v>162727</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="12">
         <v>32622</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J25" s="12">
         <v>4264</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K25" s="12">
         <v>1317</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15">
-        <v>2023</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="16">
-        <v>21068</v>
-      </c>
-      <c r="E25" s="16">
-        <v>3196</v>
-      </c>
-      <c r="F25" s="16">
-        <v>508</v>
-      </c>
-      <c r="G25" s="16">
-        <v>215</v>
-      </c>
-      <c r="H25" s="16">
-        <v>162289</v>
-      </c>
-      <c r="I25" s="16">
-        <v>32483</v>
-      </c>
-      <c r="J25" s="16">
-        <v>4234</v>
-      </c>
-      <c r="K25" s="16">
-        <v>1308</v>
       </c>
     </row>
     <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1551,191 +1551,191 @@
         <v>2023</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="14">
+        <v>21068</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3196</v>
+      </c>
+      <c r="F26" s="14">
+        <v>508</v>
+      </c>
+      <c r="G26" s="14">
+        <v>215</v>
+      </c>
+      <c r="H26" s="14">
+        <v>162289</v>
+      </c>
+      <c r="I26" s="14">
+        <v>32483</v>
+      </c>
+      <c r="J26" s="14">
+        <v>4234</v>
+      </c>
+      <c r="K26" s="14">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="12">
         <v>21005</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E27" s="12">
         <v>3186</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F27" s="12">
         <v>509</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G27" s="12">
         <v>213</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="12">
         <v>161844</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="12">
         <v>32370</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J27" s="12">
         <v>4232</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K27" s="12">
         <v>1304</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="15">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="14">
         <v>20929</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E28" s="14">
         <v>3165</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F28" s="14">
         <v>506</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G28" s="14">
         <v>212</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H28" s="14">
         <v>161330</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I28" s="14">
         <v>32261</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J28" s="14">
         <v>4201</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K28" s="14">
         <v>1299</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="17">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D29" s="16">
         <v>20899</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E29" s="16">
         <v>3142</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F29" s="16">
         <v>506</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G29" s="16">
         <v>211</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H29" s="16">
         <v>161006</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I29" s="16">
         <v>32141</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J29" s="16">
         <v>4183</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K29" s="16">
         <v>1295</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="19">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="17">
         <v>2022</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D30" s="18">
         <v>20835</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E30" s="18">
         <v>3137</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F30" s="18">
         <v>506</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G30" s="18">
         <v>209</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H30" s="18">
         <v>160773</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I30" s="18">
         <v>32040</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J30" s="18">
         <v>4173</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K30" s="18">
         <v>1286</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="13">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="11">
         <v>2022</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="12">
         <v>20752</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E31" s="12">
         <v>3107</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F31" s="12">
         <v>505</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G31" s="12">
         <v>211</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H31" s="12">
         <v>160470</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I31" s="12">
         <v>31958</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J31" s="12">
         <v>4162</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K31" s="12">
         <v>1280</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="16">
-        <v>20711</v>
-      </c>
-      <c r="E31" s="16">
-        <v>3095</v>
-      </c>
-      <c r="F31" s="16">
-        <v>501</v>
-      </c>
-      <c r="G31" s="16">
-        <v>210</v>
-      </c>
-      <c r="H31" s="16">
-        <v>160213</v>
-      </c>
-      <c r="I31" s="16">
-        <v>31874</v>
-      </c>
-      <c r="J31" s="16">
-        <v>4145</v>
-      </c>
-      <c r="K31" s="16">
-        <v>1274</v>
       </c>
     </row>
     <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1743,63 +1743,63 @@
         <v>2022</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="14">
+        <v>20711</v>
+      </c>
+      <c r="E32" s="14">
+        <v>3095</v>
+      </c>
+      <c r="F32" s="14">
+        <v>501</v>
+      </c>
+      <c r="G32" s="14">
+        <v>210</v>
+      </c>
+      <c r="H32" s="14">
+        <v>160213</v>
+      </c>
+      <c r="I32" s="14">
+        <v>31874</v>
+      </c>
+      <c r="J32" s="14">
+        <v>4145</v>
+      </c>
+      <c r="K32" s="14">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="12">
         <v>20657</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="12">
         <v>3083</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F33" s="12">
         <v>499</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="12">
         <v>209</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="12">
         <v>159867</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="12">
         <v>31794</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J33" s="12">
         <v>4135</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K33" s="12">
         <v>1270</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="16">
-        <v>20751</v>
-      </c>
-      <c r="E33" s="16">
-        <v>3106</v>
-      </c>
-      <c r="F33" s="16">
-        <v>501</v>
-      </c>
-      <c r="G33" s="16">
-        <v>211</v>
-      </c>
-      <c r="H33" s="16">
-        <v>159400</v>
-      </c>
-      <c r="I33" s="16">
-        <v>31688</v>
-      </c>
-      <c r="J33" s="16">
-        <v>4111</v>
-      </c>
-      <c r="K33" s="16">
-        <v>1260</v>
       </c>
     </row>
     <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1807,63 +1807,63 @@
         <v>2022</v>
       </c>
       <c r="C34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="14">
+        <v>20751</v>
+      </c>
+      <c r="E34" s="14">
+        <v>3106</v>
+      </c>
+      <c r="F34" s="14">
+        <v>501</v>
+      </c>
+      <c r="G34" s="14">
+        <v>211</v>
+      </c>
+      <c r="H34" s="14">
+        <v>159400</v>
+      </c>
+      <c r="I34" s="14">
+        <v>31688</v>
+      </c>
+      <c r="J34" s="14">
+        <v>4111</v>
+      </c>
+      <c r="K34" s="14">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="12">
         <v>20551</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E35" s="12">
         <v>3046</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F35" s="12">
         <v>490</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G35" s="12">
         <v>208</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H35" s="12">
         <v>158821</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I35" s="12">
         <v>31547</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J35" s="12">
         <v>4081</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K35" s="12">
         <v>1253</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="16">
-        <v>20522</v>
-      </c>
-      <c r="E35" s="16">
-        <v>3038</v>
-      </c>
-      <c r="F35" s="16">
-        <v>490</v>
-      </c>
-      <c r="G35" s="16">
-        <v>207</v>
-      </c>
-      <c r="H35" s="16">
-        <v>158518</v>
-      </c>
-      <c r="I35" s="16">
-        <v>31468</v>
-      </c>
-      <c r="J35" s="16">
-        <v>4073</v>
-      </c>
-      <c r="K35" s="16">
-        <v>1251</v>
       </c>
     </row>
     <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1871,63 +1871,63 @@
         <v>2022</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="14">
+        <v>20522</v>
+      </c>
+      <c r="E36" s="14">
+        <v>3038</v>
+      </c>
+      <c r="F36" s="14">
+        <v>490</v>
+      </c>
+      <c r="G36" s="14">
+        <v>207</v>
+      </c>
+      <c r="H36" s="14">
+        <v>158518</v>
+      </c>
+      <c r="I36" s="14">
+        <v>31468</v>
+      </c>
+      <c r="J36" s="14">
+        <v>4073</v>
+      </c>
+      <c r="K36" s="14">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="12">
         <v>20484</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="12">
         <v>3026</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="12">
         <v>488</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="12">
         <v>206</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H37" s="12">
         <v>158024</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I37" s="12">
         <v>31395</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J37" s="12">
         <v>4062</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K37" s="12">
         <v>1250</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="15">
-        <v>2022</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="16">
-        <v>20432</v>
-      </c>
-      <c r="E37" s="16">
-        <v>3010</v>
-      </c>
-      <c r="F37" s="16">
-        <v>487</v>
-      </c>
-      <c r="G37" s="16">
-        <v>206</v>
-      </c>
-      <c r="H37" s="16">
-        <v>157470</v>
-      </c>
-      <c r="I37" s="16">
-        <v>31286</v>
-      </c>
-      <c r="J37" s="16">
-        <v>4046</v>
-      </c>
-      <c r="K37" s="16">
-        <v>1244</v>
       </c>
     </row>
     <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -1935,191 +1935,191 @@
         <v>2022</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="14">
-        <v>20400</v>
+        <v>20432</v>
       </c>
       <c r="E38" s="14">
-        <v>3000</v>
+        <v>3010</v>
       </c>
       <c r="F38" s="14">
         <v>487</v>
       </c>
       <c r="G38" s="14">
+        <v>206</v>
+      </c>
+      <c r="H38" s="14">
+        <v>157470</v>
+      </c>
+      <c r="I38" s="14">
+        <v>31286</v>
+      </c>
+      <c r="J38" s="14">
+        <v>4046</v>
+      </c>
+      <c r="K38" s="14">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="12">
+        <v>20400</v>
+      </c>
+      <c r="E39" s="12">
+        <v>3000</v>
+      </c>
+      <c r="F39" s="12">
+        <v>487</v>
+      </c>
+      <c r="G39" s="12">
         <v>207</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H39" s="12">
         <v>156952</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I39" s="12">
         <v>31147</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J39" s="12">
         <v>4034</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K39" s="12">
         <v>1237</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="15">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="14">
         <v>20318</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E40" s="14">
         <v>2994</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F40" s="14">
         <v>489</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G40" s="14">
         <v>204</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H40" s="14">
         <v>156255</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I40" s="14">
         <v>31032</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J40" s="14">
         <v>4013</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K40" s="14">
         <v>1234</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="17">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C41" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D41" s="16">
         <v>20280</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E41" s="16">
         <v>2988</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F41" s="16">
         <v>491</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G41" s="16">
         <v>203</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H41" s="16">
         <v>155756</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I41" s="16">
         <v>30919</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J41" s="16">
         <v>4015</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K41" s="16">
         <v>1222</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="19">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="17">
         <v>2021</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D42" s="18">
         <v>20263</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E42" s="18">
         <v>2989</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F42" s="18">
         <v>487</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G42" s="18">
         <v>203</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H42" s="18">
         <v>155476</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I42" s="18">
         <v>30843</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J42" s="18">
         <v>4009</v>
       </c>
-      <c r="K41" s="20">
+      <c r="K42" s="18">
         <v>1222</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="13">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="11">
         <v>2021</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="12">
         <v>20206</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E43" s="12">
         <v>2973</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F43" s="12">
         <v>485</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="12">
         <v>203</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H43" s="12">
         <v>154922</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I43" s="12">
         <v>30721</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J43" s="12">
         <v>3992</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K43" s="12">
         <v>1216</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="16">
-        <v>20146</v>
-      </c>
-      <c r="E43" s="16">
-        <v>2967</v>
-      </c>
-      <c r="F43" s="16">
-        <v>483</v>
-      </c>
-      <c r="G43" s="16">
-        <v>203</v>
-      </c>
-      <c r="H43" s="16">
-        <v>154593</v>
-      </c>
-      <c r="I43" s="16">
-        <v>30634</v>
-      </c>
-      <c r="J43" s="16">
-        <v>3971</v>
-      </c>
-      <c r="K43" s="16">
-        <v>1218</v>
       </c>
     </row>
     <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2127,63 +2127,63 @@
         <v>2021</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="14">
-        <v>20103</v>
+        <v>20146</v>
       </c>
       <c r="E44" s="14">
-        <v>2962</v>
+        <v>2967</v>
       </c>
       <c r="F44" s="14">
         <v>483</v>
       </c>
       <c r="G44" s="14">
+        <v>203</v>
+      </c>
+      <c r="H44" s="14">
+        <v>154593</v>
+      </c>
+      <c r="I44" s="14">
+        <v>30634</v>
+      </c>
+      <c r="J44" s="14">
+        <v>3971</v>
+      </c>
+      <c r="K44" s="14">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="12">
+        <v>20103</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2962</v>
+      </c>
+      <c r="F45" s="12">
+        <v>483</v>
+      </c>
+      <c r="G45" s="12">
         <v>201</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H45" s="12">
         <v>154071</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I45" s="12">
         <v>30444</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J45" s="12">
         <v>3948</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K45" s="12">
         <v>1214</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="16">
-        <v>20021</v>
-      </c>
-      <c r="E45" s="16">
-        <v>2931</v>
-      </c>
-      <c r="F45" s="16">
-        <v>477</v>
-      </c>
-      <c r="G45" s="16">
-        <v>205</v>
-      </c>
-      <c r="H45" s="16">
-        <v>153674</v>
-      </c>
-      <c r="I45" s="16">
-        <v>30371</v>
-      </c>
-      <c r="J45" s="16">
-        <v>3913</v>
-      </c>
-      <c r="K45" s="16">
-        <v>1220</v>
       </c>
     </row>
     <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2191,63 +2191,63 @@
         <v>2021</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="14">
-        <v>20037</v>
+        <v>20021</v>
       </c>
       <c r="E46" s="14">
-        <v>2938</v>
+        <v>2931</v>
       </c>
       <c r="F46" s="14">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G46" s="14">
         <v>205</v>
       </c>
       <c r="H46" s="14">
+        <v>153674</v>
+      </c>
+      <c r="I46" s="14">
+        <v>30371</v>
+      </c>
+      <c r="J46" s="14">
+        <v>3913</v>
+      </c>
+      <c r="K46" s="14">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="12">
+        <v>20037</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2938</v>
+      </c>
+      <c r="F47" s="12">
+        <v>478</v>
+      </c>
+      <c r="G47" s="12">
+        <v>205</v>
+      </c>
+      <c r="H47" s="12">
         <v>153148</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I47" s="12">
         <v>30163</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J47" s="12">
         <v>3889</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K47" s="12">
         <v>1215</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="16">
-        <v>19989</v>
-      </c>
-      <c r="E47" s="16">
-        <v>2916</v>
-      </c>
-      <c r="F47" s="16">
-        <v>479</v>
-      </c>
-      <c r="G47" s="16">
-        <v>204</v>
-      </c>
-      <c r="H47" s="16">
-        <v>152772</v>
-      </c>
-      <c r="I47" s="16">
-        <v>30071</v>
-      </c>
-      <c r="J47" s="16">
-        <v>3878</v>
-      </c>
-      <c r="K47" s="16">
-        <v>1211</v>
       </c>
     </row>
     <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2255,63 +2255,63 @@
         <v>2021</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="14">
-        <v>19946</v>
+        <v>19989</v>
       </c>
       <c r="E48" s="14">
-        <v>2902</v>
+        <v>2916</v>
       </c>
       <c r="F48" s="14">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G48" s="14">
         <v>204</v>
       </c>
       <c r="H48" s="14">
+        <v>152772</v>
+      </c>
+      <c r="I48" s="14">
+        <v>30071</v>
+      </c>
+      <c r="J48" s="14">
+        <v>3878</v>
+      </c>
+      <c r="K48" s="14">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="12">
+        <v>19946</v>
+      </c>
+      <c r="E49" s="12">
+        <v>2902</v>
+      </c>
+      <c r="F49" s="12">
+        <v>478</v>
+      </c>
+      <c r="G49" s="12">
+        <v>204</v>
+      </c>
+      <c r="H49" s="12">
         <v>152274</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I49" s="12">
         <v>29923</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J49" s="12">
         <v>3848</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K49" s="12">
         <v>1208</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="15">
-        <v>2021</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="16">
-        <v>19923</v>
-      </c>
-      <c r="E49" s="16">
-        <v>2897</v>
-      </c>
-      <c r="F49" s="16">
-        <v>476</v>
-      </c>
-      <c r="G49" s="16">
-        <v>205</v>
-      </c>
-      <c r="H49" s="16">
-        <v>151877</v>
-      </c>
-      <c r="I49" s="16">
-        <v>29764</v>
-      </c>
-      <c r="J49" s="16">
-        <v>3855</v>
-      </c>
-      <c r="K49" s="16">
-        <v>1197</v>
       </c>
     </row>
     <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2319,191 +2319,191 @@
         <v>2021</v>
       </c>
       <c r="C50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="14">
+        <v>19923</v>
+      </c>
+      <c r="E50" s="14">
+        <v>2897</v>
+      </c>
+      <c r="F50" s="14">
+        <v>476</v>
+      </c>
+      <c r="G50" s="14">
+        <v>205</v>
+      </c>
+      <c r="H50" s="14">
+        <v>151877</v>
+      </c>
+      <c r="I50" s="14">
+        <v>29764</v>
+      </c>
+      <c r="J50" s="14">
+        <v>3855</v>
+      </c>
+      <c r="K50" s="14">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="12">
         <v>19894</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E51" s="12">
         <v>2881</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="12">
         <v>475</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="12">
         <v>209</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H51" s="12">
         <v>151428</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I51" s="12">
         <v>29625</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J51" s="12">
         <v>3837</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K51" s="12">
         <v>1196</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="15">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="14">
         <v>19844</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E52" s="14">
         <v>2870</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F52" s="14">
         <v>478</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G52" s="14">
         <v>208</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H52" s="14">
         <v>150941</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I52" s="14">
         <v>29527</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J52" s="14">
         <v>3793</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K52" s="14">
         <v>1186</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="17">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C53" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D53" s="16">
         <v>19809</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E53" s="16">
         <v>2878</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F53" s="16">
         <v>478</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G53" s="16">
         <v>210</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H53" s="16">
         <v>150642</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I53" s="16">
         <v>29399</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J53" s="16">
         <v>3775</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K53" s="16">
         <v>1181</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="19">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="17">
         <v>2020</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D54" s="18">
         <v>19806</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E54" s="18">
         <v>2877</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F54" s="18">
         <v>477</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G54" s="18">
         <v>210</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H54" s="18">
         <v>150512</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I54" s="18">
         <v>29328</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J54" s="18">
         <v>3753</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K54" s="18">
         <v>1181</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="13">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="11">
         <v>2020</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="12">
         <v>19746</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E55" s="12">
         <v>2866</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F55" s="12">
         <v>480</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="12">
         <v>208</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H55" s="12">
         <v>149978</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I55" s="12">
         <v>29202</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J55" s="12">
         <v>3724</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K55" s="12">
         <v>1177</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="16">
-        <v>19711</v>
-      </c>
-      <c r="E55" s="16">
-        <v>2853</v>
-      </c>
-      <c r="F55" s="16">
-        <v>483</v>
-      </c>
-      <c r="G55" s="16">
-        <v>207</v>
-      </c>
-      <c r="H55" s="16">
-        <v>149557</v>
-      </c>
-      <c r="I55" s="16">
-        <v>29064</v>
-      </c>
-      <c r="J55" s="16">
-        <v>3720</v>
-      </c>
-      <c r="K55" s="16">
-        <v>1169</v>
       </c>
     </row>
     <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2511,63 +2511,63 @@
         <v>2020</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="14">
+        <v>19711</v>
+      </c>
+      <c r="E56" s="14">
+        <v>2853</v>
+      </c>
+      <c r="F56" s="14">
+        <v>483</v>
+      </c>
+      <c r="G56" s="14">
+        <v>207</v>
+      </c>
+      <c r="H56" s="14">
+        <v>149557</v>
+      </c>
+      <c r="I56" s="14">
+        <v>29064</v>
+      </c>
+      <c r="J56" s="14">
+        <v>3720</v>
+      </c>
+      <c r="K56" s="14">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="12">
         <v>19666</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E57" s="12">
         <v>2846</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F57" s="12">
         <v>481</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="12">
         <v>209</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H57" s="12">
         <v>149333</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I57" s="12">
         <v>28918</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J57" s="12">
         <v>3682</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K57" s="12">
         <v>1165</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="16">
-        <v>19641</v>
-      </c>
-      <c r="E57" s="16">
-        <v>2841</v>
-      </c>
-      <c r="F57" s="16">
-        <v>482</v>
-      </c>
-      <c r="G57" s="16">
-        <v>209</v>
-      </c>
-      <c r="H57" s="16">
-        <v>149165</v>
-      </c>
-      <c r="I57" s="16">
-        <v>28805</v>
-      </c>
-      <c r="J57" s="16">
-        <v>3675</v>
-      </c>
-      <c r="K57" s="16">
-        <v>1160</v>
       </c>
     </row>
     <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2575,63 +2575,63 @@
         <v>2020</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" s="14">
-        <v>19637</v>
+        <v>19641</v>
       </c>
       <c r="E58" s="14">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="F58" s="14">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G58" s="14">
         <v>209</v>
       </c>
       <c r="H58" s="14">
+        <v>149165</v>
+      </c>
+      <c r="I58" s="14">
+        <v>28805</v>
+      </c>
+      <c r="J58" s="14">
+        <v>3675</v>
+      </c>
+      <c r="K58" s="14">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="12">
+        <v>19637</v>
+      </c>
+      <c r="E59" s="12">
+        <v>2839</v>
+      </c>
+      <c r="F59" s="12">
+        <v>481</v>
+      </c>
+      <c r="G59" s="12">
+        <v>209</v>
+      </c>
+      <c r="H59" s="12">
         <v>149034</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="12">
         <v>28738</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J59" s="12">
         <v>3651</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K59" s="12">
         <v>1156</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="16">
-        <v>19635</v>
-      </c>
-      <c r="E59" s="16">
-        <v>2839</v>
-      </c>
-      <c r="F59" s="16">
-        <v>481</v>
-      </c>
-      <c r="G59" s="16">
-        <v>208</v>
-      </c>
-      <c r="H59" s="16">
-        <v>148936</v>
-      </c>
-      <c r="I59" s="16">
-        <v>28662</v>
-      </c>
-      <c r="J59" s="16">
-        <v>3641</v>
-      </c>
-      <c r="K59" s="16">
-        <v>1154</v>
       </c>
     </row>
     <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2639,10 +2639,10 @@
         <v>2020</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="14">
-        <v>19634</v>
+        <v>19635</v>
       </c>
       <c r="E60" s="14">
         <v>2839</v>
@@ -2651,51 +2651,51 @@
         <v>481</v>
       </c>
       <c r="G60" s="14">
+        <v>208</v>
+      </c>
+      <c r="H60" s="14">
+        <v>148936</v>
+      </c>
+      <c r="I60" s="14">
+        <v>28662</v>
+      </c>
+      <c r="J60" s="14">
+        <v>3641</v>
+      </c>
+      <c r="K60" s="14">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="12">
+        <v>19634</v>
+      </c>
+      <c r="E61" s="12">
+        <v>2839</v>
+      </c>
+      <c r="F61" s="12">
+        <v>481</v>
+      </c>
+      <c r="G61" s="12">
         <v>207</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H61" s="12">
         <v>148915</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I61" s="12">
         <v>28646</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J61" s="12">
         <v>3645</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="12">
         <v>1152</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="16">
-        <v>19634</v>
-      </c>
-      <c r="E61" s="16">
-        <v>2839</v>
-      </c>
-      <c r="F61" s="16">
-        <v>481</v>
-      </c>
-      <c r="G61" s="16">
-        <v>207</v>
-      </c>
-      <c r="H61" s="16">
-        <v>148909</v>
-      </c>
-      <c r="I61" s="16">
-        <v>28641</v>
-      </c>
-      <c r="J61" s="16">
-        <v>3645</v>
-      </c>
-      <c r="K61" s="16">
-        <v>1151</v>
       </c>
     </row>
     <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2703,10 +2703,10 @@
         <v>2020</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="14">
-        <v>19633</v>
+        <v>19634</v>
       </c>
       <c r="E62" s="14">
         <v>2839</v>
@@ -2718,176 +2718,176 @@
         <v>207</v>
       </c>
       <c r="H62" s="14">
+        <v>148909</v>
+      </c>
+      <c r="I62" s="14">
+        <v>28641</v>
+      </c>
+      <c r="J62" s="14">
+        <v>3645</v>
+      </c>
+      <c r="K62" s="14">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="12">
+        <v>19633</v>
+      </c>
+      <c r="E63" s="12">
+        <v>2839</v>
+      </c>
+      <c r="F63" s="12">
+        <v>481</v>
+      </c>
+      <c r="G63" s="12">
+        <v>207</v>
+      </c>
+      <c r="H63" s="12">
         <v>148896</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I63" s="12">
         <v>28639</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J63" s="12">
         <v>3647</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K63" s="12">
         <v>1150</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="15">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="14">
         <v>19600</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E64" s="14">
         <v>2827</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F64" s="14">
         <v>479</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G64" s="14">
         <v>207</v>
       </c>
-      <c r="H63" s="16">
+      <c r="H64" s="14">
         <v>148599</v>
       </c>
-      <c r="I63" s="16">
+      <c r="I64" s="14">
         <v>28517</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J64" s="14">
         <v>3624</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K64" s="14">
         <v>1150</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="17">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C65" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D65" s="16">
         <v>19541</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E65" s="16">
         <v>2817</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F65" s="16">
         <v>476</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G65" s="16">
         <v>207</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H65" s="16">
         <v>148188</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I65" s="16">
         <v>28401</v>
       </c>
-      <c r="J64" s="18">
+      <c r="J65" s="16">
         <v>3614</v>
       </c>
-      <c r="K64" s="18">
+      <c r="K65" s="16">
         <v>1147</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="19">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="17">
         <v>2019</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D66" s="18">
         <v>19514</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E66" s="18">
         <v>2807</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F66" s="18">
         <v>477</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G66" s="18">
         <v>206</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H66" s="18">
         <v>147966</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I66" s="18">
         <v>28318</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J66" s="18">
         <v>3601</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K66" s="18">
         <v>1146</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="13">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="11">
         <v>2019</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="12">
         <v>19374</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E67" s="12">
         <v>2784</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F67" s="12">
         <v>474</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="12">
         <v>205</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H67" s="12">
         <v>147552</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I67" s="12">
         <v>28216</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J67" s="12">
         <v>3578</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K67" s="12">
         <v>1143</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="16">
-        <v>19270</v>
-      </c>
-      <c r="E67" s="16">
-        <v>2775</v>
-      </c>
-      <c r="F67" s="16">
-        <v>473</v>
-      </c>
-      <c r="G67" s="16">
-        <v>203</v>
-      </c>
-      <c r="H67" s="16">
-        <v>147145</v>
-      </c>
-      <c r="I67" s="16">
-        <v>28082</v>
-      </c>
-      <c r="J67" s="16">
-        <v>3566</v>
-      </c>
-      <c r="K67" s="16">
-        <v>1131</v>
       </c>
     </row>
     <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2895,63 +2895,63 @@
         <v>2019</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="14">
+        <v>19270</v>
+      </c>
+      <c r="E68" s="14">
+        <v>2775</v>
+      </c>
+      <c r="F68" s="14">
+        <v>473</v>
+      </c>
+      <c r="G68" s="14">
+        <v>203</v>
+      </c>
+      <c r="H68" s="14">
+        <v>147145</v>
+      </c>
+      <c r="I68" s="14">
+        <v>28082</v>
+      </c>
+      <c r="J68" s="14">
+        <v>3566</v>
+      </c>
+      <c r="K68" s="14">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="12">
         <v>18283</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="12">
         <v>2541</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F69" s="12">
         <v>429</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="12">
         <v>173</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H69" s="12">
         <v>135900</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I69" s="12">
         <v>26071</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J69" s="12">
         <v>3315</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K69" s="12">
         <v>1067</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="16">
-        <v>18210</v>
-      </c>
-      <c r="E69" s="16">
-        <v>2531</v>
-      </c>
-      <c r="F69" s="16">
-        <v>428</v>
-      </c>
-      <c r="G69" s="16">
-        <v>174</v>
-      </c>
-      <c r="H69" s="16">
-        <v>135525</v>
-      </c>
-      <c r="I69" s="16">
-        <v>25971</v>
-      </c>
-      <c r="J69" s="16">
-        <v>3310</v>
-      </c>
-      <c r="K69" s="16">
-        <v>1060</v>
       </c>
     </row>
     <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -2959,63 +2959,63 @@
         <v>2019</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="14">
+        <v>18210</v>
+      </c>
+      <c r="E70" s="14">
+        <v>2531</v>
+      </c>
+      <c r="F70" s="14">
+        <v>428</v>
+      </c>
+      <c r="G70" s="14">
+        <v>174</v>
+      </c>
+      <c r="H70" s="14">
+        <v>135525</v>
+      </c>
+      <c r="I70" s="14">
+        <v>25971</v>
+      </c>
+      <c r="J70" s="14">
+        <v>3310</v>
+      </c>
+      <c r="K70" s="14">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="12">
         <v>18415</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E71" s="12">
         <v>2539</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F71" s="12">
         <v>433</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="12">
         <v>170</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H71" s="12">
         <v>135981</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I71" s="12">
         <v>25844</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J71" s="12">
         <v>3256</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K71" s="12">
         <v>1052</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="16">
-        <v>18061</v>
-      </c>
-      <c r="E71" s="16">
-        <v>2503</v>
-      </c>
-      <c r="F71" s="16">
-        <v>431</v>
-      </c>
-      <c r="G71" s="16">
-        <v>171</v>
-      </c>
-      <c r="H71" s="16">
-        <v>134678</v>
-      </c>
-      <c r="I71" s="16">
-        <v>25745</v>
-      </c>
-      <c r="J71" s="16">
-        <v>3256</v>
-      </c>
-      <c r="K71" s="16">
-        <v>1054</v>
       </c>
     </row>
     <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3023,62 +3023,62 @@
         <v>2019</v>
       </c>
       <c r="C72" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="14">
+        <v>18061</v>
+      </c>
+      <c r="E72" s="14">
+        <v>2503</v>
+      </c>
+      <c r="F72" s="14">
+        <v>431</v>
+      </c>
+      <c r="G72" s="14">
+        <v>171</v>
+      </c>
+      <c r="H72" s="14">
+        <v>134678</v>
+      </c>
+      <c r="I72" s="14">
+        <v>25745</v>
+      </c>
+      <c r="J72" s="14">
+        <v>3256</v>
+      </c>
+      <c r="K72" s="14">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="12">
         <v>17466</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E73" s="12">
         <v>2457</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F73" s="12">
         <v>414</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="12">
         <v>174</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H73" s="12">
         <v>124831</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I73" s="12">
         <v>25684</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J73" s="12">
         <v>3289</v>
       </c>
-      <c r="K72" s="14">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="15">
-        <v>2019</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="16">
-        <v>17400</v>
-      </c>
-      <c r="E73" s="16">
-        <v>2444</v>
-      </c>
-      <c r="F73" s="16">
-        <v>408</v>
-      </c>
-      <c r="G73" s="16">
-        <v>174</v>
-      </c>
-      <c r="H73" s="16">
-        <v>124413</v>
-      </c>
-      <c r="I73" s="16">
-        <v>25571</v>
-      </c>
-      <c r="J73" s="16">
-        <v>3256</v>
-      </c>
-      <c r="K73" s="16">
+      <c r="K73" s="12">
         <v>1066</v>
       </c>
     </row>
@@ -3087,127 +3087,127 @@
         <v>2019</v>
       </c>
       <c r="C74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="14">
+        <v>17400</v>
+      </c>
+      <c r="E74" s="14">
+        <v>2444</v>
+      </c>
+      <c r="F74" s="14">
+        <v>408</v>
+      </c>
+      <c r="G74" s="14">
+        <v>174</v>
+      </c>
+      <c r="H74" s="14">
+        <v>124413</v>
+      </c>
+      <c r="I74" s="14">
+        <v>25571</v>
+      </c>
+      <c r="J74" s="14">
+        <v>3256</v>
+      </c>
+      <c r="K74" s="14">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="12">
         <v>17310</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E75" s="12">
         <v>2439</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F75" s="12">
         <v>406</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="12">
         <v>172</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H75" s="12">
         <v>124028</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I75" s="12">
         <v>25443</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J75" s="12">
         <v>3244</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K75" s="12">
         <v>1056</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="15">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="14">
         <v>17252</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E76" s="14">
         <v>2424</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F76" s="14">
         <v>401</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G76" s="14">
         <v>171</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H76" s="14">
         <v>123619</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I76" s="14">
         <v>25350</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J76" s="14">
         <v>3211</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K76" s="14">
         <v>1050</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="17">
-        <v>2019</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="18">
-        <v>17187</v>
-      </c>
-      <c r="E76" s="18">
-        <v>2415</v>
-      </c>
-      <c r="F76" s="18">
-        <v>397</v>
-      </c>
-      <c r="G76" s="18">
-        <v>170</v>
-      </c>
-      <c r="H76" s="18">
-        <v>123279</v>
-      </c>
-      <c r="I76" s="18">
-        <v>25269</v>
-      </c>
-      <c r="J76" s="18">
-        <v>3198</v>
-      </c>
-      <c r="K76" s="18">
-        <v>1045</v>
       </c>
     </row>
     <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
       <c r="B77" s="15">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" s="16">
-        <v>17176</v>
+        <v>17187</v>
       </c>
       <c r="E77" s="16">
-        <v>2409</v>
+        <v>2415</v>
       </c>
       <c r="F77" s="16">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G77" s="16">
         <v>170</v>
       </c>
       <c r="H77" s="16">
-        <v>123073</v>
+        <v>123279</v>
       </c>
       <c r="I77" s="16">
-        <v>25189</v>
+        <v>25269</v>
       </c>
       <c r="J77" s="16">
-        <v>3183</v>
+        <v>3198</v>
       </c>
       <c r="K77" s="16">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3215,63 +3215,63 @@
         <v>2018</v>
       </c>
       <c r="C78" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="14">
+        <v>17176</v>
+      </c>
+      <c r="E78" s="14">
+        <v>2409</v>
+      </c>
+      <c r="F78" s="14">
+        <v>394</v>
+      </c>
+      <c r="G78" s="14">
+        <v>170</v>
+      </c>
+      <c r="H78" s="14">
+        <v>123073</v>
+      </c>
+      <c r="I78" s="14">
+        <v>25189</v>
+      </c>
+      <c r="J78" s="14">
+        <v>3183</v>
+      </c>
+      <c r="K78" s="14">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="12">
         <v>17063</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E79" s="12">
         <v>2394</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F79" s="12">
         <v>392</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="12">
         <v>167</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H79" s="12">
         <v>122612</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I79" s="12">
         <v>25091</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J79" s="12">
         <v>3170</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K79" s="12">
         <v>1035</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="16">
-        <v>16927</v>
-      </c>
-      <c r="E79" s="16">
-        <v>2392</v>
-      </c>
-      <c r="F79" s="16">
-        <v>382</v>
-      </c>
-      <c r="G79" s="16">
-        <v>168</v>
-      </c>
-      <c r="H79" s="16">
-        <v>122104</v>
-      </c>
-      <c r="I79" s="16">
-        <v>24950</v>
-      </c>
-      <c r="J79" s="16">
-        <v>3156</v>
-      </c>
-      <c r="K79" s="16">
-        <v>1026</v>
       </c>
     </row>
     <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3279,13 +3279,13 @@
         <v>2018</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D80" s="14">
-        <v>16818</v>
+        <v>16927</v>
       </c>
       <c r="E80" s="14">
-        <v>2382</v>
+        <v>2392</v>
       </c>
       <c r="F80" s="14">
         <v>382</v>
@@ -3294,48 +3294,48 @@
         <v>168</v>
       </c>
       <c r="H80" s="14">
+        <v>122104</v>
+      </c>
+      <c r="I80" s="14">
+        <v>24950</v>
+      </c>
+      <c r="J80" s="14">
+        <v>3156</v>
+      </c>
+      <c r="K80" s="14">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="12">
+        <v>16818</v>
+      </c>
+      <c r="E81" s="12">
+        <v>2382</v>
+      </c>
+      <c r="F81" s="12">
+        <v>382</v>
+      </c>
+      <c r="G81" s="12">
+        <v>168</v>
+      </c>
+      <c r="H81" s="12">
         <v>121579</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I81" s="12">
         <v>24817</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J81" s="12">
         <v>3133</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K81" s="12">
         <v>1019</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="16">
-        <v>16753</v>
-      </c>
-      <c r="E81" s="16">
-        <v>2373</v>
-      </c>
-      <c r="F81" s="16">
-        <v>373</v>
-      </c>
-      <c r="G81" s="16">
-        <v>165</v>
-      </c>
-      <c r="H81" s="16">
-        <v>121024</v>
-      </c>
-      <c r="I81" s="16">
-        <v>24729</v>
-      </c>
-      <c r="J81" s="16">
-        <v>3111</v>
-      </c>
-      <c r="K81" s="16">
-        <v>1016</v>
       </c>
     </row>
     <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3343,63 +3343,63 @@
         <v>2018</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" s="14">
-        <v>16665</v>
+        <v>16753</v>
       </c>
       <c r="E82" s="14">
-        <v>2355</v>
+        <v>2373</v>
       </c>
       <c r="F82" s="14">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G82" s="14">
         <v>165</v>
       </c>
       <c r="H82" s="14">
+        <v>121024</v>
+      </c>
+      <c r="I82" s="14">
+        <v>24729</v>
+      </c>
+      <c r="J82" s="14">
+        <v>3111</v>
+      </c>
+      <c r="K82" s="14">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="12">
+        <v>16665</v>
+      </c>
+      <c r="E83" s="12">
+        <v>2355</v>
+      </c>
+      <c r="F83" s="12">
+        <v>371</v>
+      </c>
+      <c r="G83" s="12">
+        <v>165</v>
+      </c>
+      <c r="H83" s="12">
         <v>120510</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I83" s="12">
         <v>24592</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J83" s="12">
         <v>3094</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K83" s="12">
         <v>1005</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="16">
-        <v>16612</v>
-      </c>
-      <c r="E83" s="16">
-        <v>2334</v>
-      </c>
-      <c r="F83" s="16">
-        <v>369</v>
-      </c>
-      <c r="G83" s="16">
-        <v>168</v>
-      </c>
-      <c r="H83" s="16">
-        <v>120020</v>
-      </c>
-      <c r="I83" s="16">
-        <v>24500</v>
-      </c>
-      <c r="J83" s="16">
-        <v>3076</v>
-      </c>
-      <c r="K83" s="16">
-        <v>1003</v>
       </c>
     </row>
     <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3407,63 +3407,63 @@
         <v>2018</v>
       </c>
       <c r="C84" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="14">
+        <v>16612</v>
+      </c>
+      <c r="E84" s="14">
+        <v>2334</v>
+      </c>
+      <c r="F84" s="14">
+        <v>369</v>
+      </c>
+      <c r="G84" s="14">
+        <v>168</v>
+      </c>
+      <c r="H84" s="14">
+        <v>120020</v>
+      </c>
+      <c r="I84" s="14">
+        <v>24500</v>
+      </c>
+      <c r="J84" s="14">
+        <v>3076</v>
+      </c>
+      <c r="K84" s="14">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="12">
         <v>16553</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E85" s="12">
         <v>2326</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F85" s="12">
         <v>368</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="12">
         <v>167</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H85" s="12">
         <v>119627</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I85" s="12">
         <v>24395</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J85" s="12">
         <v>3068</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K85" s="12">
         <v>998</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="16">
-        <v>16474</v>
-      </c>
-      <c r="E85" s="16">
-        <v>2306</v>
-      </c>
-      <c r="F85" s="16">
-        <v>363</v>
-      </c>
-      <c r="G85" s="16">
-        <v>166</v>
-      </c>
-      <c r="H85" s="16">
-        <v>119076</v>
-      </c>
-      <c r="I85" s="16">
-        <v>24234</v>
-      </c>
-      <c r="J85" s="16">
-        <v>3031</v>
-      </c>
-      <c r="K85" s="16">
-        <v>994</v>
       </c>
     </row>
     <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3471,63 +3471,63 @@
         <v>2018</v>
       </c>
       <c r="C86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="14">
+        <v>16474</v>
+      </c>
+      <c r="E86" s="14">
+        <v>2306</v>
+      </c>
+      <c r="F86" s="14">
+        <v>363</v>
+      </c>
+      <c r="G86" s="14">
+        <v>166</v>
+      </c>
+      <c r="H86" s="14">
+        <v>119076</v>
+      </c>
+      <c r="I86" s="14">
+        <v>24234</v>
+      </c>
+      <c r="J86" s="14">
+        <v>3031</v>
+      </c>
+      <c r="K86" s="14">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="12">
         <v>16403</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E87" s="12">
         <v>2307</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F87" s="12">
         <v>356</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="12">
         <v>164</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H87" s="12">
         <v>118573</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I87" s="12">
         <v>24067</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J87" s="12">
         <v>3016</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K87" s="12">
         <v>982</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="16">
-        <v>16312</v>
-      </c>
-      <c r="E87" s="16">
-        <v>2280</v>
-      </c>
-      <c r="F87" s="16">
-        <v>355</v>
-      </c>
-      <c r="G87" s="16">
-        <v>163</v>
-      </c>
-      <c r="H87" s="16">
-        <v>118068</v>
-      </c>
-      <c r="I87" s="16">
-        <v>23912</v>
-      </c>
-      <c r="J87" s="16">
-        <v>3000</v>
-      </c>
-      <c r="K87" s="16">
-        <v>971</v>
       </c>
     </row>
     <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
@@ -3535,45 +3535,77 @@
         <v>2018</v>
       </c>
       <c r="C88" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="14">
+        <v>16312</v>
+      </c>
+      <c r="E88" s="14">
+        <v>2280</v>
+      </c>
+      <c r="F88" s="14">
+        <v>355</v>
+      </c>
+      <c r="G88" s="14">
+        <v>163</v>
+      </c>
+      <c r="H88" s="14">
+        <v>118068</v>
+      </c>
+      <c r="I88" s="14">
+        <v>23912</v>
+      </c>
+      <c r="J88" s="14">
+        <v>3000</v>
+      </c>
+      <c r="K88" s="14">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="12">
         <v>16235</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E89" s="12">
         <v>2282</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F89" s="12">
         <v>350</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="12">
         <v>164</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H89" s="12">
         <v>117820</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I89" s="12">
         <v>23812</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J89" s="12">
         <v>2985</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K89" s="12">
         <v>967</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B89" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B91" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K91" s="8"/>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K92" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858499E2-3FD7-4DE7-BDE6-03FF0DA192AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB17E9-F097-41D3-9A88-31FACBE8D290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Empresas permisionarios de pasaje</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -303,12 +303,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -350,6 +361,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -500,13 +515,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -530,6 +538,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -580,8 +595,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K89" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K89" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="B5:K90" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -827,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:M92"/>
+  <dimension ref="B2:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -907,2705 +922,2737 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="B6" s="21">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="22">
+        <v>22455</v>
+      </c>
+      <c r="E6" s="22">
+        <v>3502</v>
+      </c>
+      <c r="F6" s="22">
+        <v>555</v>
+      </c>
+      <c r="G6" s="22">
+        <v>228</v>
+      </c>
+      <c r="H6" s="22">
+        <v>172885</v>
+      </c>
+      <c r="I6" s="22">
+        <v>36217</v>
+      </c>
+      <c r="J6" s="22">
+        <v>4897</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="14">
         <v>22428</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E7" s="14">
         <v>3496</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F7" s="14">
         <v>554</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G7" s="14">
         <v>227</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H7" s="14">
         <v>172611</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I7" s="14">
         <v>36098</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J7" s="14">
         <v>4868</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K7" s="14">
         <v>1468</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B8" s="11">
         <v>2024</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12">
         <v>22336</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>3475</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="12">
         <v>549</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="12">
         <v>225</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H8" s="12">
         <v>172070</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I8" s="12">
         <v>35927</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J8" s="12">
         <v>4832</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K8" s="12">
         <v>1464</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <v>22266</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="14">
         <v>3453</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F9" s="14">
         <v>553</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G9" s="14">
         <v>222</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H9" s="14">
         <v>171475</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>35741</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J9" s="14">
         <v>4799</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K9" s="14">
         <v>1462</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="11">
         <v>2024</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="12">
         <v>22164</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E10" s="12">
         <v>3444</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>550</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>222</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H10" s="12">
         <v>170782</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I10" s="12">
         <v>35496</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J10" s="12">
         <v>4768</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K10" s="12">
         <v>1447</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <v>22054</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="14">
         <v>3448</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F11" s="14">
         <v>545</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G11" s="14">
         <v>221</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H11" s="14">
         <v>170125</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I11" s="14">
         <v>35287</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="14">
         <v>4743</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K11" s="14">
         <v>1439</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="11">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>21977</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>3439</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>539</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>222</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H12" s="12">
         <v>169471</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I12" s="12">
         <v>35095</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J12" s="12">
         <v>4695</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K12" s="12">
         <v>1433</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <v>21900</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="14">
         <v>3414</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F13" s="14">
         <v>541</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="14">
         <v>222</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H13" s="14">
         <v>168764</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I13" s="14">
         <v>34901</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J13" s="14">
         <v>4637</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K13" s="14">
         <v>1428</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="11">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <v>21844</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <v>3399</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <v>540</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <v>221</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H14" s="12">
         <v>167901</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I14" s="12">
         <v>34526</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J14" s="12">
         <v>4584</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K14" s="12">
         <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="13">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <v>21782</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E15" s="14">
         <v>3381</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F15" s="14">
         <v>537</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="14">
         <v>221</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H15" s="14">
         <v>167537</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I15" s="14">
         <v>34455</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J15" s="14">
         <v>4564</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K15" s="14">
         <v>1401</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="11">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <v>21711</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>3370</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>537</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="12">
         <v>216</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H16" s="12">
         <v>166979</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I16" s="12">
         <v>34249</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J16" s="12">
         <v>4522</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K16" s="12">
         <v>1391</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="13">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="13">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D17" s="14">
         <v>21675</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E17" s="14">
         <v>3345</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F17" s="14">
         <v>538</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="14">
         <v>215</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H17" s="14">
         <v>166478</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I17" s="14">
         <v>34057</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J17" s="14">
         <v>4499</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="14">
         <v>1379</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
         <v>2024</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="16">
         <v>21635</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E18" s="16">
         <v>3332</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="16">
         <v>535</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G18" s="16">
         <v>212</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H18" s="16">
         <v>166076</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I18" s="16">
         <v>33897</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J18" s="16">
         <v>4471</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K18" s="16">
         <v>1371</v>
       </c>
     </row>
-    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="17">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="17">
         <v>2023</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D19" s="18">
         <v>21607</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E19" s="18">
         <v>3331</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F19" s="18">
         <v>527</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G19" s="18">
         <v>213</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H19" s="18">
         <v>165843</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="18">
         <v>33744</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J19" s="18">
         <v>4441</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K19" s="18">
         <v>1370</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="11">
         <v>2023</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>21539</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>3304</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="12">
         <v>524</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="12">
         <v>215</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H20" s="12">
         <v>165469</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I20" s="12">
         <v>33558</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J20" s="12">
         <v>4409</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K20" s="12">
         <v>1361</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="14">
         <v>21461</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E21" s="14">
         <v>3281</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F21" s="14">
         <v>527</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="14">
         <v>213</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H21" s="14">
         <v>164931</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>33376</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="14">
         <v>4381</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K21" s="14">
         <v>1353</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="11">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <v>21397</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E22" s="12">
         <v>3274</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F22" s="12">
         <v>524</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="12">
         <v>214</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H22" s="12">
         <v>164459</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I22" s="12">
         <v>33219</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J22" s="12">
         <v>4371</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K22" s="12">
         <v>1339</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <v>21333</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="14">
         <v>3249</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F23" s="14">
         <v>520</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="14">
         <v>213</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H23" s="14">
         <v>164018</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>33086</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J23" s="14">
         <v>4345</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K23" s="14">
         <v>1335</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="11">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>21275</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>3244</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F24" s="12">
         <v>515</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <v>214</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H24" s="12">
         <v>163591</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I24" s="12">
         <v>32899</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J24" s="12">
         <v>4314</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K24" s="12">
         <v>1333</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <v>21204</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E25" s="14">
         <v>3230</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F25" s="14">
         <v>515</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G25" s="14">
         <v>213</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <v>163109</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="14">
         <v>32765</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J25" s="14">
         <v>4282</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K25" s="14">
         <v>1324</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="11">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <v>21106</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E26" s="12">
         <v>3207</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F26" s="12">
         <v>515</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="12">
         <v>214</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H26" s="12">
         <v>162727</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I26" s="12">
         <v>32622</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J26" s="12">
         <v>4264</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K26" s="12">
         <v>1317</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <v>21068</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E27" s="14">
         <v>3196</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F27" s="14">
         <v>508</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G27" s="14">
         <v>215</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="14">
         <v>162289</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I27" s="14">
         <v>32483</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J27" s="14">
         <v>4234</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K27" s="14">
         <v>1308</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11">
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="11">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <v>21005</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>3186</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>509</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <v>213</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H28" s="12">
         <v>161844</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I28" s="12">
         <v>32370</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J28" s="12">
         <v>4232</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K28" s="12">
         <v>1304</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="13">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="13">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <v>20929</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="14">
         <v>3165</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F29" s="14">
         <v>506</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <v>212</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>161330</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>32261</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J29" s="14">
         <v>4201</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K29" s="14">
         <v>1299</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="15">
         <v>2023</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <v>20899</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E30" s="16">
         <v>3142</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F30" s="16">
         <v>506</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G30" s="16">
         <v>211</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H30" s="16">
         <v>161006</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I30" s="16">
         <v>32141</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J30" s="16">
         <v>4183</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K30" s="16">
         <v>1295</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="17">
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="17">
         <v>2022</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D31" s="18">
         <v>20835</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E31" s="18">
         <v>3137</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F31" s="18">
         <v>506</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G31" s="18">
         <v>209</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H31" s="18">
         <v>160773</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I31" s="18">
         <v>32040</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J31" s="18">
         <v>4173</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K31" s="18">
         <v>1286</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="11">
         <v>2022</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <v>20752</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>3107</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F32" s="12">
         <v>505</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <v>211</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H32" s="12">
         <v>160470</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I32" s="12">
         <v>31958</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J32" s="12">
         <v>4162</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K32" s="12">
         <v>1280</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <v>20711</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <v>3095</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F33" s="14">
         <v>501</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <v>210</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <v>160213</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="14">
         <v>31874</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J33" s="14">
         <v>4145</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K33" s="14">
         <v>1274</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="11">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <v>20657</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>3083</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F34" s="12">
         <v>499</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G34" s="12">
         <v>209</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H34" s="12">
         <v>159867</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I34" s="12">
         <v>31794</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J34" s="12">
         <v>4135</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K34" s="12">
         <v>1270</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="13">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <v>20751</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E35" s="14">
         <v>3106</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F35" s="14">
         <v>501</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G35" s="14">
         <v>211</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H35" s="14">
         <v>159400</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I35" s="14">
         <v>31688</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J35" s="14">
         <v>4111</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K35" s="14">
         <v>1260</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="11">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="11">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <v>20551</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>3046</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F36" s="12">
         <v>490</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G36" s="12">
         <v>208</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H36" s="12">
         <v>158821</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I36" s="12">
         <v>31547</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J36" s="12">
         <v>4081</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K36" s="12">
         <v>1253</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="13">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <v>20522</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="14">
         <v>3038</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="14">
         <v>490</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <v>207</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H37" s="14">
         <v>158518</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I37" s="14">
         <v>31468</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J37" s="14">
         <v>4073</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K37" s="14">
         <v>1251</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="11">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="11">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <v>20484</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E38" s="12">
         <v>3026</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F38" s="12">
         <v>488</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G38" s="12">
         <v>206</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H38" s="12">
         <v>158024</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I38" s="12">
         <v>31395</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J38" s="12">
         <v>4062</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K38" s="12">
         <v>1250</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="13">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <v>20432</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E39" s="14">
         <v>3010</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F39" s="14">
         <v>487</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <v>206</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H39" s="14">
         <v>157470</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I39" s="14">
         <v>31286</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J39" s="14">
         <v>4046</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K39" s="14">
         <v>1244</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="11">
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="11">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <v>20400</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>3000</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F40" s="12">
         <v>487</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G40" s="12">
         <v>207</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H40" s="12">
         <v>156952</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I40" s="12">
         <v>31147</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J40" s="12">
         <v>4034</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K40" s="12">
         <v>1237</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="13">
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="13">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <v>20318</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E41" s="14">
         <v>2994</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F41" s="14">
         <v>489</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <v>204</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H41" s="14">
         <v>156255</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I41" s="14">
         <v>31032</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J41" s="14">
         <v>4013</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K41" s="14">
         <v>1234</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="15">
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15">
         <v>2022</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <v>20280</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="16">
         <v>2988</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="16">
         <v>491</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G42" s="16">
         <v>203</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H42" s="16">
         <v>155756</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I42" s="16">
         <v>30919</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J42" s="16">
         <v>4015</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K42" s="16">
         <v>1222</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="17">
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="17">
         <v>2021</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C43" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D43" s="18">
         <v>20263</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E43" s="18">
         <v>2989</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F43" s="18">
         <v>487</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G43" s="18">
         <v>203</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H43" s="18">
         <v>155476</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I43" s="18">
         <v>30843</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J43" s="18">
         <v>4009</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K43" s="18">
         <v>1222</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="11">
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="11">
         <v>2021</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <v>20206</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>2973</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F44" s="12">
         <v>485</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G44" s="12">
         <v>203</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H44" s="12">
         <v>154922</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I44" s="12">
         <v>30721</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J44" s="12">
         <v>3992</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K44" s="12">
         <v>1216</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="13">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <v>20146</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E45" s="14">
         <v>2967</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>483</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>203</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H45" s="14">
         <v>154593</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I45" s="14">
         <v>30634</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J45" s="14">
         <v>3971</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K45" s="14">
         <v>1218</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="11">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="11">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <v>20103</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E46" s="12">
         <v>2962</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F46" s="12">
         <v>483</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G46" s="12">
         <v>201</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H46" s="12">
         <v>154071</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I46" s="12">
         <v>30444</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J46" s="12">
         <v>3948</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K46" s="12">
         <v>1214</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <v>20021</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E47" s="14">
         <v>2931</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F47" s="14">
         <v>477</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <v>205</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H47" s="14">
         <v>153674</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I47" s="14">
         <v>30371</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J47" s="14">
         <v>3913</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K47" s="14">
         <v>1220</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="11">
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="11">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>20037</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>2938</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F48" s="12">
         <v>478</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G48" s="12">
         <v>205</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H48" s="12">
         <v>153148</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I48" s="12">
         <v>30163</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J48" s="12">
         <v>3889</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K48" s="12">
         <v>1215</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="13">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <v>19989</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>2916</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>479</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G49" s="14">
         <v>204</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H49" s="14">
         <v>152772</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I49" s="14">
         <v>30071</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J49" s="14">
         <v>3878</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K49" s="14">
         <v>1211</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="11">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="11">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <v>19946</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E50" s="12">
         <v>2902</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F50" s="12">
         <v>478</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G50" s="12">
         <v>204</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H50" s="12">
         <v>152274</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I50" s="12">
         <v>29923</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J50" s="12">
         <v>3848</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K50" s="12">
         <v>1208</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="13">
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <v>19923</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E51" s="14">
         <v>2897</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F51" s="14">
         <v>476</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <v>205</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H51" s="14">
         <v>151877</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I51" s="14">
         <v>29764</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J51" s="14">
         <v>3855</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K51" s="14">
         <v>1197</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="11">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="11">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <v>19894</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>2881</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>475</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G52" s="12">
         <v>209</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H52" s="12">
         <v>151428</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I52" s="12">
         <v>29625</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J52" s="12">
         <v>3837</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K52" s="12">
         <v>1196</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="13">
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="13">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <v>19844</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E53" s="14">
         <v>2870</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F53" s="14">
         <v>478</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <v>208</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H53" s="14">
         <v>150941</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I53" s="14">
         <v>29527</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J53" s="14">
         <v>3793</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K53" s="14">
         <v>1186</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="15">
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="15">
         <v>2021</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <v>19809</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="16">
         <v>2878</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <v>478</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="16">
         <v>210</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H54" s="16">
         <v>150642</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I54" s="16">
         <v>29399</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J54" s="16">
         <v>3775</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K54" s="16">
         <v>1181</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="17">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="17">
         <v>2020</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D55" s="18">
         <v>19806</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E55" s="18">
         <v>2877</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F55" s="18">
         <v>477</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G55" s="18">
         <v>210</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H55" s="18">
         <v>150512</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I55" s="18">
         <v>29328</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J55" s="18">
         <v>3753</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K55" s="18">
         <v>1181</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="11">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="11">
         <v>2020</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <v>19746</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>2866</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F56" s="12">
         <v>480</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G56" s="12">
         <v>208</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H56" s="12">
         <v>149978</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I56" s="12">
         <v>29202</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J56" s="12">
         <v>3724</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K56" s="12">
         <v>1177</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="13">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <v>19711</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E57" s="14">
         <v>2853</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F57" s="14">
         <v>483</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="14">
         <v>207</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H57" s="14">
         <v>149557</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I57" s="14">
         <v>29064</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J57" s="14">
         <v>3720</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K57" s="14">
         <v>1169</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="11">
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="11">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="12">
         <v>19666</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="12">
         <v>2846</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F58" s="12">
         <v>481</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G58" s="12">
         <v>209</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H58" s="12">
         <v>149333</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I58" s="12">
         <v>28918</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J58" s="12">
         <v>3682</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K58" s="12">
         <v>1165</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="13">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <v>19641</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E59" s="14">
         <v>2841</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F59" s="14">
         <v>482</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <v>209</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <v>149165</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="14">
         <v>28805</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J59" s="14">
         <v>3675</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K59" s="14">
         <v>1160</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="11">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="11">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <v>19637</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>2839</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F60" s="12">
         <v>481</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G60" s="12">
         <v>209</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H60" s="12">
         <v>149034</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I60" s="12">
         <v>28738</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J60" s="12">
         <v>3651</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K60" s="12">
         <v>1156</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="13">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <v>19635</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E61" s="14">
         <v>2839</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F61" s="14">
         <v>481</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G61" s="14">
         <v>208</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H61" s="14">
         <v>148936</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I61" s="14">
         <v>28662</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J61" s="14">
         <v>3641</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="14">
         <v>1154</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="11">
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="11">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <v>19634</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E62" s="12">
         <v>2839</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F62" s="12">
         <v>481</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="12">
         <v>207</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H62" s="12">
         <v>148915</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I62" s="12">
         <v>28646</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J62" s="12">
         <v>3645</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K62" s="12">
         <v>1152</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="13">
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <v>19634</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E63" s="14">
         <v>2839</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>481</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <v>207</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H63" s="14">
         <v>148909</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I63" s="14">
         <v>28641</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J63" s="14">
         <v>3645</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K63" s="14">
         <v>1151</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="11">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="11">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <v>19633</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>2839</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F64" s="12">
         <v>481</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="12">
         <v>207</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H64" s="12">
         <v>148896</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I64" s="12">
         <v>28639</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J64" s="12">
         <v>3647</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K64" s="12">
         <v>1150</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="13">
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="13">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <v>19600</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E65" s="14">
         <v>2827</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F65" s="14">
         <v>479</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <v>207</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H65" s="14">
         <v>148599</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I65" s="14">
         <v>28517</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J65" s="14">
         <v>3624</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K65" s="14">
         <v>1150</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
         <v>2020</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <v>19541</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E66" s="16">
         <v>2817</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="16">
         <v>476</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G66" s="16">
         <v>207</v>
       </c>
-      <c r="H65" s="16">
+      <c r="H66" s="16">
         <v>148188</v>
       </c>
-      <c r="I65" s="16">
+      <c r="I66" s="16">
         <v>28401</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J66" s="16">
         <v>3614</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K66" s="16">
         <v>1147</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="17">
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="17">
         <v>2019</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C67" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D67" s="18">
         <v>19514</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E67" s="18">
         <v>2807</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F67" s="18">
         <v>477</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G67" s="18">
         <v>206</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H67" s="18">
         <v>147966</v>
       </c>
-      <c r="I66" s="18">
+      <c r="I67" s="18">
         <v>28318</v>
       </c>
-      <c r="J66" s="18">
+      <c r="J67" s="18">
         <v>3601</v>
       </c>
-      <c r="K66" s="18">
+      <c r="K67" s="18">
         <v>1146</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="11">
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="11">
         <v>2019</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <v>19374</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>2784</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F68" s="12">
         <v>474</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G68" s="12">
         <v>205</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H68" s="12">
         <v>147552</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I68" s="12">
         <v>28216</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J68" s="12">
         <v>3578</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K68" s="12">
         <v>1143</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="13">
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <v>19270</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="14">
         <v>2775</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F69" s="14">
         <v>473</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <v>203</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H69" s="14">
         <v>147145</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I69" s="14">
         <v>28082</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J69" s="14">
         <v>3566</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K69" s="14">
         <v>1131</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="11">
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="11">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="12">
         <v>18283</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E70" s="12">
         <v>2541</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F70" s="12">
         <v>429</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G70" s="12">
         <v>173</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H70" s="12">
         <v>135900</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I70" s="12">
         <v>26071</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J70" s="12">
         <v>3315</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K70" s="12">
         <v>1067</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="13">
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <v>18210</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E71" s="14">
         <v>2531</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F71" s="14">
         <v>428</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="14">
         <v>174</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H71" s="14">
         <v>135525</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I71" s="14">
         <v>25971</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J71" s="14">
         <v>3310</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K71" s="14">
         <v>1060</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="11">
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="11">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <v>18415</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>2539</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F72" s="12">
         <v>433</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="12">
         <v>170</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H72" s="12">
         <v>135981</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I72" s="12">
         <v>25844</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J72" s="12">
         <v>3256</v>
       </c>
-      <c r="K71" s="12">
+      <c r="K72" s="12">
         <v>1052</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="13">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <v>18061</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E73" s="14">
         <v>2503</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F73" s="14">
         <v>431</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="14">
         <v>171</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H73" s="14">
         <v>134678</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I73" s="14">
         <v>25745</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J73" s="14">
         <v>3256</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K73" s="14">
         <v>1054</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="11">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="11">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <v>17466</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="12">
         <v>2457</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F74" s="12">
         <v>414</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="12">
         <v>174</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H74" s="12">
         <v>124831</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I74" s="12">
         <v>25684</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J74" s="12">
         <v>3289</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K74" s="12">
         <v>1066</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="13">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <v>17400</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E75" s="14">
         <v>2444</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F75" s="14">
         <v>408</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <v>174</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H75" s="14">
         <v>124413</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I75" s="14">
         <v>25571</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J75" s="14">
         <v>3256</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K75" s="14">
         <v>1066</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="11">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="11">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <v>17310</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E76" s="12">
         <v>2439</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F76" s="12">
         <v>406</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G76" s="12">
         <v>172</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H76" s="12">
         <v>124028</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I76" s="12">
         <v>25443</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J76" s="12">
         <v>3244</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K76" s="12">
         <v>1056</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="13">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="13">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <v>17252</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E77" s="14">
         <v>2424</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F77" s="14">
         <v>401</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <v>171</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H77" s="14">
         <v>123619</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I77" s="14">
         <v>25350</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J77" s="14">
         <v>3211</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K77" s="14">
         <v>1050</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="15">
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="15">
         <v>2019</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <v>17187</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E78" s="16">
         <v>2415</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="16">
         <v>397</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G78" s="16">
         <v>170</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H78" s="16">
         <v>123279</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I78" s="16">
         <v>25269</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J78" s="16">
         <v>3198</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K78" s="16">
         <v>1045</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="13">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <v>17176</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E79" s="14">
         <v>2409</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F79" s="14">
         <v>394</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <v>170</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H79" s="14">
         <v>123073</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I79" s="14">
         <v>25189</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J79" s="14">
         <v>3183</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K79" s="14">
         <v>1042</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="11">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <v>17063</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>2394</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F80" s="12">
         <v>392</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G80" s="12">
         <v>167</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H80" s="12">
         <v>122612</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I80" s="12">
         <v>25091</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J80" s="12">
         <v>3170</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K80" s="12">
         <v>1035</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="13">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <v>16927</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E81" s="14">
         <v>2392</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F81" s="14">
         <v>382</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G81" s="14">
         <v>168</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H81" s="14">
         <v>122104</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I81" s="14">
         <v>24950</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J81" s="14">
         <v>3156</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K81" s="14">
         <v>1026</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="11">
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <v>16818</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E82" s="12">
         <v>2382</v>
       </c>
-      <c r="F81" s="12">
+      <c r="F82" s="12">
         <v>382</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G82" s="12">
         <v>168</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H82" s="12">
         <v>121579</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I82" s="12">
         <v>24817</v>
       </c>
-      <c r="J81" s="12">
+      <c r="J82" s="12">
         <v>3133</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K82" s="12">
         <v>1019</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="13">
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <v>16753</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E83" s="14">
         <v>2373</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F83" s="14">
         <v>373</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G83" s="14">
         <v>165</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H83" s="14">
         <v>121024</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I83" s="14">
         <v>24729</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J83" s="14">
         <v>3111</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K83" s="14">
         <v>1016</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="11">
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <v>16665</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>2355</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F84" s="12">
         <v>371</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="12">
         <v>165</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H84" s="12">
         <v>120510</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I84" s="12">
         <v>24592</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J84" s="12">
         <v>3094</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K84" s="12">
         <v>1005</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="13">
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <v>16612</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E85" s="14">
         <v>2334</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F85" s="14">
         <v>369</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="14">
         <v>168</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H85" s="14">
         <v>120020</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I85" s="14">
         <v>24500</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J85" s="14">
         <v>3076</v>
       </c>
-      <c r="K84" s="14">
+      <c r="K85" s="14">
         <v>1003</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="11">
+    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <v>16553</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E86" s="12">
         <v>2326</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F86" s="12">
         <v>368</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>167</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H86" s="12">
         <v>119627</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I86" s="12">
         <v>24395</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J86" s="12">
         <v>3068</v>
       </c>
-      <c r="K85" s="12">
+      <c r="K86" s="12">
         <v>998</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="13">
+    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <v>16474</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E87" s="14">
         <v>2306</v>
       </c>
-      <c r="F86" s="14">
+      <c r="F87" s="14">
         <v>363</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <v>166</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H87" s="14">
         <v>119076</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I87" s="14">
         <v>24234</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J87" s="14">
         <v>3031</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K87" s="14">
         <v>994</v>
       </c>
     </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="11">
+    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <v>16403</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E88" s="12">
         <v>2307</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F88" s="12">
         <v>356</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="12">
         <v>164</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H88" s="12">
         <v>118573</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I88" s="12">
         <v>24067</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J88" s="12">
         <v>3016</v>
       </c>
-      <c r="K87" s="12">
+      <c r="K88" s="12">
         <v>982</v>
       </c>
     </row>
-    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="13">
+    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <v>16312</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E89" s="14">
         <v>2280</v>
       </c>
-      <c r="F88" s="14">
+      <c r="F89" s="14">
         <v>355</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <v>163</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H89" s="14">
         <v>118068</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I89" s="14">
         <v>23912</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J89" s="14">
         <v>3000</v>
       </c>
-      <c r="K88" s="14">
+      <c r="K89" s="14">
         <v>971</v>
       </c>
     </row>
-    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="11">
+    <row r="90" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <v>16235</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E90" s="12">
         <v>2282</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="12">
         <v>350</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G90" s="12">
         <v>164</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H90" s="12">
         <v>117820</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I90" s="12">
         <v>23812</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J90" s="12">
         <v>2985</v>
       </c>
-      <c r="K89" s="12">
+      <c r="K90" s="12">
         <v>967</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K92" s="6"/>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="K93" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB17E9-F097-41D3-9A88-31FACBE8D290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368CA3D0-15CC-4F74-8A88-341E6B78EDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="27">
   <si>
     <t>Empresas permisionarios de pasaje</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -227,17 +227,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -280,19 +269,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -305,13 +281,22 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -319,26 +304,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,20 +330,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -515,6 +496,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -538,13 +526,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -595,8 +576,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K90" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="B5:K90" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K91" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -842,13 +823,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:M93"/>
+  <dimension ref="B2:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="3" customWidth="1"/>
@@ -862,2797 +843,2829 @@
     <col min="12" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" ht="18">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13">
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="2"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:13">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="21">
+    <row r="6" spans="2:13">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10">
+        <v>22503</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3507</v>
+      </c>
+      <c r="F6" s="10">
+        <v>555</v>
+      </c>
+      <c r="G6" s="10">
+        <v>227</v>
+      </c>
+      <c r="H6" s="10">
+        <v>173335</v>
+      </c>
+      <c r="I6" s="10">
+        <v>36398</v>
+      </c>
+      <c r="J6" s="10">
+        <v>4921</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D7" s="12">
         <v>22455</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E7" s="12">
         <v>3502</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F7" s="12">
         <v>555</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G7" s="12">
         <v>228</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H7" s="12">
         <v>172885</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I7" s="12">
         <v>36217</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J7" s="12">
         <v>4897</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K7" s="12">
         <v>1474</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+    <row r="8" spans="2:13">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D8" s="10">
         <v>22428</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E8" s="10">
         <v>3496</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="10">
         <v>554</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="10">
         <v>227</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="10">
         <v>172611</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="10">
         <v>36098</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J8" s="10">
         <v>4868</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K8" s="10">
         <v>1468</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="11">
+    <row r="9" spans="2:13">
+      <c r="B9" s="7">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="8">
         <v>22336</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="8">
         <v>3475</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="8">
         <v>549</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="8">
         <v>225</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="8">
         <v>172070</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="8">
         <v>35927</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J9" s="8">
         <v>4832</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K9" s="8">
         <v>1464</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+    <row r="10" spans="2:13">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D10" s="10">
         <v>22266</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E10" s="10">
         <v>3453</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F10" s="10">
         <v>553</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="10">
         <v>222</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H10" s="10">
         <v>171475</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I10" s="10">
         <v>35741</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J10" s="10">
         <v>4799</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K10" s="10">
         <v>1462</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="11">
+    <row r="11" spans="2:13">
+      <c r="B11" s="7">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="8">
         <v>22164</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="8">
         <v>3444</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F11" s="8">
         <v>550</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="8">
         <v>222</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H11" s="8">
         <v>170782</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I11" s="8">
         <v>35496</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J11" s="8">
         <v>4768</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K11" s="8">
         <v>1447</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="13">
+    <row r="12" spans="2:13">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="10">
         <v>22054</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E12" s="10">
         <v>3448</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F12" s="10">
         <v>545</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="10">
         <v>221</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H12" s="10">
         <v>170125</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I12" s="10">
         <v>35287</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="10">
         <v>4743</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="10">
         <v>1439</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+    <row r="13" spans="2:13">
+      <c r="B13" s="7">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="8">
         <v>21977</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="8">
         <v>3439</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="8">
         <v>539</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="8">
         <v>222</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="8">
         <v>169471</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I13" s="8">
         <v>35095</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J13" s="8">
         <v>4695</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K13" s="8">
         <v>1433</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="13">
+    <row r="14" spans="2:13">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="10">
         <v>21900</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E14" s="10">
         <v>3414</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F14" s="10">
         <v>541</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="10">
         <v>222</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H14" s="10">
         <v>168764</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I14" s="10">
         <v>34901</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J14" s="10">
         <v>4637</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K14" s="10">
         <v>1428</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="11">
+    <row r="15" spans="2:13">
+      <c r="B15" s="7">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="8">
         <v>21844</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="8">
         <v>3399</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="8">
         <v>540</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="8">
         <v>221</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="8">
         <v>167901</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="8">
         <v>34526</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J15" s="8">
         <v>4584</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K15" s="8">
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="13">
+    <row r="16" spans="2:13">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="10">
         <v>21782</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="10">
         <v>3381</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="10">
         <v>537</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="10">
         <v>221</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H16" s="10">
         <v>167537</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I16" s="10">
         <v>34455</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J16" s="10">
         <v>4564</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K16" s="10">
         <v>1401</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="11">
+    <row r="17" spans="2:11">
+      <c r="B17" s="7">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="8">
         <v>21711</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="8">
         <v>3370</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="8">
         <v>537</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="8">
         <v>216</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="8">
         <v>166979</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I17" s="8">
         <v>34249</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J17" s="8">
         <v>4522</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K17" s="8">
         <v>1391</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="13">
+    <row r="18" spans="2:11">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="10">
         <v>21675</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E18" s="10">
         <v>3345</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F18" s="10">
         <v>538</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="10">
         <v>215</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H18" s="10">
         <v>166478</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I18" s="10">
         <v>34057</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J18" s="10">
         <v>4499</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K18" s="10">
         <v>1379</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B18" s="15">
+    <row r="19" spans="2:11">
+      <c r="B19" s="11">
         <v>2024</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="12">
         <v>21635</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="12">
         <v>3332</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F19" s="12">
         <v>535</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="12">
         <v>212</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="12">
         <v>166076</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="12">
         <v>33897</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J19" s="12">
         <v>4471</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K19" s="12">
         <v>1371</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="17">
+    <row r="20" spans="2:11" hidden="1">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D20" s="14">
         <v>21607</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E20" s="14">
         <v>3331</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F20" s="14">
         <v>527</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G20" s="14">
         <v>213</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H20" s="14">
         <v>165843</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I20" s="14">
         <v>33744</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J20" s="14">
         <v>4441</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K20" s="14">
         <v>1370</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="11">
+    <row r="21" spans="2:11" hidden="1">
+      <c r="B21" s="7">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="8">
         <v>21539</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="8">
         <v>3304</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="8">
         <v>524</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="8">
         <v>215</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H21" s="8">
         <v>165469</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I21" s="8">
         <v>33558</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J21" s="8">
         <v>4409</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K21" s="8">
         <v>1361</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13">
+    <row r="22" spans="2:11" hidden="1">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="10">
         <v>21461</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="10">
         <v>3281</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F22" s="10">
         <v>527</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="10">
         <v>213</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="10">
         <v>164931</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="10">
         <v>33376</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="10">
         <v>4381</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="10">
         <v>1353</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+    <row r="23" spans="2:11" hidden="1">
+      <c r="B23" s="7">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="8">
         <v>21397</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E23" s="8">
         <v>3274</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F23" s="8">
         <v>524</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="8">
         <v>214</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H23" s="8">
         <v>164459</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I23" s="8">
         <v>33219</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J23" s="8">
         <v>4371</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K23" s="8">
         <v>1339</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="13">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="10">
         <v>21333</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E24" s="10">
         <v>3249</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F24" s="10">
         <v>520</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G24" s="10">
         <v>213</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H24" s="10">
         <v>164018</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I24" s="10">
         <v>33086</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J24" s="10">
         <v>4345</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K24" s="10">
         <v>1335</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="11">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="7">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="8">
         <v>21275</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="8">
         <v>3244</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="8">
         <v>515</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="8">
         <v>214</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H25" s="8">
         <v>163591</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I25" s="8">
         <v>32899</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J25" s="8">
         <v>4314</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K25" s="8">
         <v>1333</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="13">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="10">
         <v>21204</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="10">
         <v>3230</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F26" s="10">
         <v>515</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G26" s="10">
         <v>213</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="10">
         <v>163109</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="10">
         <v>32765</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J26" s="10">
         <v>4282</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K26" s="10">
         <v>1324</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="11">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="7">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="8">
         <v>21106</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="8">
         <v>3207</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="8">
         <v>515</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="8">
         <v>214</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H27" s="8">
         <v>162727</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I27" s="8">
         <v>32622</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J27" s="8">
         <v>4264</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K27" s="8">
         <v>1317</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="10">
         <v>21068</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E28" s="10">
         <v>3196</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F28" s="10">
         <v>508</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="10">
         <v>215</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="10">
         <v>162289</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I28" s="10">
         <v>32483</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J28" s="10">
         <v>4234</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K28" s="10">
         <v>1308</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="11">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="7">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="8">
         <v>21005</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="8">
         <v>3186</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="8">
         <v>509</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="8">
         <v>213</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H29" s="8">
         <v>161844</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I29" s="8">
         <v>32370</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J29" s="8">
         <v>4232</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K29" s="8">
         <v>1304</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="10">
         <v>20929</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="10">
         <v>3165</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F30" s="10">
         <v>506</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G30" s="10">
         <v>212</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="10">
         <v>161330</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I30" s="10">
         <v>32261</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J30" s="10">
         <v>4201</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K30" s="10">
         <v>1299</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="11">
         <v>2023</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="12">
         <v>20899</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="12">
         <v>3142</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="12">
         <v>506</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G31" s="12">
         <v>211</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H31" s="12">
         <v>161006</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="12">
         <v>32141</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J31" s="12">
         <v>4183</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K31" s="12">
         <v>1295</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="17">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D32" s="14">
         <v>20835</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E32" s="14">
         <v>3137</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F32" s="14">
         <v>506</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G32" s="14">
         <v>209</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H32" s="14">
         <v>160773</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I32" s="14">
         <v>32040</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J32" s="14">
         <v>4173</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K32" s="14">
         <v>1286</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="11">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="7">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="8">
         <v>20752</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="8">
         <v>3107</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F33" s="8">
         <v>505</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G33" s="8">
         <v>211</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H33" s="8">
         <v>160470</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I33" s="8">
         <v>31958</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J33" s="8">
         <v>4162</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K33" s="8">
         <v>1280</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="13">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="10">
         <v>20711</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="10">
         <v>3095</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F34" s="10">
         <v>501</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="10">
         <v>210</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="10">
         <v>160213</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I34" s="10">
         <v>31874</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J34" s="10">
         <v>4145</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K34" s="10">
         <v>1274</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="11">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="7">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="8">
         <v>20657</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="8">
         <v>3083</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="8">
         <v>499</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="8">
         <v>209</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H35" s="8">
         <v>159867</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I35" s="8">
         <v>31794</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J35" s="8">
         <v>4135</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K35" s="8">
         <v>1270</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="13">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="10">
         <v>20751</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E36" s="10">
         <v>3106</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F36" s="10">
         <v>501</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="10">
         <v>211</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H36" s="10">
         <v>159400</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I36" s="10">
         <v>31688</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J36" s="10">
         <v>4111</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K36" s="10">
         <v>1260</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="11">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="7">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="8">
         <v>20551</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="8">
         <v>3046</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F37" s="8">
         <v>490</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="8">
         <v>208</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H37" s="8">
         <v>158821</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I37" s="8">
         <v>31547</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J37" s="8">
         <v>4081</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K37" s="8">
         <v>1253</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="13">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="10">
         <v>20522</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="10">
         <v>3038</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F38" s="10">
         <v>490</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="10">
         <v>207</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H38" s="10">
         <v>158518</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="10">
         <v>31468</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J38" s="10">
         <v>4073</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K38" s="10">
         <v>1251</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="11">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="7">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="8">
         <v>20484</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="8">
         <v>3026</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="8">
         <v>488</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="8">
         <v>206</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H39" s="8">
         <v>158024</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I39" s="8">
         <v>31395</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J39" s="8">
         <v>4062</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K39" s="8">
         <v>1250</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="10">
         <v>20432</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E40" s="10">
         <v>3010</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F40" s="10">
         <v>487</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="10">
         <v>206</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H40" s="10">
         <v>157470</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I40" s="10">
         <v>31286</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J40" s="10">
         <v>4046</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K40" s="10">
         <v>1244</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="11">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="7">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="8">
         <v>20400</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="8">
         <v>3000</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="8">
         <v>487</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="8">
         <v>207</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H41" s="8">
         <v>156952</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I41" s="8">
         <v>31147</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J41" s="8">
         <v>4034</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K41" s="8">
         <v>1237</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="13">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="10">
         <v>20318</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E42" s="10">
         <v>2994</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F42" s="10">
         <v>489</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="10">
         <v>204</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H42" s="10">
         <v>156255</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I42" s="10">
         <v>31032</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J42" s="10">
         <v>4013</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K42" s="10">
         <v>1234</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="11">
         <v>2022</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="12">
         <v>20280</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="12">
         <v>2988</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="12">
         <v>491</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="12">
         <v>203</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H43" s="12">
         <v>155756</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I43" s="12">
         <v>30919</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J43" s="12">
         <v>4015</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K43" s="12">
         <v>1222</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="17">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D44" s="14">
         <v>20263</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E44" s="14">
         <v>2989</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F44" s="14">
         <v>487</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G44" s="14">
         <v>203</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H44" s="14">
         <v>155476</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I44" s="14">
         <v>30843</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J44" s="14">
         <v>4009</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K44" s="14">
         <v>1222</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="11">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="7">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="8">
         <v>20206</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="8">
         <v>2973</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F45" s="8">
         <v>485</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="8">
         <v>203</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H45" s="8">
         <v>154922</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I45" s="8">
         <v>30721</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J45" s="8">
         <v>3992</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K45" s="8">
         <v>1216</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="13">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="10">
         <v>20146</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="10">
         <v>2967</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="10">
         <v>483</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="10">
         <v>203</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="10">
         <v>154593</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I46" s="10">
         <v>30634</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J46" s="10">
         <v>3971</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K46" s="10">
         <v>1218</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="11">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="7">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="8">
         <v>20103</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E47" s="8">
         <v>2962</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F47" s="8">
         <v>483</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="8">
         <v>201</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H47" s="8">
         <v>154071</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I47" s="8">
         <v>30444</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J47" s="8">
         <v>3948</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K47" s="8">
         <v>1214</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="13">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="10">
         <v>20021</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E48" s="10">
         <v>2931</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F48" s="10">
         <v>477</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="10">
         <v>205</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H48" s="10">
         <v>153674</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I48" s="10">
         <v>30371</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J48" s="10">
         <v>3913</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K48" s="10">
         <v>1220</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="11">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="7">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="8">
         <v>20037</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="8">
         <v>2938</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F49" s="8">
         <v>478</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="8">
         <v>205</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H49" s="8">
         <v>153148</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I49" s="8">
         <v>30163</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J49" s="8">
         <v>3889</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K49" s="8">
         <v>1215</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="13">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="10">
         <v>19989</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E50" s="10">
         <v>2916</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F50" s="10">
         <v>479</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="10">
         <v>204</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H50" s="10">
         <v>152772</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I50" s="10">
         <v>30071</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J50" s="10">
         <v>3878</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K50" s="10">
         <v>1211</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="11">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="7">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="8">
         <v>19946</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="8">
         <v>2902</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="8">
         <v>478</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="8">
         <v>204</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H51" s="8">
         <v>152274</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I51" s="8">
         <v>29923</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J51" s="8">
         <v>3848</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K51" s="8">
         <v>1208</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="13">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="10">
         <v>19923</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E52" s="10">
         <v>2897</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F52" s="10">
         <v>476</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="10">
         <v>205</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H52" s="10">
         <v>151877</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I52" s="10">
         <v>29764</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J52" s="10">
         <v>3855</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K52" s="10">
         <v>1197</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="11">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="7">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="8">
         <v>19894</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="8">
         <v>2881</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F53" s="8">
         <v>475</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="8">
         <v>209</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H53" s="8">
         <v>151428</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I53" s="8">
         <v>29625</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J53" s="8">
         <v>3837</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K53" s="8">
         <v>1196</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="13">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="10">
         <v>19844</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E54" s="10">
         <v>2870</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F54" s="10">
         <v>478</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G54" s="10">
         <v>208</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H54" s="10">
         <v>150941</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I54" s="10">
         <v>29527</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J54" s="10">
         <v>3793</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K54" s="10">
         <v>1186</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="11">
         <v>2021</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="12">
         <v>19809</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="12">
         <v>2878</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="12">
         <v>478</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G55" s="12">
         <v>210</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H55" s="12">
         <v>150642</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I55" s="12">
         <v>29399</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J55" s="12">
         <v>3775</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K55" s="12">
         <v>1181</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="17">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C56" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D56" s="14">
         <v>19806</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E56" s="14">
         <v>2877</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F56" s="14">
         <v>477</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G56" s="14">
         <v>210</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H56" s="14">
         <v>150512</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I56" s="14">
         <v>29328</v>
       </c>
-      <c r="J55" s="18">
+      <c r="J56" s="14">
         <v>3753</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K56" s="14">
         <v>1181</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="11">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="7">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="8">
         <v>19746</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="8">
         <v>2866</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F57" s="8">
         <v>480</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="8">
         <v>208</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H57" s="8">
         <v>149978</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I57" s="8">
         <v>29202</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J57" s="8">
         <v>3724</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K57" s="8">
         <v>1177</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="13">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="10">
         <v>19711</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E58" s="10">
         <v>2853</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F58" s="10">
         <v>483</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="10">
         <v>207</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H58" s="10">
         <v>149557</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I58" s="10">
         <v>29064</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J58" s="10">
         <v>3720</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K58" s="10">
         <v>1169</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="11">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="7">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="8">
         <v>19666</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E59" s="8">
         <v>2846</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F59" s="8">
         <v>481</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="8">
         <v>209</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H59" s="8">
         <v>149333</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I59" s="8">
         <v>28918</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J59" s="8">
         <v>3682</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K59" s="8">
         <v>1165</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="13">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="10">
         <v>19641</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E60" s="10">
         <v>2841</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F60" s="10">
         <v>482</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="10">
         <v>209</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="10">
         <v>149165</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I60" s="10">
         <v>28805</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J60" s="10">
         <v>3675</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K60" s="10">
         <v>1160</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="11">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="7">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="8">
         <v>19637</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="8">
         <v>2839</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F61" s="8">
         <v>481</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="8">
         <v>209</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H61" s="8">
         <v>149034</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I61" s="8">
         <v>28738</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J61" s="8">
         <v>3651</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K61" s="8">
         <v>1156</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="13">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="10">
         <v>19635</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E62" s="10">
         <v>2839</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F62" s="10">
         <v>481</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="10">
         <v>208</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H62" s="10">
         <v>148936</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I62" s="10">
         <v>28662</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J62" s="10">
         <v>3641</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K62" s="10">
         <v>1154</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="11">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="7">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="8">
         <v>19634</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="8">
         <v>2839</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="8">
         <v>481</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="8">
         <v>207</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H63" s="8">
         <v>148915</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I63" s="8">
         <v>28646</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J63" s="8">
         <v>3645</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K63" s="8">
         <v>1152</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="13">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="10">
         <v>19634</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E64" s="10">
         <v>2839</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F64" s="10">
         <v>481</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="10">
         <v>207</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H64" s="10">
         <v>148909</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I64" s="10">
         <v>28641</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J64" s="10">
         <v>3645</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K64" s="10">
         <v>1151</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="11">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="7">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="8">
         <v>19633</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="8">
         <v>2839</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="8">
         <v>481</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="8">
         <v>207</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H65" s="8">
         <v>148896</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I65" s="8">
         <v>28639</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J65" s="8">
         <v>3647</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K65" s="8">
         <v>1150</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="13">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="10">
         <v>19600</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E66" s="10">
         <v>2827</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F66" s="10">
         <v>479</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G66" s="10">
         <v>207</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H66" s="10">
         <v>148599</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I66" s="10">
         <v>28517</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J66" s="10">
         <v>3624</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K66" s="10">
         <v>1150</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="11">
         <v>2020</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="12">
         <v>19541</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="12">
         <v>2817</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="12">
         <v>476</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G67" s="12">
         <v>207</v>
       </c>
-      <c r="H66" s="16">
+      <c r="H67" s="12">
         <v>148188</v>
       </c>
-      <c r="I66" s="16">
+      <c r="I67" s="12">
         <v>28401</v>
       </c>
-      <c r="J66" s="16">
+      <c r="J67" s="12">
         <v>3614</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K67" s="12">
         <v>1147</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="17">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C68" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D68" s="14">
         <v>19514</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E68" s="14">
         <v>2807</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F68" s="14">
         <v>477</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G68" s="14">
         <v>206</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H68" s="14">
         <v>147966</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I68" s="14">
         <v>28318</v>
       </c>
-      <c r="J67" s="18">
+      <c r="J68" s="14">
         <v>3601</v>
       </c>
-      <c r="K67" s="18">
+      <c r="K68" s="14">
         <v>1146</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="11">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="7">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="8">
         <v>19374</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="8">
         <v>2784</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F69" s="8">
         <v>474</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="8">
         <v>205</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H69" s="8">
         <v>147552</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I69" s="8">
         <v>28216</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J69" s="8">
         <v>3578</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K69" s="8">
         <v>1143</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="13">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="10">
         <v>19270</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E70" s="10">
         <v>2775</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F70" s="10">
         <v>473</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="10">
         <v>203</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H70" s="10">
         <v>147145</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I70" s="10">
         <v>28082</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J70" s="10">
         <v>3566</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K70" s="10">
         <v>1131</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="11">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="7">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="8">
         <v>18283</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E71" s="8">
         <v>2541</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="8">
         <v>429</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="8">
         <v>173</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H71" s="8">
         <v>135900</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I71" s="8">
         <v>26071</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J71" s="8">
         <v>3315</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K71" s="8">
         <v>1067</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="13">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="10">
         <v>18210</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E72" s="10">
         <v>2531</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F72" s="10">
         <v>428</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G72" s="10">
         <v>174</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H72" s="10">
         <v>135525</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I72" s="10">
         <v>25971</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J72" s="10">
         <v>3310</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K72" s="10">
         <v>1060</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="11">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="7">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="8">
         <v>18415</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="8">
         <v>2539</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F73" s="8">
         <v>433</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="8">
         <v>170</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H73" s="8">
         <v>135981</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I73" s="8">
         <v>25844</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J73" s="8">
         <v>3256</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K73" s="8">
         <v>1052</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="13">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="10">
         <v>18061</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E74" s="10">
         <v>2503</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F74" s="10">
         <v>431</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="10">
         <v>171</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H74" s="10">
         <v>134678</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I74" s="10">
         <v>25745</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J74" s="10">
         <v>3256</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K74" s="10">
         <v>1054</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="11">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="7">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="8">
         <v>17466</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E75" s="8">
         <v>2457</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F75" s="8">
         <v>414</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="8">
         <v>174</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H75" s="8">
         <v>124831</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I75" s="8">
         <v>25684</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J75" s="8">
         <v>3289</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K75" s="8">
         <v>1066</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="13">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="10">
         <v>17400</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E76" s="10">
         <v>2444</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F76" s="10">
         <v>408</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="10">
         <v>174</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H76" s="10">
         <v>124413</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I76" s="10">
         <v>25571</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J76" s="10">
         <v>3256</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K76" s="10">
         <v>1066</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="11">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="7">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="8">
         <v>17310</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E77" s="8">
         <v>2439</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F77" s="8">
         <v>406</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G77" s="8">
         <v>172</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H77" s="8">
         <v>124028</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I77" s="8">
         <v>25443</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J77" s="8">
         <v>3244</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K77" s="8">
         <v>1056</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="13">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="10">
         <v>17252</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E78" s="10">
         <v>2424</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F78" s="10">
         <v>401</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="10">
         <v>171</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H78" s="10">
         <v>123619</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I78" s="10">
         <v>25350</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J78" s="10">
         <v>3211</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K78" s="10">
         <v>1050</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="15">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="11">
         <v>2019</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="12">
         <v>17187</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="12">
         <v>2415</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="12">
         <v>397</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G79" s="12">
         <v>170</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H79" s="12">
         <v>123279</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I79" s="12">
         <v>25269</v>
       </c>
-      <c r="J78" s="16">
+      <c r="J79" s="12">
         <v>3198</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K79" s="12">
         <v>1045</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="13">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="9">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="10">
         <v>17176</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E80" s="10">
         <v>2409</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F80" s="10">
         <v>394</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="10">
         <v>170</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H80" s="10">
         <v>123073</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I80" s="10">
         <v>25189</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J80" s="10">
         <v>3183</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K80" s="10">
         <v>1042</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="11">
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="7">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="8">
         <v>17063</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="8">
         <v>2394</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F81" s="8">
         <v>392</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="8">
         <v>167</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H81" s="8">
         <v>122612</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I81" s="8">
         <v>25091</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J81" s="8">
         <v>3170</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K81" s="8">
         <v>1035</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="13">
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="9">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="10">
         <v>16927</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E82" s="10">
         <v>2392</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F82" s="10">
         <v>382</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="10">
         <v>168</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H82" s="10">
         <v>122104</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I82" s="10">
         <v>24950</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J82" s="10">
         <v>3156</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K82" s="10">
         <v>1026</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="11">
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="8">
         <v>16818</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E83" s="8">
         <v>2382</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F83" s="8">
         <v>382</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="8">
         <v>168</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H83" s="8">
         <v>121579</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I83" s="8">
         <v>24817</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J83" s="8">
         <v>3133</v>
       </c>
-      <c r="K82" s="12">
+      <c r="K83" s="8">
         <v>1019</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="13">
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="9">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="10">
         <v>16753</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E84" s="10">
         <v>2373</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F84" s="10">
         <v>373</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="10">
         <v>165</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H84" s="10">
         <v>121024</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I84" s="10">
         <v>24729</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J84" s="10">
         <v>3111</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K84" s="10">
         <v>1016</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="11">
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="8">
         <v>16665</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="8">
         <v>2355</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="8">
         <v>371</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="8">
         <v>165</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H85" s="8">
         <v>120510</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I85" s="8">
         <v>24592</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J85" s="8">
         <v>3094</v>
       </c>
-      <c r="K84" s="12">
+      <c r="K85" s="8">
         <v>1005</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="13">
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="10">
         <v>16612</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E86" s="10">
         <v>2334</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F86" s="10">
         <v>369</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="10">
         <v>168</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H86" s="10">
         <v>120020</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I86" s="10">
         <v>24500</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J86" s="10">
         <v>3076</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K86" s="10">
         <v>1003</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="11">
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="8">
         <v>16553</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E87" s="8">
         <v>2326</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F87" s="8">
         <v>368</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="8">
         <v>167</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H87" s="8">
         <v>119627</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I87" s="8">
         <v>24395</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J87" s="8">
         <v>3068</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K87" s="8">
         <v>998</v>
       </c>
     </row>
-    <row r="87" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="13">
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="10">
         <v>16474</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E88" s="10">
         <v>2306</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F88" s="10">
         <v>363</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="10">
         <v>166</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H88" s="10">
         <v>119076</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I88" s="10">
         <v>24234</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J88" s="10">
         <v>3031</v>
       </c>
-      <c r="K87" s="14">
+      <c r="K88" s="10">
         <v>994</v>
       </c>
     </row>
-    <row r="88" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="11">
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="8">
         <v>16403</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E89" s="8">
         <v>2307</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F89" s="8">
         <v>356</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="8">
         <v>164</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H89" s="8">
         <v>118573</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I89" s="8">
         <v>24067</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J89" s="8">
         <v>3016</v>
       </c>
-      <c r="K88" s="12">
+      <c r="K89" s="8">
         <v>982</v>
       </c>
     </row>
-    <row r="89" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="13">
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="9">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="10">
         <v>16312</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E90" s="10">
         <v>2280</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F90" s="10">
         <v>355</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G90" s="10">
         <v>163</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H90" s="10">
         <v>118068</v>
       </c>
-      <c r="I89" s="14">
+      <c r="I90" s="10">
         <v>23912</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J90" s="10">
         <v>3000</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K90" s="10">
         <v>971</v>
       </c>
     </row>
-    <row r="90" spans="2:11" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="11">
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="8">
         <v>16235</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E91" s="8">
         <v>2282</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F91" s="8">
         <v>350</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G91" s="8">
         <v>164</v>
       </c>
-      <c r="H90" s="12">
+      <c r="H91" s="8">
         <v>117820</v>
       </c>
-      <c r="I90" s="12">
+      <c r="I91" s="8">
         <v>23812</v>
       </c>
-      <c r="J90" s="12">
+      <c r="J91" s="8">
         <v>2985</v>
       </c>
-      <c r="K90" s="12">
+      <c r="K91" s="8">
         <v>967</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="2:11">
+      <c r="B92" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
+    <row r="93" spans="2:11">
+      <c r="B93" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="K93" s="6"/>
+    <row r="94" spans="2:11">
+      <c r="K94" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368CA3D0-15CC-4F74-8A88-341E6B78EDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6A9CAC-FA07-4328-AB77-16741ED083FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>Empresas permisionarios de pasaje</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -334,18 +334,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -576,8 +576,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K91" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K92" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K92" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -823,7 +823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:M94"/>
+  <dimension ref="B2:M95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -855,2817 +855,2849 @@
     <row r="4" spans="2:13">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="2"/>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>2025</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8">
+        <v>22561</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3520</v>
+      </c>
+      <c r="F6" s="8">
+        <v>554</v>
+      </c>
+      <c r="G6" s="8">
+        <v>226</v>
+      </c>
+      <c r="H6" s="8">
+        <v>173913</v>
+      </c>
+      <c r="I6" s="8">
+        <v>36543</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4955</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>22503</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>3507</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>555</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>227</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H7" s="10">
         <v>173335</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I7" s="10">
         <v>36398</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J7" s="10">
         <v>4921</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K7" s="10">
         <v>1482</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="11">
+    <row r="8" spans="2:13">
+      <c r="B8" s="11">
         <v>2025</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12">
         <v>22455</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <v>3502</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F8" s="12">
         <v>555</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="12">
         <v>228</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H8" s="12">
         <v>172885</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I8" s="12">
         <v>36217</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J8" s="12">
         <v>4897</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K8" s="12">
         <v>1474</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="9">
+    <row r="9" spans="2:13">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="10">
         <v>22428</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="10">
         <v>3496</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>554</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G9" s="10">
         <v>227</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H9" s="10">
         <v>172611</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I9" s="10">
         <v>36098</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J9" s="10">
         <v>4868</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K9" s="10">
         <v>1468</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="7">
+    <row r="10" spans="2:13">
+      <c r="B10" s="7">
         <v>2024</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>22336</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>3475</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>549</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>225</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="8">
         <v>172070</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <v>35927</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J10" s="8">
         <v>4832</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K10" s="8">
         <v>1464</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="9">
+    <row r="11" spans="2:13">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>22266</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <v>3453</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <v>553</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G11" s="10">
         <v>222</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H11" s="10">
         <v>171475</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I11" s="10">
         <v>35741</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J11" s="10">
         <v>4799</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K11" s="10">
         <v>1462</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="7">
+    <row r="12" spans="2:13">
+      <c r="B12" s="7">
         <v>2024</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>22164</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>3444</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="8">
         <v>550</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <v>222</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <v>170782</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <v>35496</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J12" s="8">
         <v>4768</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K12" s="8">
         <v>1447</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="9">
+    <row r="13" spans="2:13">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>22054</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>3448</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>545</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G13" s="10">
         <v>221</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H13" s="10">
         <v>170125</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I13" s="10">
         <v>35287</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J13" s="10">
         <v>4743</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K13" s="10">
         <v>1439</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="7">
+    <row r="14" spans="2:13">
+      <c r="B14" s="7">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>21977</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>3439</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>539</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>222</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>169471</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <v>35095</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J14" s="8">
         <v>4695</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K14" s="8">
         <v>1433</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="9">
+    <row r="15" spans="2:13">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>21900</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <v>3414</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>541</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G15" s="10">
         <v>222</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H15" s="10">
         <v>168764</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I15" s="10">
         <v>34901</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J15" s="10">
         <v>4637</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K15" s="10">
         <v>1428</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="7">
+    <row r="16" spans="2:13">
+      <c r="B16" s="7">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>21844</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>3399</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>540</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>221</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <v>167901</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <v>34526</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J16" s="8">
         <v>4584</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K16" s="8">
         <v>1400</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="9">
+    <row r="17" spans="2:11">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <v>21782</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>3381</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>537</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="10">
         <v>221</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H17" s="10">
         <v>167537</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I17" s="10">
         <v>34455</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J17" s="10">
         <v>4564</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K17" s="10">
         <v>1401</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="7">
+    <row r="18" spans="2:11">
+      <c r="B18" s="7">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>21711</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>3370</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>537</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>216</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>166979</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>34249</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J18" s="8">
         <v>4522</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K18" s="8">
         <v>1391</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="9">
+    <row r="19" spans="2:11">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>21675</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <v>3345</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>538</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G19" s="10">
         <v>215</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H19" s="10">
         <v>166478</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I19" s="10">
         <v>34057</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J19" s="10">
         <v>4499</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K19" s="10">
         <v>1379</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="11">
+    <row r="20" spans="2:11">
+      <c r="B20" s="11">
         <v>2024</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>21635</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>3332</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="12">
         <v>535</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="12">
         <v>212</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H20" s="12">
         <v>166076</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I20" s="12">
         <v>33897</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J20" s="12">
         <v>4471</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K20" s="12">
         <v>1371</v>
       </c>
     </row>
-    <row r="20" spans="2:11" hidden="1">
-      <c r="B20" s="13">
+    <row r="21" spans="2:11" hidden="1">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="14">
         <v>21607</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E21" s="14">
         <v>3331</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F21" s="14">
         <v>527</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="14">
         <v>213</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H21" s="14">
         <v>165843</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I21" s="14">
         <v>33744</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="14">
         <v>4441</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K21" s="14">
         <v>1370</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1">
-      <c r="B21" s="7">
+    <row r="22" spans="2:11" hidden="1">
+      <c r="B22" s="7">
         <v>2023</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>21539</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>3304</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>524</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>215</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>165469</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22" s="8">
         <v>33558</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="8">
         <v>4409</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K22" s="8">
         <v>1361</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1">
-      <c r="B22" s="9">
+    <row r="23" spans="2:11" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>21461</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>3281</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>527</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>213</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H23" s="10">
         <v>164931</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I23" s="10">
         <v>33376</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J23" s="10">
         <v>4381</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K23" s="10">
         <v>1353</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1">
-      <c r="B23" s="7">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="7">
         <v>2023</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <v>21397</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>3274</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>524</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>214</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24" s="8">
         <v>164459</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I24" s="8">
         <v>33219</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24" s="8">
         <v>4371</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K24" s="8">
         <v>1339</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="9">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>21333</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="10">
         <v>3249</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>520</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>213</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H25" s="10">
         <v>164018</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I25" s="10">
         <v>33086</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J25" s="10">
         <v>4345</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K25" s="10">
         <v>1335</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="7">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="7">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>21275</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>3244</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>515</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>214</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <v>163591</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I26" s="8">
         <v>32899</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J26" s="8">
         <v>4314</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K26" s="8">
         <v>1333</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>21204</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>3230</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>515</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>213</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H27" s="10">
         <v>163109</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I27" s="10">
         <v>32765</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J27" s="10">
         <v>4282</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K27" s="10">
         <v>1324</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="7">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="7">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>21106</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>3207</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>515</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>214</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>162727</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="8">
         <v>32622</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28" s="8">
         <v>4264</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K28" s="8">
         <v>1317</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <v>21068</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>3196</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>508</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G29" s="10">
         <v>215</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H29" s="10">
         <v>162289</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I29" s="10">
         <v>32483</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J29" s="10">
         <v>4234</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K29" s="10">
         <v>1308</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="7">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="7">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>21005</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>3186</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>509</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>213</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>161844</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I30" s="8">
         <v>32370</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J30" s="8">
         <v>4232</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K30" s="8">
         <v>1304</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>20929</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>3165</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>506</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <v>212</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H31" s="10">
         <v>161330</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I31" s="10">
         <v>32261</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J31" s="10">
         <v>4201</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K31" s="10">
         <v>1299</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="11">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="11">
         <v>2023</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <v>20899</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E32" s="12">
         <v>3142</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F32" s="12">
         <v>506</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <v>211</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H32" s="12">
         <v>161006</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I32" s="12">
         <v>32141</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J32" s="12">
         <v>4183</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K32" s="12">
         <v>1295</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="13">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <v>20835</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <v>3137</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F33" s="14">
         <v>506</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <v>209</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <v>160773</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="14">
         <v>32040</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J33" s="14">
         <v>4173</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K33" s="14">
         <v>1286</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="7">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="7">
         <v>2022</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>20752</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>3107</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <v>505</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <v>211</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H34" s="8">
         <v>160470</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I34" s="8">
         <v>31958</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J34" s="8">
         <v>4162</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K34" s="8">
         <v>1280</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <v>20711</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>3095</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>501</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>210</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H35" s="10">
         <v>160213</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I35" s="10">
         <v>31874</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J35" s="10">
         <v>4145</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K35" s="10">
         <v>1274</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="7">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="7">
         <v>2022</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <v>20657</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="8">
         <v>3083</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F36" s="8">
         <v>499</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G36" s="8">
         <v>209</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H36" s="8">
         <v>159867</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I36" s="8">
         <v>31794</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J36" s="8">
         <v>4135</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K36" s="8">
         <v>1270</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="9">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <v>20751</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <v>3106</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>501</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <v>211</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H37" s="10">
         <v>159400</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I37" s="10">
         <v>31688</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J37" s="10">
         <v>4111</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K37" s="10">
         <v>1260</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="7">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="7">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <v>20551</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>3046</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="8">
         <v>490</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <v>208</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H38" s="8">
         <v>158821</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I38" s="8">
         <v>31547</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J38" s="8">
         <v>4081</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K38" s="8">
         <v>1253</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <v>20522</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E39" s="10">
         <v>3038</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>490</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <v>207</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H39" s="10">
         <v>158518</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I39" s="10">
         <v>31468</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J39" s="10">
         <v>4073</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K39" s="10">
         <v>1251</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="7">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="7">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>20484</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="8">
         <v>3026</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="8">
         <v>488</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <v>206</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H40" s="8">
         <v>158024</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I40" s="8">
         <v>31395</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J40" s="8">
         <v>4062</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K40" s="8">
         <v>1250</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <v>20432</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <v>3010</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>487</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <v>206</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H41" s="10">
         <v>157470</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I41" s="10">
         <v>31286</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J41" s="10">
         <v>4046</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K41" s="10">
         <v>1244</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="7">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="7">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>20400</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E42" s="8">
         <v>3000</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F42" s="8">
         <v>487</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <v>207</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H42" s="8">
         <v>156952</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I42" s="8">
         <v>31147</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J42" s="8">
         <v>4034</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K42" s="8">
         <v>1237</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D43" s="10">
         <v>20318</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>2994</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <v>489</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G43" s="10">
         <v>204</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H43" s="10">
         <v>156255</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I43" s="10">
         <v>31032</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J43" s="10">
         <v>4013</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K43" s="10">
         <v>1234</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="11">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="11">
         <v>2022</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <v>20280</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>2988</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F44" s="12">
         <v>491</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G44" s="12">
         <v>203</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H44" s="12">
         <v>155756</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I44" s="12">
         <v>30919</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J44" s="12">
         <v>4015</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K44" s="12">
         <v>1222</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="13">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <v>20263</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E45" s="14">
         <v>2989</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F45" s="14">
         <v>487</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>203</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H45" s="14">
         <v>155476</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I45" s="14">
         <v>30843</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J45" s="14">
         <v>4009</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K45" s="14">
         <v>1222</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="7">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="7">
         <v>2021</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>20206</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E46" s="8">
         <v>2973</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F46" s="8">
         <v>485</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="8">
         <v>203</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H46" s="8">
         <v>154922</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I46" s="8">
         <v>30721</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J46" s="8">
         <v>3992</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K46" s="8">
         <v>1216</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>20146</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>2967</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>483</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>203</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H47" s="10">
         <v>154593</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I47" s="10">
         <v>30634</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J47" s="10">
         <v>3971</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K47" s="10">
         <v>1218</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="7">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="7">
         <v>2021</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <v>20103</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E48" s="8">
         <v>2962</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F48" s="8">
         <v>483</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G48" s="8">
         <v>201</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H48" s="8">
         <v>154071</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I48" s="8">
         <v>30444</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J48" s="8">
         <v>3948</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K48" s="8">
         <v>1214</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="9">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D49" s="10">
         <v>20021</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E49" s="10">
         <v>2931</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="10">
         <v>477</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G49" s="10">
         <v>205</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H49" s="10">
         <v>153674</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I49" s="10">
         <v>30371</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J49" s="10">
         <v>3913</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K49" s="10">
         <v>1220</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="7">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="7">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <v>20037</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E50" s="8">
         <v>2938</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F50" s="8">
         <v>478</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G50" s="8">
         <v>205</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H50" s="8">
         <v>153148</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I50" s="8">
         <v>30163</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J50" s="8">
         <v>3889</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K50" s="8">
         <v>1215</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D51" s="10">
         <v>19989</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E51" s="10">
         <v>2916</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <v>479</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G51" s="10">
         <v>204</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H51" s="10">
         <v>152772</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I51" s="10">
         <v>30071</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J51" s="10">
         <v>3878</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K51" s="10">
         <v>1211</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="7">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="7">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <v>19946</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E52" s="8">
         <v>2902</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F52" s="8">
         <v>478</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="8">
         <v>204</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H52" s="8">
         <v>152274</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I52" s="8">
         <v>29923</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J52" s="8">
         <v>3848</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K52" s="8">
         <v>1208</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D53" s="10">
         <v>19923</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E53" s="10">
         <v>2897</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F53" s="10">
         <v>476</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G53" s="10">
         <v>205</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H53" s="10">
         <v>151877</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I53" s="10">
         <v>29764</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J53" s="10">
         <v>3855</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K53" s="10">
         <v>1197</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="7">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="7">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <v>19894</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E54" s="8">
         <v>2881</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F54" s="8">
         <v>475</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G54" s="8">
         <v>209</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H54" s="8">
         <v>151428</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I54" s="8">
         <v>29625</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J54" s="8">
         <v>3837</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K54" s="8">
         <v>1196</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D55" s="10">
         <v>19844</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E55" s="10">
         <v>2870</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>478</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G55" s="10">
         <v>208</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H55" s="10">
         <v>150941</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I55" s="10">
         <v>29527</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J55" s="10">
         <v>3793</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K55" s="10">
         <v>1186</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="11">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="11">
         <v>2021</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <v>19809</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E56" s="12">
         <v>2878</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F56" s="12">
         <v>478</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G56" s="12">
         <v>210</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H56" s="12">
         <v>150642</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I56" s="12">
         <v>29399</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J56" s="12">
         <v>3775</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K56" s="12">
         <v>1181</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="13">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <v>19806</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E57" s="14">
         <v>2877</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F57" s="14">
         <v>477</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="14">
         <v>210</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H57" s="14">
         <v>150512</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I57" s="14">
         <v>29328</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J57" s="14">
         <v>3753</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K57" s="14">
         <v>1181</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="7">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="7">
         <v>2020</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <v>19746</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="8">
         <v>2866</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F58" s="8">
         <v>480</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="8">
         <v>208</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H58" s="8">
         <v>149978</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I58" s="8">
         <v>29202</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J58" s="8">
         <v>3724</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K58" s="8">
         <v>1177</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <v>19711</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>2853</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>483</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>207</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H59" s="10">
         <v>149557</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I59" s="10">
         <v>29064</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J59" s="10">
         <v>3720</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K59" s="10">
         <v>1169</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="7">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="7">
         <v>2020</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="8">
         <v>19666</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E60" s="8">
         <v>2846</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F60" s="8">
         <v>481</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G60" s="8">
         <v>209</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H60" s="8">
         <v>149333</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I60" s="8">
         <v>28918</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J60" s="8">
         <v>3682</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K60" s="8">
         <v>1165</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="9">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D61" s="10">
         <v>19641</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E61" s="10">
         <v>2841</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>482</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G61" s="10">
         <v>209</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H61" s="10">
         <v>149165</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I61" s="10">
         <v>28805</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J61" s="10">
         <v>3675</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K61" s="10">
         <v>1160</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="7">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="7">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <v>19637</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <v>2839</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F62" s="8">
         <v>481</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="8">
         <v>209</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H62" s="8">
         <v>149034</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I62" s="8">
         <v>28738</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J62" s="8">
         <v>3651</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K62" s="8">
         <v>1156</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <v>19635</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E63" s="10">
         <v>2839</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>481</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>208</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H63" s="10">
         <v>148936</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I63" s="10">
         <v>28662</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J63" s="10">
         <v>3641</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K63" s="10">
         <v>1154</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="7">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="7">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <v>19634</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="8">
         <v>2839</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F64" s="8">
         <v>481</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="8">
         <v>207</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H64" s="8">
         <v>148915</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I64" s="8">
         <v>28646</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J64" s="8">
         <v>3645</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K64" s="8">
         <v>1152</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <v>19634</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E65" s="10">
         <v>2839</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <v>481</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G65" s="10">
         <v>207</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H65" s="10">
         <v>148909</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I65" s="10">
         <v>28641</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J65" s="10">
         <v>3645</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K65" s="10">
         <v>1151</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="7">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="7">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <v>19633</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E66" s="8">
         <v>2839</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F66" s="8">
         <v>481</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G66" s="8">
         <v>207</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H66" s="8">
         <v>148896</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I66" s="8">
         <v>28639</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J66" s="8">
         <v>3647</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K66" s="8">
         <v>1150</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <v>19600</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E67" s="10">
         <v>2827</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>479</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G67" s="10">
         <v>207</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H67" s="10">
         <v>148599</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I67" s="10">
         <v>28517</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J67" s="10">
         <v>3624</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K67" s="10">
         <v>1150</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="11">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="11">
         <v>2020</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <v>19541</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E68" s="12">
         <v>2817</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F68" s="12">
         <v>476</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G68" s="12">
         <v>207</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H68" s="12">
         <v>148188</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I68" s="12">
         <v>28401</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J68" s="12">
         <v>3614</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K68" s="12">
         <v>1147</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="13">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <v>19514</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="14">
         <v>2807</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F69" s="14">
         <v>477</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <v>206</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H69" s="14">
         <v>147966</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I69" s="14">
         <v>28318</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J69" s="14">
         <v>3601</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K69" s="14">
         <v>1146</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="7">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="7">
         <v>2019</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <v>19374</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E70" s="8">
         <v>2784</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F70" s="8">
         <v>474</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="8">
         <v>205</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H70" s="8">
         <v>147552</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I70" s="8">
         <v>28216</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J70" s="8">
         <v>3578</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K70" s="8">
         <v>1143</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>19270</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>2775</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>473</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>203</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H71" s="10">
         <v>147145</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I71" s="10">
         <v>28082</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J71" s="10">
         <v>3566</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K71" s="10">
         <v>1131</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="7">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="7">
         <v>2019</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="8">
         <v>18283</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E72" s="8">
         <v>2541</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F72" s="8">
         <v>429</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G72" s="8">
         <v>173</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H72" s="8">
         <v>135900</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I72" s="8">
         <v>26071</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J72" s="8">
         <v>3315</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K72" s="8">
         <v>1067</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="9">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <v>18210</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E73" s="10">
         <v>2531</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>428</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G73" s="10">
         <v>174</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H73" s="10">
         <v>135525</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I73" s="10">
         <v>25971</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J73" s="10">
         <v>3310</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K73" s="10">
         <v>1060</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="7">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="7">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <v>18415</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>2539</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F74" s="8">
         <v>433</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <v>170</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H74" s="8">
         <v>135981</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I74" s="8">
         <v>25844</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J74" s="8">
         <v>3256</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K74" s="8">
         <v>1052</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <v>18061</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E75" s="10">
         <v>2503</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>431</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G75" s="10">
         <v>171</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H75" s="10">
         <v>134678</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I75" s="10">
         <v>25745</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J75" s="10">
         <v>3256</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K75" s="10">
         <v>1054</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="7">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="7">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>17466</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E76" s="8">
         <v>2457</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F76" s="8">
         <v>414</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="8">
         <v>174</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H76" s="8">
         <v>124831</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I76" s="8">
         <v>25684</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J76" s="8">
         <v>3289</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K76" s="8">
         <v>1066</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <v>17400</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E77" s="10">
         <v>2444</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <v>408</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G77" s="10">
         <v>174</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H77" s="10">
         <v>124413</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I77" s="10">
         <v>25571</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J77" s="10">
         <v>3256</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K77" s="10">
         <v>1066</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="7">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="7">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <v>17310</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="8">
         <v>2439</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F78" s="8">
         <v>406</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G78" s="8">
         <v>172</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H78" s="8">
         <v>124028</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I78" s="8">
         <v>25443</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J78" s="8">
         <v>3244</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K78" s="8">
         <v>1056</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D79" s="10">
         <v>17252</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>2424</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>401</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G79" s="10">
         <v>171</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H79" s="10">
         <v>123619</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I79" s="10">
         <v>25350</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J79" s="10">
         <v>3211</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K79" s="10">
         <v>1050</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="11">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="11">
         <v>2019</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <v>17187</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E80" s="12">
         <v>2415</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F80" s="12">
         <v>397</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G80" s="12">
         <v>170</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H80" s="12">
         <v>123279</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I80" s="12">
         <v>25269</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J80" s="12">
         <v>3198</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K80" s="12">
         <v>1045</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="9">
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="9">
         <v>2018</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D81" s="10">
         <v>17176</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E81" s="10">
         <v>2409</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <v>394</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G81" s="10">
         <v>170</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H81" s="10">
         <v>123073</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I81" s="10">
         <v>25189</v>
       </c>
-      <c r="J80" s="10">
+      <c r="J81" s="10">
         <v>3183</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K81" s="10">
         <v>1042</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="7">
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="7">
         <v>2018</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <v>17063</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="8">
         <v>2394</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F82" s="8">
         <v>392</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="8">
         <v>167</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H82" s="8">
         <v>122612</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I82" s="8">
         <v>25091</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J82" s="8">
         <v>3170</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K82" s="8">
         <v>1035</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="9">
         <v>2018</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <v>16927</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E83" s="10">
         <v>2392</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>382</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>168</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H83" s="10">
         <v>122104</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I83" s="10">
         <v>24950</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J83" s="10">
         <v>3156</v>
       </c>
-      <c r="K82" s="10">
+      <c r="K83" s="10">
         <v>1026</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="7">
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="7">
         <v>2018</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <v>16818</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E84" s="8">
         <v>2382</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F84" s="8">
         <v>382</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G84" s="8">
         <v>168</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H84" s="8">
         <v>121579</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I84" s="8">
         <v>24817</v>
       </c>
-      <c r="J83" s="8">
+      <c r="J84" s="8">
         <v>3133</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K84" s="8">
         <v>1019</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1">
-      <c r="B84" s="9">
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D85" s="10">
         <v>16753</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E85" s="10">
         <v>2373</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>373</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G85" s="10">
         <v>165</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H85" s="10">
         <v>121024</v>
       </c>
-      <c r="I84" s="10">
+      <c r="I85" s="10">
         <v>24729</v>
       </c>
-      <c r="J84" s="10">
+      <c r="J85" s="10">
         <v>3111</v>
       </c>
-      <c r="K84" s="10">
+      <c r="K85" s="10">
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1">
-      <c r="B85" s="7">
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <v>16665</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E86" s="8">
         <v>2355</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F86" s="8">
         <v>371</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="8">
         <v>165</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H86" s="8">
         <v>120510</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I86" s="8">
         <v>24592</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J86" s="8">
         <v>3094</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K86" s="8">
         <v>1005</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1">
-      <c r="B86" s="9">
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D87" s="10">
         <v>16612</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E87" s="10">
         <v>2334</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <v>369</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G87" s="10">
         <v>168</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H87" s="10">
         <v>120020</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I87" s="10">
         <v>24500</v>
       </c>
-      <c r="J86" s="10">
+      <c r="J87" s="10">
         <v>3076</v>
       </c>
-      <c r="K86" s="10">
+      <c r="K87" s="10">
         <v>1003</v>
       </c>
     </row>
-    <row r="87" spans="2:11" hidden="1">
-      <c r="B87" s="7">
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <v>16553</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E88" s="8">
         <v>2326</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F88" s="8">
         <v>368</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G88" s="8">
         <v>167</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H88" s="8">
         <v>119627</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I88" s="8">
         <v>24395</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J88" s="8">
         <v>3068</v>
       </c>
-      <c r="K87" s="8">
+      <c r="K88" s="8">
         <v>998</v>
       </c>
     </row>
-    <row r="88" spans="2:11" hidden="1">
-      <c r="B88" s="9">
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <v>16474</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E89" s="10">
         <v>2306</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F89" s="10">
         <v>363</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G89" s="10">
         <v>166</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H89" s="10">
         <v>119076</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I89" s="10">
         <v>24234</v>
       </c>
-      <c r="J88" s="10">
+      <c r="J89" s="10">
         <v>3031</v>
       </c>
-      <c r="K88" s="10">
+      <c r="K89" s="10">
         <v>994</v>
       </c>
     </row>
-    <row r="89" spans="2:11" hidden="1">
-      <c r="B89" s="7">
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <v>16403</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E90" s="8">
         <v>2307</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F90" s="8">
         <v>356</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G90" s="8">
         <v>164</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H90" s="8">
         <v>118573</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I90" s="8">
         <v>24067</v>
       </c>
-      <c r="J89" s="8">
+      <c r="J90" s="8">
         <v>3016</v>
       </c>
-      <c r="K89" s="8">
+      <c r="K90" s="8">
         <v>982</v>
       </c>
     </row>
-    <row r="90" spans="2:11" hidden="1">
-      <c r="B90" s="9">
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="9">
         <v>2018</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D91" s="10">
         <v>16312</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E91" s="10">
         <v>2280</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F91" s="10">
         <v>355</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G91" s="10">
         <v>163</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H91" s="10">
         <v>118068</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I91" s="10">
         <v>23912</v>
       </c>
-      <c r="J90" s="10">
+      <c r="J91" s="10">
         <v>3000</v>
       </c>
-      <c r="K90" s="10">
+      <c r="K91" s="10">
         <v>971</v>
       </c>
     </row>
-    <row r="91" spans="2:11" hidden="1">
-      <c r="B91" s="7">
+    <row r="92" spans="2:11" hidden="1">
+      <c r="B92" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <v>16235</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E92" s="8">
         <v>2282</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F92" s="8">
         <v>350</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G92" s="8">
         <v>164</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H92" s="8">
         <v>117820</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I92" s="8">
         <v>23812</v>
       </c>
-      <c r="J91" s="8">
+      <c r="J92" s="8">
         <v>2985</v>
       </c>
-      <c r="K91" s="8">
+      <c r="K92" s="8">
         <v>967</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="93" spans="2:11">
       <c r="B93" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
-      <c r="K94" s="6"/>
+    <row r="95" spans="2:11">
+      <c r="K95" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6A9CAC-FA07-4328-AB77-16741ED083FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7CDE13-4F83-41B2-95BF-E06BD229BBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
   <si>
     <t>Empresas permisionarios de pasaje</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K92" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K92" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K93" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K93" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -823,7 +823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:M95"/>
+  <dimension ref="B2:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -903,2801 +903,2833 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10">
+        <v>22639</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3528</v>
+      </c>
+      <c r="F6" s="10">
+        <v>553</v>
+      </c>
+      <c r="G6" s="10">
+        <v>226</v>
+      </c>
+      <c r="H6" s="10">
+        <v>174556</v>
+      </c>
+      <c r="I6" s="10">
+        <v>36699</v>
+      </c>
+      <c r="J6" s="10">
+        <v>4986</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>22561</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>3520</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F7" s="8">
         <v>554</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="8">
         <v>226</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7" s="8">
         <v>173913</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="8">
         <v>36543</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="8">
         <v>4955</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K7" s="8">
         <v>1488</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="9">
+    <row r="8" spans="2:13">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>22503</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>3507</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>555</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>227</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H8" s="10">
         <v>173335</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I8" s="10">
         <v>36398</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J8" s="10">
         <v>4921</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K8" s="10">
         <v>1482</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="11">
+    <row r="9" spans="2:13">
+      <c r="B9" s="11">
         <v>2025</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>22455</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <v>3502</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="12">
         <v>555</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>228</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="12">
         <v>172885</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="12">
         <v>36217</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J9" s="12">
         <v>4897</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K9" s="12">
         <v>1474</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="9">
+    <row r="10" spans="2:13">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <v>22428</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>3496</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <v>554</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>227</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H10" s="10">
         <v>172611</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="10">
         <v>36098</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J10" s="10">
         <v>4868</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K10" s="10">
         <v>1468</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="7">
+    <row r="11" spans="2:13">
+      <c r="B11" s="7">
         <v>2024</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>22336</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>3475</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="8">
         <v>549</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <v>225</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="8">
         <v>172070</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="8">
         <v>35927</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J11" s="8">
         <v>4832</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K11" s="8">
         <v>1464</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="9">
+    <row r="12" spans="2:13">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>22266</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>3453</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>553</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>222</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H12" s="10">
         <v>171475</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I12" s="10">
         <v>35741</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J12" s="10">
         <v>4799</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K12" s="10">
         <v>1462</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="7">
+    <row r="13" spans="2:13">
+      <c r="B13" s="7">
         <v>2024</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>22164</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>3444</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="8">
         <v>550</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <v>222</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="8">
         <v>170782</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="8">
         <v>35496</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J13" s="8">
         <v>4768</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K13" s="8">
         <v>1447</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="9">
+    <row r="14" spans="2:13">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>22054</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <v>3448</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <v>545</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>221</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H14" s="10">
         <v>170125</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I14" s="10">
         <v>35287</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J14" s="10">
         <v>4743</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K14" s="10">
         <v>1439</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="7">
+    <row r="15" spans="2:13">
+      <c r="B15" s="7">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>21977</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>3439</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <v>539</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <v>222</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="8">
         <v>169471</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <v>35095</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J15" s="8">
         <v>4695</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K15" s="8">
         <v>1433</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="9">
+    <row r="16" spans="2:13">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="10">
         <v>21900</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="10">
         <v>3414</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <v>541</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>222</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H16" s="10">
         <v>168764</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I16" s="10">
         <v>34901</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J16" s="10">
         <v>4637</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K16" s="10">
         <v>1428</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="7">
+    <row r="17" spans="2:11">
+      <c r="B17" s="7">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>21844</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>3399</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>540</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>221</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>167901</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <v>34526</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J17" s="8">
         <v>4584</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K17" s="8">
         <v>1400</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="9">
+    <row r="18" spans="2:11">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="10">
         <v>21782</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="10">
         <v>3381</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>537</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>221</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H18" s="10">
         <v>167537</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I18" s="10">
         <v>34455</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J18" s="10">
         <v>4564</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K18" s="10">
         <v>1401</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="7">
+    <row r="19" spans="2:11">
+      <c r="B19" s="7">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>21711</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>3370</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>537</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>216</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>166979</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I19" s="8">
         <v>34249</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J19" s="8">
         <v>4522</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K19" s="8">
         <v>1391</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="9">
+    <row r="20" spans="2:11">
+      <c r="B20" s="9">
         <v>2024</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>21675</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>3345</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>538</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>215</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H20" s="10">
         <v>166478</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I20" s="10">
         <v>34057</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J20" s="10">
         <v>4499</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K20" s="10">
         <v>1379</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="11">
+    <row r="21" spans="2:11">
+      <c r="B21" s="11">
         <v>2024</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <v>21635</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>3332</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <v>535</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="12">
         <v>212</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H21" s="12">
         <v>166076</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I21" s="12">
         <v>33897</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J21" s="12">
         <v>4471</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K21" s="12">
         <v>1371</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1">
-      <c r="B21" s="13">
+    <row r="22" spans="2:11" hidden="1">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <v>21607</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>3331</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F22" s="14">
         <v>527</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="14">
         <v>213</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H22" s="14">
         <v>165843</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I22" s="14">
         <v>33744</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="14">
         <v>4441</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K22" s="14">
         <v>1370</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1">
-      <c r="B22" s="7">
+    <row r="23" spans="2:11" hidden="1">
+      <c r="B23" s="7">
         <v>2023</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>21539</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>3304</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="8">
         <v>524</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>215</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="8">
         <v>165469</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I23" s="8">
         <v>33558</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J23" s="8">
         <v>4409</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K23" s="8">
         <v>1361</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1">
-      <c r="B23" s="9">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>21461</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>3281</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>527</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>213</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H24" s="10">
         <v>164931</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I24" s="10">
         <v>33376</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J24" s="10">
         <v>4381</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K24" s="10">
         <v>1353</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="7">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="7">
         <v>2023</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <v>21397</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <v>3274</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="8">
         <v>524</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <v>214</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>164459</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I25" s="8">
         <v>33219</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J25" s="8">
         <v>4371</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K25" s="8">
         <v>1339</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>21333</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>3249</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F26" s="10">
         <v>520</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G26" s="10">
         <v>213</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H26" s="10">
         <v>164018</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I26" s="10">
         <v>33086</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J26" s="10">
         <v>4345</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K26" s="10">
         <v>1335</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="7">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="7">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>21275</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>3244</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="8">
         <v>515</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <v>214</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <v>163591</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I27" s="8">
         <v>32899</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="8">
         <v>4314</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K27" s="8">
         <v>1333</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>21204</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>3230</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>515</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <v>213</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H28" s="10">
         <v>163109</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I28" s="10">
         <v>32765</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J28" s="10">
         <v>4282</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K28" s="10">
         <v>1324</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="7">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="7">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>21106</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>3207</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F29" s="8">
         <v>515</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="8">
         <v>214</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="8">
         <v>162727</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I29" s="8">
         <v>32622</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J29" s="8">
         <v>4264</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K29" s="8">
         <v>1317</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D30" s="10">
         <v>21068</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E30" s="10">
         <v>3196</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <v>508</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <v>215</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H30" s="10">
         <v>162289</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I30" s="10">
         <v>32483</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J30" s="10">
         <v>4234</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K30" s="10">
         <v>1308</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="7">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="7">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>21005</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>3186</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>509</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <v>213</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="8">
         <v>161844</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I31" s="8">
         <v>32370</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J31" s="8">
         <v>4232</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K31" s="8">
         <v>1304</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="9">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="9">
         <v>2023</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <v>20929</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <v>3165</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>506</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>212</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H32" s="10">
         <v>161330</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I32" s="10">
         <v>32261</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J32" s="10">
         <v>4201</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K32" s="10">
         <v>1299</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="11">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="11">
         <v>2023</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <v>20899</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="12">
         <v>3142</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F33" s="12">
         <v>506</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G33" s="12">
         <v>211</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H33" s="12">
         <v>161006</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I33" s="12">
         <v>32141</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J33" s="12">
         <v>4183</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K33" s="12">
         <v>1295</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="13">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <v>20835</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E34" s="14">
         <v>3137</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F34" s="14">
         <v>506</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="14">
         <v>209</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="14">
         <v>160773</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I34" s="14">
         <v>32040</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J34" s="14">
         <v>4173</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K34" s="14">
         <v>1286</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="7">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="7">
         <v>2022</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <v>20752</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <v>3107</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F35" s="8">
         <v>505</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <v>211</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H35" s="8">
         <v>160470</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I35" s="8">
         <v>31958</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J35" s="8">
         <v>4162</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K35" s="8">
         <v>1280</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="9">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>20711</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>3095</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>501</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>210</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="10">
         <v>160213</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I36" s="10">
         <v>31874</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J36" s="10">
         <v>4145</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K36" s="10">
         <v>1274</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="7">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="7">
         <v>2022</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D37" s="8">
         <v>20657</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E37" s="8">
         <v>3083</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F37" s="8">
         <v>499</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G37" s="8">
         <v>209</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H37" s="8">
         <v>159867</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I37" s="8">
         <v>31794</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J37" s="8">
         <v>4135</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K37" s="8">
         <v>1270</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <v>20751</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <v>3106</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F38" s="10">
         <v>501</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>211</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H38" s="10">
         <v>159400</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I38" s="10">
         <v>31688</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J38" s="10">
         <v>4111</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K38" s="10">
         <v>1260</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="7">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="7">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>20551</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>3046</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="8">
         <v>490</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <v>208</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H39" s="8">
         <v>158821</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I39" s="8">
         <v>31547</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J39" s="8">
         <v>4081</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K39" s="8">
         <v>1253</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <v>20522</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <v>3038</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>490</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>207</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H40" s="10">
         <v>158518</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I40" s="10">
         <v>31468</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J40" s="10">
         <v>4073</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K40" s="10">
         <v>1251</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="7">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="7">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <v>20484</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E41" s="8">
         <v>3026</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F41" s="8">
         <v>488</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="8">
         <v>206</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H41" s="8">
         <v>158024</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I41" s="8">
         <v>31395</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J41" s="8">
         <v>4062</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K41" s="8">
         <v>1250</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D42" s="10">
         <v>20432</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <v>3010</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>487</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>206</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H42" s="10">
         <v>157470</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I42" s="10">
         <v>31286</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J42" s="10">
         <v>4046</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K42" s="10">
         <v>1244</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="7">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="7">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>20400</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="8">
         <v>3000</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F43" s="8">
         <v>487</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G43" s="8">
         <v>207</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H43" s="8">
         <v>156952</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I43" s="8">
         <v>31147</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J43" s="8">
         <v>4034</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K43" s="8">
         <v>1237</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="9">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="9">
         <v>2022</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D44" s="10">
         <v>20318</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>2994</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>489</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>204</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H44" s="10">
         <v>156255</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I44" s="10">
         <v>31032</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J44" s="10">
         <v>4013</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K44" s="10">
         <v>1234</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="11">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="11">
         <v>2022</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <v>20280</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E45" s="12">
         <v>2988</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F45" s="12">
         <v>491</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="12">
         <v>203</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H45" s="12">
         <v>155756</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I45" s="12">
         <v>30919</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J45" s="12">
         <v>4015</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K45" s="12">
         <v>1222</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="13">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <v>20263</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E46" s="14">
         <v>2989</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F46" s="14">
         <v>487</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <v>203</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H46" s="14">
         <v>155476</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I46" s="14">
         <v>30843</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J46" s="14">
         <v>4009</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K46" s="14">
         <v>1222</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="7">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="7">
         <v>2021</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <v>20206</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E47" s="8">
         <v>2973</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F47" s="8">
         <v>485</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G47" s="8">
         <v>203</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H47" s="8">
         <v>154922</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I47" s="8">
         <v>30721</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J47" s="8">
         <v>3992</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K47" s="8">
         <v>1216</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="9">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D48" s="10">
         <v>20146</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E48" s="10">
         <v>2967</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>483</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>203</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H48" s="10">
         <v>154593</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I48" s="10">
         <v>30634</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J48" s="10">
         <v>3971</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K48" s="10">
         <v>1218</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="7">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="7">
         <v>2021</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D49" s="8">
         <v>20103</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E49" s="8">
         <v>2962</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F49" s="8">
         <v>483</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G49" s="8">
         <v>201</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H49" s="8">
         <v>154071</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I49" s="8">
         <v>30444</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J49" s="8">
         <v>3948</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K49" s="8">
         <v>1214</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <v>20021</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <v>2931</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>477</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>205</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H50" s="10">
         <v>153674</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I50" s="10">
         <v>30371</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J50" s="10">
         <v>3913</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K50" s="10">
         <v>1220</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="7">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="7">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <v>20037</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E51" s="8">
         <v>2938</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F51" s="8">
         <v>478</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="8">
         <v>205</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H51" s="8">
         <v>153148</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I51" s="8">
         <v>30163</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J51" s="8">
         <v>3889</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K51" s="8">
         <v>1215</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="10">
         <v>19989</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E52" s="10">
         <v>2916</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F52" s="10">
         <v>479</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G52" s="10">
         <v>204</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H52" s="10">
         <v>152772</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I52" s="10">
         <v>30071</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J52" s="10">
         <v>3878</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K52" s="10">
         <v>1211</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="7">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="7">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <v>19946</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E53" s="8">
         <v>2902</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F53" s="8">
         <v>478</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G53" s="8">
         <v>204</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H53" s="8">
         <v>152274</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I53" s="8">
         <v>29923</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J53" s="8">
         <v>3848</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K53" s="8">
         <v>1208</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="10">
         <v>19923</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E54" s="10">
         <v>2897</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F54" s="10">
         <v>476</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G54" s="10">
         <v>205</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H54" s="10">
         <v>151877</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I54" s="10">
         <v>29764</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J54" s="10">
         <v>3855</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K54" s="10">
         <v>1197</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="7">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="7">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <v>19894</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E55" s="8">
         <v>2881</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F55" s="8">
         <v>475</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G55" s="8">
         <v>209</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H55" s="8">
         <v>151428</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I55" s="8">
         <v>29625</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J55" s="8">
         <v>3837</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K55" s="8">
         <v>1196</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="9">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="9">
         <v>2021</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <v>19844</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E56" s="10">
         <v>2870</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>478</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>208</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H56" s="10">
         <v>150941</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I56" s="10">
         <v>29527</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J56" s="10">
         <v>3793</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K56" s="10">
         <v>1186</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="11">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="11">
         <v>2021</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="12">
         <v>19809</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E57" s="12">
         <v>2878</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F57" s="12">
         <v>478</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="12">
         <v>210</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H57" s="12">
         <v>150642</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I57" s="12">
         <v>29399</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J57" s="12">
         <v>3775</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K57" s="12">
         <v>1181</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="13">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <v>19806</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E58" s="14">
         <v>2877</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F58" s="14">
         <v>477</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="14">
         <v>210</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H58" s="14">
         <v>150512</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I58" s="14">
         <v>29328</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J58" s="14">
         <v>3753</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K58" s="14">
         <v>1181</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="7">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="7">
         <v>2020</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <v>19746</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="8">
         <v>2866</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F59" s="8">
         <v>480</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G59" s="8">
         <v>208</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H59" s="8">
         <v>149978</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I59" s="8">
         <v>29202</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J59" s="8">
         <v>3724</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K59" s="8">
         <v>1177</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="9">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <v>19711</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E60" s="10">
         <v>2853</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>483</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>207</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H60" s="10">
         <v>149557</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I60" s="10">
         <v>29064</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J60" s="10">
         <v>3720</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K60" s="10">
         <v>1169</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="7">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="7">
         <v>2020</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D61" s="8">
         <v>19666</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E61" s="8">
         <v>2846</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F61" s="8">
         <v>481</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G61" s="8">
         <v>209</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H61" s="8">
         <v>149333</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I61" s="8">
         <v>28918</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J61" s="8">
         <v>3682</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K61" s="8">
         <v>1165</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <v>19641</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E62" s="10">
         <v>2841</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F62" s="10">
         <v>482</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G62" s="10">
         <v>209</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H62" s="10">
         <v>149165</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I62" s="10">
         <v>28805</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J62" s="10">
         <v>3675</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K62" s="10">
         <v>1160</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="7">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="7">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>19637</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="8">
         <v>2839</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F63" s="8">
         <v>481</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G63" s="8">
         <v>209</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H63" s="8">
         <v>149034</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I63" s="8">
         <v>28738</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J63" s="8">
         <v>3651</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K63" s="8">
         <v>1156</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="10">
         <v>19635</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E64" s="10">
         <v>2839</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <v>481</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G64" s="10">
         <v>208</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H64" s="10">
         <v>148936</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I64" s="10">
         <v>28662</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J64" s="10">
         <v>3641</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K64" s="10">
         <v>1154</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="7">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="7">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <v>19634</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E65" s="8">
         <v>2839</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F65" s="8">
         <v>481</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="8">
         <v>207</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H65" s="8">
         <v>148915</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I65" s="8">
         <v>28646</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J65" s="8">
         <v>3645</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K65" s="8">
         <v>1152</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D66" s="10">
         <v>19634</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E66" s="10">
         <v>2839</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F66" s="10">
         <v>481</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G66" s="10">
         <v>207</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H66" s="10">
         <v>148909</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I66" s="10">
         <v>28641</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J66" s="10">
         <v>3645</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K66" s="10">
         <v>1151</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="7">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="7">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <v>19633</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E67" s="8">
         <v>2839</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F67" s="8">
         <v>481</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G67" s="8">
         <v>207</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H67" s="8">
         <v>148896</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I67" s="8">
         <v>28639</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J67" s="8">
         <v>3647</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K67" s="8">
         <v>1150</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="9">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="9">
         <v>2020</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>19600</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>2827</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>479</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>207</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H68" s="10">
         <v>148599</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I68" s="10">
         <v>28517</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J68" s="10">
         <v>3624</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K68" s="10">
         <v>1150</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="11">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="11">
         <v>2020</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <v>19541</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E69" s="12">
         <v>2817</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F69" s="12">
         <v>476</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="12">
         <v>207</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H69" s="12">
         <v>148188</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I69" s="12">
         <v>28401</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J69" s="12">
         <v>3614</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K69" s="12">
         <v>1147</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="13">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <v>19514</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E70" s="14">
         <v>2807</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F70" s="14">
         <v>477</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="14">
         <v>206</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H70" s="14">
         <v>147966</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I70" s="14">
         <v>28318</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J70" s="14">
         <v>3601</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K70" s="14">
         <v>1146</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="7">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="7">
         <v>2019</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <v>19374</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E71" s="8">
         <v>2784</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F71" s="8">
         <v>474</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G71" s="8">
         <v>205</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H71" s="8">
         <v>147552</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I71" s="8">
         <v>28216</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J71" s="8">
         <v>3578</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K71" s="8">
         <v>1143</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="9">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>19270</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E72" s="10">
         <v>2775</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>473</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>203</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H72" s="10">
         <v>147145</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I72" s="10">
         <v>28082</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J72" s="10">
         <v>3566</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K72" s="10">
         <v>1131</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="7">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="7">
         <v>2019</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D73" s="8">
         <v>18283</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E73" s="8">
         <v>2541</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F73" s="8">
         <v>429</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G73" s="8">
         <v>173</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H73" s="8">
         <v>135900</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I73" s="8">
         <v>26071</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J73" s="8">
         <v>3315</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K73" s="8">
         <v>1067</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>18210</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E74" s="10">
         <v>2531</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F74" s="10">
         <v>428</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G74" s="10">
         <v>174</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H74" s="10">
         <v>135525</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I74" s="10">
         <v>25971</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J74" s="10">
         <v>3310</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K74" s="10">
         <v>1060</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="7">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="7">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <v>18415</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E75" s="8">
         <v>2539</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F75" s="8">
         <v>433</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G75" s="8">
         <v>170</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H75" s="8">
         <v>135981</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I75" s="8">
         <v>25844</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J75" s="8">
         <v>3256</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K75" s="8">
         <v>1052</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <v>18061</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E76" s="10">
         <v>2503</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>431</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="10">
         <v>171</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H76" s="10">
         <v>134678</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I76" s="10">
         <v>25745</v>
       </c>
-      <c r="J75" s="10">
+      <c r="J76" s="10">
         <v>3256</v>
       </c>
-      <c r="K75" s="10">
+      <c r="K76" s="10">
         <v>1054</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="7">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="7">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <v>17466</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E77" s="8">
         <v>2457</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F77" s="8">
         <v>414</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="8">
         <v>174</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H77" s="8">
         <v>124831</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I77" s="8">
         <v>25684</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J77" s="8">
         <v>3289</v>
       </c>
-      <c r="K76" s="8">
+      <c r="K77" s="8">
         <v>1066</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <v>17400</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E78" s="10">
         <v>2444</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <v>408</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G78" s="10">
         <v>174</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H78" s="10">
         <v>124413</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I78" s="10">
         <v>25571</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J78" s="10">
         <v>3256</v>
       </c>
-      <c r="K77" s="10">
+      <c r="K78" s="10">
         <v>1066</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="7">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="7">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <v>17310</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="8">
         <v>2439</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F79" s="8">
         <v>406</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G79" s="8">
         <v>172</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H79" s="8">
         <v>124028</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I79" s="8">
         <v>25443</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J79" s="8">
         <v>3244</v>
       </c>
-      <c r="K78" s="8">
+      <c r="K79" s="8">
         <v>1056</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="9">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="9">
         <v>2019</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <v>17252</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>2424</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>401</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>171</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H80" s="10">
         <v>123619</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I80" s="10">
         <v>25350</v>
       </c>
-      <c r="J79" s="10">
+      <c r="J80" s="10">
         <v>3211</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K80" s="10">
         <v>1050</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="11">
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="11">
         <v>2019</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <v>17187</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E81" s="12">
         <v>2415</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F81" s="12">
         <v>397</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="12">
         <v>170</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H81" s="12">
         <v>123279</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I81" s="12">
         <v>25269</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J81" s="12">
         <v>3198</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K81" s="12">
         <v>1045</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="9">
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="9">
         <v>2018</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <v>17176</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E82" s="10">
         <v>2409</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>394</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>170</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H82" s="10">
         <v>123073</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I82" s="10">
         <v>25189</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J82" s="10">
         <v>3183</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K82" s="10">
         <v>1042</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="7">
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <v>17063</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E83" s="8">
         <v>2394</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F83" s="8">
         <v>392</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G83" s="8">
         <v>167</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H83" s="8">
         <v>122612</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I83" s="8">
         <v>25091</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J83" s="8">
         <v>3170</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K83" s="8">
         <v>1035</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="9">
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="9">
         <v>2018</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <v>16927</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E84" s="10">
         <v>2392</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>382</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>168</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H84" s="10">
         <v>122104</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I84" s="10">
         <v>24950</v>
       </c>
-      <c r="J83" s="10">
+      <c r="J84" s="10">
         <v>3156</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K84" s="10">
         <v>1026</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1">
-      <c r="B84" s="7">
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <v>16818</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E85" s="8">
         <v>2382</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F85" s="8">
         <v>382</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G85" s="8">
         <v>168</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H85" s="8">
         <v>121579</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I85" s="8">
         <v>24817</v>
       </c>
-      <c r="J84" s="8">
+      <c r="J85" s="8">
         <v>3133</v>
       </c>
-      <c r="K84" s="8">
+      <c r="K85" s="8">
         <v>1019</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1">
-      <c r="B85" s="9">
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <v>16753</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E86" s="10">
         <v>2373</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>373</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="10">
         <v>165</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H86" s="10">
         <v>121024</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I86" s="10">
         <v>24729</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J86" s="10">
         <v>3111</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K86" s="10">
         <v>1016</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1">
-      <c r="B86" s="7">
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <v>16665</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E87" s="8">
         <v>2355</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F87" s="8">
         <v>371</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G87" s="8">
         <v>165</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H87" s="8">
         <v>120510</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I87" s="8">
         <v>24592</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J87" s="8">
         <v>3094</v>
       </c>
-      <c r="K86" s="8">
+      <c r="K87" s="8">
         <v>1005</v>
       </c>
     </row>
-    <row r="87" spans="2:11" hidden="1">
-      <c r="B87" s="9">
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>16612</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>2334</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>369</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>168</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H88" s="10">
         <v>120020</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I88" s="10">
         <v>24500</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J88" s="10">
         <v>3076</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K88" s="10">
         <v>1003</v>
       </c>
     </row>
-    <row r="88" spans="2:11" hidden="1">
-      <c r="B88" s="7">
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <v>16553</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E89" s="8">
         <v>2326</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F89" s="8">
         <v>368</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G89" s="8">
         <v>167</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H89" s="8">
         <v>119627</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I89" s="8">
         <v>24395</v>
       </c>
-      <c r="J88" s="8">
+      <c r="J89" s="8">
         <v>3068</v>
       </c>
-      <c r="K88" s="8">
+      <c r="K89" s="8">
         <v>998</v>
       </c>
     </row>
-    <row r="89" spans="2:11" hidden="1">
-      <c r="B89" s="9">
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="9">
         <v>2018</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D90" s="10">
         <v>16474</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E90" s="10">
         <v>2306</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F90" s="10">
         <v>363</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G90" s="10">
         <v>166</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H90" s="10">
         <v>119076</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I90" s="10">
         <v>24234</v>
       </c>
-      <c r="J89" s="10">
+      <c r="J90" s="10">
         <v>3031</v>
       </c>
-      <c r="K89" s="10">
+      <c r="K90" s="10">
         <v>994</v>
       </c>
     </row>
-    <row r="90" spans="2:11" hidden="1">
-      <c r="B90" s="7">
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D91" s="8">
         <v>16403</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E91" s="8">
         <v>2307</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F91" s="8">
         <v>356</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G91" s="8">
         <v>164</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H91" s="8">
         <v>118573</v>
       </c>
-      <c r="I90" s="8">
+      <c r="I91" s="8">
         <v>24067</v>
       </c>
-      <c r="J90" s="8">
+      <c r="J91" s="8">
         <v>3016</v>
       </c>
-      <c r="K90" s="8">
+      <c r="K91" s="8">
         <v>982</v>
       </c>
     </row>
-    <row r="91" spans="2:11" hidden="1">
-      <c r="B91" s="9">
+    <row r="92" spans="2:11" hidden="1">
+      <c r="B92" s="9">
         <v>2018</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D92" s="10">
         <v>16312</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E92" s="10">
         <v>2280</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F92" s="10">
         <v>355</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G92" s="10">
         <v>163</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H92" s="10">
         <v>118068</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I92" s="10">
         <v>23912</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J92" s="10">
         <v>3000</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K92" s="10">
         <v>971</v>
       </c>
     </row>
-    <row r="92" spans="2:11" hidden="1">
-      <c r="B92" s="7">
+    <row r="93" spans="2:11" hidden="1">
+      <c r="B93" s="7">
         <v>2018</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D93" s="8">
         <v>16235</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E93" s="8">
         <v>2282</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F93" s="8">
         <v>350</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G93" s="8">
         <v>164</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H93" s="8">
         <v>117820</v>
       </c>
-      <c r="I92" s="8">
+      <c r="I93" s="8">
         <v>23812</v>
       </c>
-      <c r="J92" s="8">
+      <c r="J93" s="8">
         <v>2985</v>
       </c>
-      <c r="K92" s="8">
+      <c r="K93" s="8">
         <v>967</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
-      <c r="B93" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
-      <c r="K95" s="6"/>
+    <row r="96" spans="2:11">
+      <c r="K96" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7CDE13-4F83-41B2-95BF-E06BD229BBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961C7056-41DE-469D-870F-447672361682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
   <si>
     <t>Empresas permisionarios de pasaje</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -285,7 +285,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -296,7 +298,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -337,8 +341,8 @@
     <xf numFmtId="17" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,7 +499,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -576,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K93" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K93" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K95" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K95" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -823,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:M96"/>
+  <dimension ref="B2:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -907,31 +911,31 @@
         <v>2025</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="10">
-        <v>22639</v>
+        <v>22751</v>
       </c>
       <c r="E6" s="10">
-        <v>3528</v>
+        <v>3558</v>
       </c>
       <c r="F6" s="10">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="G6" s="10">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H6" s="10">
-        <v>174556</v>
+        <v>175746</v>
       </c>
       <c r="I6" s="10">
-        <v>36699</v>
+        <v>37123</v>
       </c>
       <c r="J6" s="10">
-        <v>4986</v>
+        <v>5095</v>
       </c>
       <c r="K6" s="10">
-        <v>1492</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -939,31 +943,31 @@
         <v>2025</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8">
-        <v>22561</v>
+        <v>22689</v>
       </c>
       <c r="E7" s="8">
-        <v>3520</v>
+        <v>3537</v>
       </c>
       <c r="F7" s="8">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G7" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H7" s="8">
-        <v>173913</v>
+        <v>174987</v>
       </c>
       <c r="I7" s="8">
-        <v>36543</v>
+        <v>36850</v>
       </c>
       <c r="J7" s="8">
-        <v>4955</v>
+        <v>5020</v>
       </c>
       <c r="K7" s="8">
-        <v>1488</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -971,127 +975,127 @@
         <v>2025</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10">
-        <v>22503</v>
+        <v>22639</v>
       </c>
       <c r="E8" s="10">
-        <v>3507</v>
+        <v>3528</v>
       </c>
       <c r="F8" s="10">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G8" s="10">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="10">
-        <v>173335</v>
+        <v>174556</v>
       </c>
       <c r="I8" s="10">
-        <v>36398</v>
+        <v>36699</v>
       </c>
       <c r="J8" s="10">
-        <v>4921</v>
+        <v>4986</v>
       </c>
       <c r="K8" s="10">
-        <v>1482</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>2025</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="12">
-        <v>22455</v>
-      </c>
-      <c r="E9" s="12">
-        <v>3502</v>
-      </c>
-      <c r="F9" s="12">
-        <v>555</v>
-      </c>
-      <c r="G9" s="12">
-        <v>228</v>
-      </c>
-      <c r="H9" s="12">
-        <v>172885</v>
-      </c>
-      <c r="I9" s="12">
-        <v>36217</v>
-      </c>
-      <c r="J9" s="12">
-        <v>4897</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1474</v>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8">
+        <v>22561</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3520</v>
+      </c>
+      <c r="F9" s="8">
+        <v>554</v>
+      </c>
+      <c r="G9" s="8">
+        <v>226</v>
+      </c>
+      <c r="H9" s="8">
+        <v>173913</v>
+      </c>
+      <c r="I9" s="8">
+        <v>36543</v>
+      </c>
+      <c r="J9" s="8">
+        <v>4955</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1488</v>
       </c>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="10">
-        <v>22428</v>
+        <v>22503</v>
       </c>
       <c r="E10" s="10">
-        <v>3496</v>
+        <v>3507</v>
       </c>
       <c r="F10" s="10">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G10" s="10">
         <v>227</v>
       </c>
       <c r="H10" s="10">
-        <v>172611</v>
+        <v>173335</v>
       </c>
       <c r="I10" s="10">
-        <v>36098</v>
+        <v>36398</v>
       </c>
       <c r="J10" s="10">
-        <v>4868</v>
+        <v>4921</v>
       </c>
       <c r="K10" s="10">
-        <v>1468</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="7">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8">
-        <v>22336</v>
-      </c>
-      <c r="E11" s="8">
-        <v>3475</v>
-      </c>
-      <c r="F11" s="8">
-        <v>549</v>
-      </c>
-      <c r="G11" s="8">
-        <v>225</v>
-      </c>
-      <c r="H11" s="8">
-        <v>172070</v>
-      </c>
-      <c r="I11" s="8">
-        <v>35927</v>
-      </c>
-      <c r="J11" s="8">
-        <v>4832</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1464</v>
+      <c r="B11" s="11">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="12">
+        <v>22455</v>
+      </c>
+      <c r="E11" s="12">
+        <v>3502</v>
+      </c>
+      <c r="F11" s="12">
+        <v>555</v>
+      </c>
+      <c r="G11" s="12">
+        <v>228</v>
+      </c>
+      <c r="H11" s="12">
+        <v>172885</v>
+      </c>
+      <c r="I11" s="12">
+        <v>36217</v>
+      </c>
+      <c r="J11" s="12">
+        <v>4897</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1474</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -1099,31 +1103,31 @@
         <v>2024</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="10">
-        <v>22266</v>
+        <v>22428</v>
       </c>
       <c r="E12" s="10">
-        <v>3453</v>
+        <v>3496</v>
       </c>
       <c r="F12" s="10">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G12" s="10">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H12" s="10">
-        <v>171475</v>
+        <v>172611</v>
       </c>
       <c r="I12" s="10">
-        <v>35741</v>
+        <v>36098</v>
       </c>
       <c r="J12" s="10">
-        <v>4799</v>
+        <v>4868</v>
       </c>
       <c r="K12" s="10">
-        <v>1462</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -1131,31 +1135,31 @@
         <v>2024</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8">
-        <v>22164</v>
+        <v>22336</v>
       </c>
       <c r="E13" s="8">
-        <v>3444</v>
+        <v>3475</v>
       </c>
       <c r="F13" s="8">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G13" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H13" s="8">
-        <v>170782</v>
+        <v>172070</v>
       </c>
       <c r="I13" s="8">
-        <v>35496</v>
+        <v>35927</v>
       </c>
       <c r="J13" s="8">
-        <v>4768</v>
+        <v>4832</v>
       </c>
       <c r="K13" s="8">
-        <v>1447</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -1163,31 +1167,31 @@
         <v>2024</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10">
-        <v>22054</v>
+        <v>22266</v>
       </c>
       <c r="E14" s="10">
-        <v>3448</v>
+        <v>3453</v>
       </c>
       <c r="F14" s="10">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="G14" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H14" s="10">
-        <v>170125</v>
+        <v>171475</v>
       </c>
       <c r="I14" s="10">
-        <v>35287</v>
+        <v>35741</v>
       </c>
       <c r="J14" s="10">
-        <v>4743</v>
+        <v>4799</v>
       </c>
       <c r="K14" s="10">
-        <v>1439</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -1195,31 +1199,31 @@
         <v>2024</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D15" s="8">
-        <v>21977</v>
+        <v>22164</v>
       </c>
       <c r="E15" s="8">
-        <v>3439</v>
+        <v>3444</v>
       </c>
       <c r="F15" s="8">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="G15" s="8">
         <v>222</v>
       </c>
       <c r="H15" s="8">
-        <v>169471</v>
+        <v>170782</v>
       </c>
       <c r="I15" s="8">
-        <v>35095</v>
+        <v>35496</v>
       </c>
       <c r="J15" s="8">
-        <v>4695</v>
+        <v>4768</v>
       </c>
       <c r="K15" s="8">
-        <v>1433</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -1227,31 +1231,31 @@
         <v>2024</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="10">
-        <v>21900</v>
+        <v>22054</v>
       </c>
       <c r="E16" s="10">
-        <v>3414</v>
+        <v>3448</v>
       </c>
       <c r="F16" s="10">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G16" s="10">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H16" s="10">
-        <v>168764</v>
+        <v>170125</v>
       </c>
       <c r="I16" s="10">
-        <v>34901</v>
+        <v>35287</v>
       </c>
       <c r="J16" s="10">
-        <v>4637</v>
+        <v>4743</v>
       </c>
       <c r="K16" s="10">
-        <v>1428</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -1259,31 +1263,31 @@
         <v>2024</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="8">
-        <v>21844</v>
+        <v>21977</v>
       </c>
       <c r="E17" s="8">
-        <v>3399</v>
+        <v>3439</v>
       </c>
       <c r="F17" s="8">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G17" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H17" s="8">
-        <v>167901</v>
+        <v>169471</v>
       </c>
       <c r="I17" s="8">
-        <v>34526</v>
+        <v>35095</v>
       </c>
       <c r="J17" s="8">
-        <v>4584</v>
+        <v>4695</v>
       </c>
       <c r="K17" s="8">
-        <v>1400</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -1291,31 +1295,31 @@
         <v>2024</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="10">
-        <v>21782</v>
+        <v>21900</v>
       </c>
       <c r="E18" s="10">
-        <v>3381</v>
+        <v>3414</v>
       </c>
       <c r="F18" s="10">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G18" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H18" s="10">
-        <v>167537</v>
+        <v>168764</v>
       </c>
       <c r="I18" s="10">
-        <v>34455</v>
+        <v>34901</v>
       </c>
       <c r="J18" s="10">
-        <v>4564</v>
+        <v>4637</v>
       </c>
       <c r="K18" s="10">
-        <v>1401</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1323,31 +1327,31 @@
         <v>2024</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="8">
-        <v>21711</v>
+        <v>21844</v>
       </c>
       <c r="E19" s="8">
-        <v>3370</v>
+        <v>3399</v>
       </c>
       <c r="F19" s="8">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G19" s="8">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H19" s="8">
-        <v>166979</v>
+        <v>167901</v>
       </c>
       <c r="I19" s="8">
-        <v>34249</v>
+        <v>34526</v>
       </c>
       <c r="J19" s="8">
-        <v>4522</v>
+        <v>4584</v>
       </c>
       <c r="K19" s="8">
-        <v>1391</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -1355,159 +1359,159 @@
         <v>2024</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="10">
+        <v>21782</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3381</v>
+      </c>
+      <c r="F20" s="10">
+        <v>537</v>
+      </c>
+      <c r="G20" s="10">
+        <v>221</v>
+      </c>
+      <c r="H20" s="10">
+        <v>167537</v>
+      </c>
+      <c r="I20" s="10">
+        <v>34455</v>
+      </c>
+      <c r="J20" s="10">
+        <v>4564</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="7">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8">
+        <v>21711</v>
+      </c>
+      <c r="E21" s="8">
+        <v>3370</v>
+      </c>
+      <c r="F21" s="8">
+        <v>537</v>
+      </c>
+      <c r="G21" s="8">
+        <v>216</v>
+      </c>
+      <c r="H21" s="8">
+        <v>166979</v>
+      </c>
+      <c r="I21" s="8">
+        <v>34249</v>
+      </c>
+      <c r="J21" s="8">
+        <v>4522</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D22" s="10">
         <v>21675</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E22" s="10">
         <v>3345</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F22" s="10">
         <v>538</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G22" s="10">
         <v>215</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H22" s="10">
         <v>166478</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I22" s="10">
         <v>34057</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J22" s="10">
         <v>4499</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K22" s="10">
         <v>1379</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="11">
+    <row r="23" spans="2:11">
+      <c r="B23" s="11">
         <v>2024</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D23" s="12">
         <v>21635</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E23" s="12">
         <v>3332</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F23" s="12">
         <v>535</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G23" s="12">
         <v>212</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H23" s="12">
         <v>166076</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I23" s="12">
         <v>33897</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J23" s="12">
         <v>4471</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K23" s="12">
         <v>1371</v>
       </c>
     </row>
-    <row r="22" spans="2:11" hidden="1">
-      <c r="B22" s="13">
+    <row r="24" spans="2:11" hidden="1">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D24" s="14">
         <v>21607</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E24" s="14">
         <v>3331</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F24" s="14">
         <v>527</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G24" s="14">
         <v>213</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H24" s="14">
         <v>165843</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I24" s="14">
         <v>33744</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J24" s="14">
         <v>4441</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K24" s="14">
         <v>1370</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" hidden="1">
-      <c r="B23" s="7">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="8">
-        <v>21539</v>
-      </c>
-      <c r="E23" s="8">
-        <v>3304</v>
-      </c>
-      <c r="F23" s="8">
-        <v>524</v>
-      </c>
-      <c r="G23" s="8">
-        <v>215</v>
-      </c>
-      <c r="H23" s="8">
-        <v>165469</v>
-      </c>
-      <c r="I23" s="8">
-        <v>33558</v>
-      </c>
-      <c r="J23" s="8">
-        <v>4409</v>
-      </c>
-      <c r="K23" s="8">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="10">
-        <v>21461</v>
-      </c>
-      <c r="E24" s="10">
-        <v>3281</v>
-      </c>
-      <c r="F24" s="10">
-        <v>527</v>
-      </c>
-      <c r="G24" s="10">
-        <v>213</v>
-      </c>
-      <c r="H24" s="10">
-        <v>164931</v>
-      </c>
-      <c r="I24" s="10">
-        <v>33376</v>
-      </c>
-      <c r="J24" s="10">
-        <v>4381</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1353</v>
       </c>
     </row>
     <row r="25" spans="2:11" hidden="1">
@@ -1515,31 +1519,31 @@
         <v>2023</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="8">
-        <v>21397</v>
+        <v>21539</v>
       </c>
       <c r="E25" s="8">
-        <v>3274</v>
+        <v>3304</v>
       </c>
       <c r="F25" s="8">
         <v>524</v>
       </c>
       <c r="G25" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H25" s="8">
-        <v>164459</v>
+        <v>165469</v>
       </c>
       <c r="I25" s="8">
-        <v>33219</v>
+        <v>33558</v>
       </c>
       <c r="J25" s="8">
-        <v>4371</v>
+        <v>4409</v>
       </c>
       <c r="K25" s="8">
-        <v>1339</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="26" spans="2:11" hidden="1">
@@ -1547,31 +1551,31 @@
         <v>2023</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D26" s="10">
-        <v>21333</v>
+        <v>21461</v>
       </c>
       <c r="E26" s="10">
-        <v>3249</v>
+        <v>3281</v>
       </c>
       <c r="F26" s="10">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="G26" s="10">
         <v>213</v>
       </c>
       <c r="H26" s="10">
-        <v>164018</v>
+        <v>164931</v>
       </c>
       <c r="I26" s="10">
-        <v>33086</v>
+        <v>33376</v>
       </c>
       <c r="J26" s="10">
-        <v>4345</v>
+        <v>4381</v>
       </c>
       <c r="K26" s="10">
-        <v>1335</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="27" spans="2:11" hidden="1">
@@ -1579,31 +1583,31 @@
         <v>2023</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D27" s="8">
-        <v>21275</v>
+        <v>21397</v>
       </c>
       <c r="E27" s="8">
-        <v>3244</v>
+        <v>3274</v>
       </c>
       <c r="F27" s="8">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="G27" s="8">
         <v>214</v>
       </c>
       <c r="H27" s="8">
-        <v>163591</v>
+        <v>164459</v>
       </c>
       <c r="I27" s="8">
-        <v>32899</v>
+        <v>33219</v>
       </c>
       <c r="J27" s="8">
-        <v>4314</v>
+        <v>4371</v>
       </c>
       <c r="K27" s="8">
-        <v>1333</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="28" spans="2:11" hidden="1">
@@ -1611,31 +1615,31 @@
         <v>2023</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="10">
-        <v>21204</v>
+        <v>21333</v>
       </c>
       <c r="E28" s="10">
-        <v>3230</v>
+        <v>3249</v>
       </c>
       <c r="F28" s="10">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G28" s="10">
         <v>213</v>
       </c>
       <c r="H28" s="10">
-        <v>163109</v>
+        <v>164018</v>
       </c>
       <c r="I28" s="10">
-        <v>32765</v>
+        <v>33086</v>
       </c>
       <c r="J28" s="10">
-        <v>4282</v>
+        <v>4345</v>
       </c>
       <c r="K28" s="10">
-        <v>1324</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="29" spans="2:11" hidden="1">
@@ -1643,13 +1647,13 @@
         <v>2023</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="8">
-        <v>21106</v>
+        <v>21275</v>
       </c>
       <c r="E29" s="8">
-        <v>3207</v>
+        <v>3244</v>
       </c>
       <c r="F29" s="8">
         <v>515</v>
@@ -1658,16 +1662,16 @@
         <v>214</v>
       </c>
       <c r="H29" s="8">
-        <v>162727</v>
+        <v>163591</v>
       </c>
       <c r="I29" s="8">
-        <v>32622</v>
+        <v>32899</v>
       </c>
       <c r="J29" s="8">
-        <v>4264</v>
+        <v>4314</v>
       </c>
       <c r="K29" s="8">
-        <v>1317</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="30" spans="2:11" hidden="1">
@@ -1675,31 +1679,31 @@
         <v>2023</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="10">
-        <v>21068</v>
+        <v>21204</v>
       </c>
       <c r="E30" s="10">
-        <v>3196</v>
+        <v>3230</v>
       </c>
       <c r="F30" s="10">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G30" s="10">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H30" s="10">
-        <v>162289</v>
+        <v>163109</v>
       </c>
       <c r="I30" s="10">
-        <v>32483</v>
+        <v>32765</v>
       </c>
       <c r="J30" s="10">
-        <v>4234</v>
+        <v>4282</v>
       </c>
       <c r="K30" s="10">
-        <v>1308</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="31" spans="2:11" hidden="1">
@@ -1707,31 +1711,31 @@
         <v>2023</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" s="8">
-        <v>21005</v>
+        <v>21106</v>
       </c>
       <c r="E31" s="8">
-        <v>3186</v>
+        <v>3207</v>
       </c>
       <c r="F31" s="8">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G31" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H31" s="8">
-        <v>161844</v>
+        <v>162727</v>
       </c>
       <c r="I31" s="8">
-        <v>32370</v>
+        <v>32622</v>
       </c>
       <c r="J31" s="8">
-        <v>4232</v>
+        <v>4264</v>
       </c>
       <c r="K31" s="8">
-        <v>1304</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="32" spans="2:11" hidden="1">
@@ -1739,159 +1743,159 @@
         <v>2023</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="10">
+        <v>21068</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3196</v>
+      </c>
+      <c r="F32" s="10">
+        <v>508</v>
+      </c>
+      <c r="G32" s="10">
+        <v>215</v>
+      </c>
+      <c r="H32" s="10">
+        <v>162289</v>
+      </c>
+      <c r="I32" s="10">
+        <v>32483</v>
+      </c>
+      <c r="J32" s="10">
+        <v>4234</v>
+      </c>
+      <c r="K32" s="10">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="7">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="8">
+        <v>21005</v>
+      </c>
+      <c r="E33" s="8">
+        <v>3186</v>
+      </c>
+      <c r="F33" s="8">
+        <v>509</v>
+      </c>
+      <c r="G33" s="8">
+        <v>213</v>
+      </c>
+      <c r="H33" s="8">
+        <v>161844</v>
+      </c>
+      <c r="I33" s="8">
+        <v>32370</v>
+      </c>
+      <c r="J33" s="8">
+        <v>4232</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D34" s="10">
         <v>20929</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E34" s="10">
         <v>3165</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F34" s="10">
         <v>506</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G34" s="10">
         <v>212</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H34" s="10">
         <v>161330</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I34" s="10">
         <v>32261</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J34" s="10">
         <v>4201</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K34" s="10">
         <v>1299</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="11">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="11">
         <v>2023</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D35" s="12">
         <v>20899</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E35" s="12">
         <v>3142</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F35" s="12">
         <v>506</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G35" s="12">
         <v>211</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H35" s="12">
         <v>161006</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I35" s="12">
         <v>32141</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J35" s="12">
         <v>4183</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K35" s="12">
         <v>1295</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="13">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D36" s="14">
         <v>20835</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E36" s="14">
         <v>3137</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F36" s="14">
         <v>506</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G36" s="14">
         <v>209</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H36" s="14">
         <v>160773</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I36" s="14">
         <v>32040</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J36" s="14">
         <v>4173</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K36" s="14">
         <v>1286</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="7">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="8">
-        <v>20752</v>
-      </c>
-      <c r="E35" s="8">
-        <v>3107</v>
-      </c>
-      <c r="F35" s="8">
-        <v>505</v>
-      </c>
-      <c r="G35" s="8">
-        <v>211</v>
-      </c>
-      <c r="H35" s="8">
-        <v>160470</v>
-      </c>
-      <c r="I35" s="8">
-        <v>31958</v>
-      </c>
-      <c r="J35" s="8">
-        <v>4162</v>
-      </c>
-      <c r="K35" s="8">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="10">
-        <v>20711</v>
-      </c>
-      <c r="E36" s="10">
-        <v>3095</v>
-      </c>
-      <c r="F36" s="10">
-        <v>501</v>
-      </c>
-      <c r="G36" s="10">
-        <v>210</v>
-      </c>
-      <c r="H36" s="10">
-        <v>160213</v>
-      </c>
-      <c r="I36" s="10">
-        <v>31874</v>
-      </c>
-      <c r="J36" s="10">
-        <v>4145</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1274</v>
       </c>
     </row>
     <row r="37" spans="2:11" hidden="1">
@@ -1899,31 +1903,31 @@
         <v>2022</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="8">
-        <v>20657</v>
+        <v>20752</v>
       </c>
       <c r="E37" s="8">
-        <v>3083</v>
+        <v>3107</v>
       </c>
       <c r="F37" s="8">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G37" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H37" s="8">
-        <v>159867</v>
+        <v>160470</v>
       </c>
       <c r="I37" s="8">
-        <v>31794</v>
+        <v>31958</v>
       </c>
       <c r="J37" s="8">
-        <v>4135</v>
+        <v>4162</v>
       </c>
       <c r="K37" s="8">
-        <v>1270</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="38" spans="2:11" hidden="1">
@@ -1931,31 +1935,31 @@
         <v>2022</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D38" s="10">
-        <v>20751</v>
+        <v>20711</v>
       </c>
       <c r="E38" s="10">
-        <v>3106</v>
+        <v>3095</v>
       </c>
       <c r="F38" s="10">
         <v>501</v>
       </c>
       <c r="G38" s="10">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H38" s="10">
-        <v>159400</v>
+        <v>160213</v>
       </c>
       <c r="I38" s="10">
-        <v>31688</v>
+        <v>31874</v>
       </c>
       <c r="J38" s="10">
-        <v>4111</v>
+        <v>4145</v>
       </c>
       <c r="K38" s="10">
-        <v>1260</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="39" spans="2:11" hidden="1">
@@ -1963,31 +1967,31 @@
         <v>2022</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D39" s="8">
-        <v>20551</v>
+        <v>20657</v>
       </c>
       <c r="E39" s="8">
-        <v>3046</v>
+        <v>3083</v>
       </c>
       <c r="F39" s="8">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="G39" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H39" s="8">
-        <v>158821</v>
+        <v>159867</v>
       </c>
       <c r="I39" s="8">
-        <v>31547</v>
+        <v>31794</v>
       </c>
       <c r="J39" s="8">
-        <v>4081</v>
+        <v>4135</v>
       </c>
       <c r="K39" s="8">
-        <v>1253</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="40" spans="2:11" hidden="1">
@@ -1995,31 +1999,31 @@
         <v>2022</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" s="10">
-        <v>20522</v>
+        <v>20751</v>
       </c>
       <c r="E40" s="10">
-        <v>3038</v>
+        <v>3106</v>
       </c>
       <c r="F40" s="10">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="G40" s="10">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H40" s="10">
-        <v>158518</v>
+        <v>159400</v>
       </c>
       <c r="I40" s="10">
-        <v>31468</v>
+        <v>31688</v>
       </c>
       <c r="J40" s="10">
-        <v>4073</v>
+        <v>4111</v>
       </c>
       <c r="K40" s="10">
-        <v>1251</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="41" spans="2:11" hidden="1">
@@ -2027,31 +2031,31 @@
         <v>2022</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="8">
-        <v>20484</v>
+        <v>20551</v>
       </c>
       <c r="E41" s="8">
-        <v>3026</v>
+        <v>3046</v>
       </c>
       <c r="F41" s="8">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G41" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H41" s="8">
-        <v>158024</v>
+        <v>158821</v>
       </c>
       <c r="I41" s="8">
-        <v>31395</v>
+        <v>31547</v>
       </c>
       <c r="J41" s="8">
-        <v>4062</v>
+        <v>4081</v>
       </c>
       <c r="K41" s="8">
-        <v>1250</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="42" spans="2:11" hidden="1">
@@ -2059,31 +2063,31 @@
         <v>2022</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="10">
-        <v>20432</v>
+        <v>20522</v>
       </c>
       <c r="E42" s="10">
-        <v>3010</v>
+        <v>3038</v>
       </c>
       <c r="F42" s="10">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G42" s="10">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H42" s="10">
-        <v>157470</v>
+        <v>158518</v>
       </c>
       <c r="I42" s="10">
-        <v>31286</v>
+        <v>31468</v>
       </c>
       <c r="J42" s="10">
-        <v>4046</v>
+        <v>4073</v>
       </c>
       <c r="K42" s="10">
-        <v>1244</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="43" spans="2:11" hidden="1">
@@ -2091,31 +2095,31 @@
         <v>2022</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="8">
-        <v>20400</v>
+        <v>20484</v>
       </c>
       <c r="E43" s="8">
-        <v>3000</v>
+        <v>3026</v>
       </c>
       <c r="F43" s="8">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G43" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H43" s="8">
-        <v>156952</v>
+        <v>158024</v>
       </c>
       <c r="I43" s="8">
-        <v>31147</v>
+        <v>31395</v>
       </c>
       <c r="J43" s="8">
-        <v>4034</v>
+        <v>4062</v>
       </c>
       <c r="K43" s="8">
-        <v>1237</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="44" spans="2:11" hidden="1">
@@ -2123,159 +2127,159 @@
         <v>2022</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="10">
+        <v>20432</v>
+      </c>
+      <c r="E44" s="10">
+        <v>3010</v>
+      </c>
+      <c r="F44" s="10">
+        <v>487</v>
+      </c>
+      <c r="G44" s="10">
+        <v>206</v>
+      </c>
+      <c r="H44" s="10">
+        <v>157470</v>
+      </c>
+      <c r="I44" s="10">
+        <v>31286</v>
+      </c>
+      <c r="J44" s="10">
+        <v>4046</v>
+      </c>
+      <c r="K44" s="10">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="7">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="8">
+        <v>20400</v>
+      </c>
+      <c r="E45" s="8">
+        <v>3000</v>
+      </c>
+      <c r="F45" s="8">
+        <v>487</v>
+      </c>
+      <c r="G45" s="8">
+        <v>207</v>
+      </c>
+      <c r="H45" s="8">
+        <v>156952</v>
+      </c>
+      <c r="I45" s="8">
+        <v>31147</v>
+      </c>
+      <c r="J45" s="8">
+        <v>4034</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="9">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D46" s="10">
         <v>20318</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E46" s="10">
         <v>2994</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F46" s="10">
         <v>489</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G46" s="10">
         <v>204</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H46" s="10">
         <v>156255</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I46" s="10">
         <v>31032</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J46" s="10">
         <v>4013</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K46" s="10">
         <v>1234</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="11">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="11">
         <v>2022</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D47" s="12">
         <v>20280</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E47" s="12">
         <v>2988</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F47" s="12">
         <v>491</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G47" s="12">
         <v>203</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H47" s="12">
         <v>155756</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I47" s="12">
         <v>30919</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J47" s="12">
         <v>4015</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K47" s="12">
         <v>1222</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="13">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D48" s="14">
         <v>20263</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E48" s="14">
         <v>2989</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F48" s="14">
         <v>487</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G48" s="14">
         <v>203</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H48" s="14">
         <v>155476</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I48" s="14">
         <v>30843</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J48" s="14">
         <v>4009</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K48" s="14">
         <v>1222</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="8">
-        <v>20206</v>
-      </c>
-      <c r="E47" s="8">
-        <v>2973</v>
-      </c>
-      <c r="F47" s="8">
-        <v>485</v>
-      </c>
-      <c r="G47" s="8">
-        <v>203</v>
-      </c>
-      <c r="H47" s="8">
-        <v>154922</v>
-      </c>
-      <c r="I47" s="8">
-        <v>30721</v>
-      </c>
-      <c r="J47" s="8">
-        <v>3992</v>
-      </c>
-      <c r="K47" s="8">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="10">
-        <v>20146</v>
-      </c>
-      <c r="E48" s="10">
-        <v>2967</v>
-      </c>
-      <c r="F48" s="10">
-        <v>483</v>
-      </c>
-      <c r="G48" s="10">
-        <v>203</v>
-      </c>
-      <c r="H48" s="10">
-        <v>154593</v>
-      </c>
-      <c r="I48" s="10">
-        <v>30634</v>
-      </c>
-      <c r="J48" s="10">
-        <v>3971</v>
-      </c>
-      <c r="K48" s="10">
-        <v>1218</v>
       </c>
     </row>
     <row r="49" spans="2:11" hidden="1">
@@ -2283,31 +2287,31 @@
         <v>2021</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49" s="8">
-        <v>20103</v>
+        <v>20206</v>
       </c>
       <c r="E49" s="8">
-        <v>2962</v>
+        <v>2973</v>
       </c>
       <c r="F49" s="8">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G49" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H49" s="8">
-        <v>154071</v>
+        <v>154922</v>
       </c>
       <c r="I49" s="8">
-        <v>30444</v>
+        <v>30721</v>
       </c>
       <c r="J49" s="8">
-        <v>3948</v>
+        <v>3992</v>
       </c>
       <c r="K49" s="8">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="50" spans="2:11" hidden="1">
@@ -2315,31 +2319,31 @@
         <v>2021</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D50" s="10">
-        <v>20021</v>
+        <v>20146</v>
       </c>
       <c r="E50" s="10">
-        <v>2931</v>
+        <v>2967</v>
       </c>
       <c r="F50" s="10">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G50" s="10">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H50" s="10">
-        <v>153674</v>
+        <v>154593</v>
       </c>
       <c r="I50" s="10">
-        <v>30371</v>
+        <v>30634</v>
       </c>
       <c r="J50" s="10">
-        <v>3913</v>
+        <v>3971</v>
       </c>
       <c r="K50" s="10">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="51" spans="2:11" hidden="1">
@@ -2347,31 +2351,31 @@
         <v>2021</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D51" s="8">
-        <v>20037</v>
+        <v>20103</v>
       </c>
       <c r="E51" s="8">
-        <v>2938</v>
+        <v>2962</v>
       </c>
       <c r="F51" s="8">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G51" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H51" s="8">
-        <v>153148</v>
+        <v>154071</v>
       </c>
       <c r="I51" s="8">
-        <v>30163</v>
+        <v>30444</v>
       </c>
       <c r="J51" s="8">
-        <v>3889</v>
+        <v>3948</v>
       </c>
       <c r="K51" s="8">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="52" spans="2:11" hidden="1">
@@ -2379,31 +2383,31 @@
         <v>2021</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="10">
-        <v>19989</v>
+        <v>20021</v>
       </c>
       <c r="E52" s="10">
-        <v>2916</v>
+        <v>2931</v>
       </c>
       <c r="F52" s="10">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G52" s="10">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H52" s="10">
-        <v>152772</v>
+        <v>153674</v>
       </c>
       <c r="I52" s="10">
-        <v>30071</v>
+        <v>30371</v>
       </c>
       <c r="J52" s="10">
-        <v>3878</v>
+        <v>3913</v>
       </c>
       <c r="K52" s="10">
-        <v>1211</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="53" spans="2:11" hidden="1">
@@ -2411,31 +2415,31 @@
         <v>2021</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" s="8">
-        <v>19946</v>
+        <v>20037</v>
       </c>
       <c r="E53" s="8">
-        <v>2902</v>
+        <v>2938</v>
       </c>
       <c r="F53" s="8">
         <v>478</v>
       </c>
       <c r="G53" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H53" s="8">
-        <v>152274</v>
+        <v>153148</v>
       </c>
       <c r="I53" s="8">
-        <v>29923</v>
+        <v>30163</v>
       </c>
       <c r="J53" s="8">
-        <v>3848</v>
+        <v>3889</v>
       </c>
       <c r="K53" s="8">
-        <v>1208</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="54" spans="2:11" hidden="1">
@@ -2443,31 +2447,31 @@
         <v>2021</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" s="10">
-        <v>19923</v>
+        <v>19989</v>
       </c>
       <c r="E54" s="10">
-        <v>2897</v>
+        <v>2916</v>
       </c>
       <c r="F54" s="10">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G54" s="10">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H54" s="10">
-        <v>151877</v>
+        <v>152772</v>
       </c>
       <c r="I54" s="10">
-        <v>29764</v>
+        <v>30071</v>
       </c>
       <c r="J54" s="10">
-        <v>3855</v>
+        <v>3878</v>
       </c>
       <c r="K54" s="10">
-        <v>1197</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="55" spans="2:11" hidden="1">
@@ -2475,31 +2479,31 @@
         <v>2021</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="8">
-        <v>19894</v>
+        <v>19946</v>
       </c>
       <c r="E55" s="8">
-        <v>2881</v>
+        <v>2902</v>
       </c>
       <c r="F55" s="8">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G55" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H55" s="8">
-        <v>151428</v>
+        <v>152274</v>
       </c>
       <c r="I55" s="8">
-        <v>29625</v>
+        <v>29923</v>
       </c>
       <c r="J55" s="8">
-        <v>3837</v>
+        <v>3848</v>
       </c>
       <c r="K55" s="8">
-        <v>1196</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="56" spans="2:11" hidden="1">
@@ -2507,159 +2511,159 @@
         <v>2021</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="10">
+        <v>19923</v>
+      </c>
+      <c r="E56" s="10">
+        <v>2897</v>
+      </c>
+      <c r="F56" s="10">
+        <v>476</v>
+      </c>
+      <c r="G56" s="10">
+        <v>205</v>
+      </c>
+      <c r="H56" s="10">
+        <v>151877</v>
+      </c>
+      <c r="I56" s="10">
+        <v>29764</v>
+      </c>
+      <c r="J56" s="10">
+        <v>3855</v>
+      </c>
+      <c r="K56" s="10">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="8">
+        <v>19894</v>
+      </c>
+      <c r="E57" s="8">
+        <v>2881</v>
+      </c>
+      <c r="F57" s="8">
+        <v>475</v>
+      </c>
+      <c r="G57" s="8">
+        <v>209</v>
+      </c>
+      <c r="H57" s="8">
+        <v>151428</v>
+      </c>
+      <c r="I57" s="8">
+        <v>29625</v>
+      </c>
+      <c r="J57" s="8">
+        <v>3837</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="9">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D58" s="10">
         <v>19844</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E58" s="10">
         <v>2870</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F58" s="10">
         <v>478</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G58" s="10">
         <v>208</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H58" s="10">
         <v>150941</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I58" s="10">
         <v>29527</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J58" s="10">
         <v>3793</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K58" s="10">
         <v>1186</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="11">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="11">
         <v>2021</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D59" s="12">
         <v>19809</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E59" s="12">
         <v>2878</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F59" s="12">
         <v>478</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G59" s="12">
         <v>210</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H59" s="12">
         <v>150642</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I59" s="12">
         <v>29399</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J59" s="12">
         <v>3775</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K59" s="12">
         <v>1181</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="13">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D60" s="14">
         <v>19806</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E60" s="14">
         <v>2877</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F60" s="14">
         <v>477</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G60" s="14">
         <v>210</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H60" s="14">
         <v>150512</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I60" s="14">
         <v>29328</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J60" s="14">
         <v>3753</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K60" s="14">
         <v>1181</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="7">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="8">
-        <v>19746</v>
-      </c>
-      <c r="E59" s="8">
-        <v>2866</v>
-      </c>
-      <c r="F59" s="8">
-        <v>480</v>
-      </c>
-      <c r="G59" s="8">
-        <v>208</v>
-      </c>
-      <c r="H59" s="8">
-        <v>149978</v>
-      </c>
-      <c r="I59" s="8">
-        <v>29202</v>
-      </c>
-      <c r="J59" s="8">
-        <v>3724</v>
-      </c>
-      <c r="K59" s="8">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="10">
-        <v>19711</v>
-      </c>
-      <c r="E60" s="10">
-        <v>2853</v>
-      </c>
-      <c r="F60" s="10">
-        <v>483</v>
-      </c>
-      <c r="G60" s="10">
-        <v>207</v>
-      </c>
-      <c r="H60" s="10">
-        <v>149557</v>
-      </c>
-      <c r="I60" s="10">
-        <v>29064</v>
-      </c>
-      <c r="J60" s="10">
-        <v>3720</v>
-      </c>
-      <c r="K60" s="10">
-        <v>1169</v>
       </c>
     </row>
     <row r="61" spans="2:11" hidden="1">
@@ -2667,31 +2671,31 @@
         <v>2020</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D61" s="8">
-        <v>19666</v>
+        <v>19746</v>
       </c>
       <c r="E61" s="8">
-        <v>2846</v>
+        <v>2866</v>
       </c>
       <c r="F61" s="8">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G61" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H61" s="8">
-        <v>149333</v>
+        <v>149978</v>
       </c>
       <c r="I61" s="8">
-        <v>28918</v>
+        <v>29202</v>
       </c>
       <c r="J61" s="8">
-        <v>3682</v>
+        <v>3724</v>
       </c>
       <c r="K61" s="8">
-        <v>1165</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="62" spans="2:11" hidden="1">
@@ -2699,31 +2703,31 @@
         <v>2020</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D62" s="10">
-        <v>19641</v>
+        <v>19711</v>
       </c>
       <c r="E62" s="10">
-        <v>2841</v>
+        <v>2853</v>
       </c>
       <c r="F62" s="10">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G62" s="10">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H62" s="10">
-        <v>149165</v>
+        <v>149557</v>
       </c>
       <c r="I62" s="10">
-        <v>28805</v>
+        <v>29064</v>
       </c>
       <c r="J62" s="10">
-        <v>3675</v>
+        <v>3720</v>
       </c>
       <c r="K62" s="10">
-        <v>1160</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="63" spans="2:11" hidden="1">
@@ -2731,13 +2735,13 @@
         <v>2020</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D63" s="8">
-        <v>19637</v>
+        <v>19666</v>
       </c>
       <c r="E63" s="8">
-        <v>2839</v>
+        <v>2846</v>
       </c>
       <c r="F63" s="8">
         <v>481</v>
@@ -2746,16 +2750,16 @@
         <v>209</v>
       </c>
       <c r="H63" s="8">
-        <v>149034</v>
+        <v>149333</v>
       </c>
       <c r="I63" s="8">
-        <v>28738</v>
+        <v>28918</v>
       </c>
       <c r="J63" s="8">
-        <v>3651</v>
+        <v>3682</v>
       </c>
       <c r="K63" s="8">
-        <v>1156</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="64" spans="2:11" hidden="1">
@@ -2763,31 +2767,31 @@
         <v>2020</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="10">
-        <v>19635</v>
+        <v>19641</v>
       </c>
       <c r="E64" s="10">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="F64" s="10">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G64" s="10">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H64" s="10">
-        <v>148936</v>
+        <v>149165</v>
       </c>
       <c r="I64" s="10">
-        <v>28662</v>
+        <v>28805</v>
       </c>
       <c r="J64" s="10">
-        <v>3641</v>
+        <v>3675</v>
       </c>
       <c r="K64" s="10">
-        <v>1154</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="65" spans="2:11" hidden="1">
@@ -2795,10 +2799,10 @@
         <v>2020</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" s="8">
-        <v>19634</v>
+        <v>19637</v>
       </c>
       <c r="E65" s="8">
         <v>2839</v>
@@ -2807,19 +2811,19 @@
         <v>481</v>
       </c>
       <c r="G65" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H65" s="8">
-        <v>148915</v>
+        <v>149034</v>
       </c>
       <c r="I65" s="8">
-        <v>28646</v>
+        <v>28738</v>
       </c>
       <c r="J65" s="8">
-        <v>3645</v>
+        <v>3651</v>
       </c>
       <c r="K65" s="8">
-        <v>1152</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="66" spans="2:11" hidden="1">
@@ -2827,10 +2831,10 @@
         <v>2020</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D66" s="10">
-        <v>19634</v>
+        <v>19635</v>
       </c>
       <c r="E66" s="10">
         <v>2839</v>
@@ -2839,19 +2843,19 @@
         <v>481</v>
       </c>
       <c r="G66" s="10">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H66" s="10">
-        <v>148909</v>
+        <v>148936</v>
       </c>
       <c r="I66" s="10">
-        <v>28641</v>
+        <v>28662</v>
       </c>
       <c r="J66" s="10">
-        <v>3645</v>
+        <v>3641</v>
       </c>
       <c r="K66" s="10">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="67" spans="2:11" hidden="1">
@@ -2859,10 +2863,10 @@
         <v>2020</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" s="8">
-        <v>19633</v>
+        <v>19634</v>
       </c>
       <c r="E67" s="8">
         <v>2839</v>
@@ -2874,16 +2878,16 @@
         <v>207</v>
       </c>
       <c r="H67" s="8">
-        <v>148896</v>
+        <v>148915</v>
       </c>
       <c r="I67" s="8">
-        <v>28639</v>
+        <v>28646</v>
       </c>
       <c r="J67" s="8">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="K67" s="8">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="68" spans="2:11" hidden="1">
@@ -2891,159 +2895,159 @@
         <v>2020</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D68" s="10">
-        <v>19600</v>
+        <v>19634</v>
       </c>
       <c r="E68" s="10">
-        <v>2827</v>
+        <v>2839</v>
       </c>
       <c r="F68" s="10">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G68" s="10">
         <v>207</v>
       </c>
       <c r="H68" s="10">
+        <v>148909</v>
+      </c>
+      <c r="I68" s="10">
+        <v>28641</v>
+      </c>
+      <c r="J68" s="10">
+        <v>3645</v>
+      </c>
+      <c r="K68" s="10">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="8">
+        <v>19633</v>
+      </c>
+      <c r="E69" s="8">
+        <v>2839</v>
+      </c>
+      <c r="F69" s="8">
+        <v>481</v>
+      </c>
+      <c r="G69" s="8">
+        <v>207</v>
+      </c>
+      <c r="H69" s="8">
+        <v>148896</v>
+      </c>
+      <c r="I69" s="8">
+        <v>28639</v>
+      </c>
+      <c r="J69" s="8">
+        <v>3647</v>
+      </c>
+      <c r="K69" s="8">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="10">
+        <v>19600</v>
+      </c>
+      <c r="E70" s="10">
+        <v>2827</v>
+      </c>
+      <c r="F70" s="10">
+        <v>479</v>
+      </c>
+      <c r="G70" s="10">
+        <v>207</v>
+      </c>
+      <c r="H70" s="10">
         <v>148599</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I70" s="10">
         <v>28517</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J70" s="10">
         <v>3624</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K70" s="10">
         <v>1150</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="11">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="11">
         <v>2020</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D71" s="12">
         <v>19541</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E71" s="12">
         <v>2817</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F71" s="12">
         <v>476</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G71" s="12">
         <v>207</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H71" s="12">
         <v>148188</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I71" s="12">
         <v>28401</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J71" s="12">
         <v>3614</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K71" s="12">
         <v>1147</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="13">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D72" s="14">
         <v>19514</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E72" s="14">
         <v>2807</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F72" s="14">
         <v>477</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G72" s="14">
         <v>206</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H72" s="14">
         <v>147966</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I72" s="14">
         <v>28318</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J72" s="14">
         <v>3601</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K72" s="14">
         <v>1146</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="7">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="8">
-        <v>19374</v>
-      </c>
-      <c r="E71" s="8">
-        <v>2784</v>
-      </c>
-      <c r="F71" s="8">
-        <v>474</v>
-      </c>
-      <c r="G71" s="8">
-        <v>205</v>
-      </c>
-      <c r="H71" s="8">
-        <v>147552</v>
-      </c>
-      <c r="I71" s="8">
-        <v>28216</v>
-      </c>
-      <c r="J71" s="8">
-        <v>3578</v>
-      </c>
-      <c r="K71" s="8">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="10">
-        <v>19270</v>
-      </c>
-      <c r="E72" s="10">
-        <v>2775</v>
-      </c>
-      <c r="F72" s="10">
-        <v>473</v>
-      </c>
-      <c r="G72" s="10">
-        <v>203</v>
-      </c>
-      <c r="H72" s="10">
-        <v>147145</v>
-      </c>
-      <c r="I72" s="10">
-        <v>28082</v>
-      </c>
-      <c r="J72" s="10">
-        <v>3566</v>
-      </c>
-      <c r="K72" s="10">
-        <v>1131</v>
       </c>
     </row>
     <row r="73" spans="2:11" hidden="1">
@@ -3051,31 +3055,31 @@
         <v>2019</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="8">
-        <v>18283</v>
+        <v>19374</v>
       </c>
       <c r="E73" s="8">
-        <v>2541</v>
+        <v>2784</v>
       </c>
       <c r="F73" s="8">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="G73" s="8">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="H73" s="8">
-        <v>135900</v>
+        <v>147552</v>
       </c>
       <c r="I73" s="8">
-        <v>26071</v>
+        <v>28216</v>
       </c>
       <c r="J73" s="8">
-        <v>3315</v>
+        <v>3578</v>
       </c>
       <c r="K73" s="8">
-        <v>1067</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="74" spans="2:11" hidden="1">
@@ -3083,31 +3087,31 @@
         <v>2019</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D74" s="10">
-        <v>18210</v>
+        <v>19270</v>
       </c>
       <c r="E74" s="10">
-        <v>2531</v>
+        <v>2775</v>
       </c>
       <c r="F74" s="10">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="G74" s="10">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="H74" s="10">
-        <v>135525</v>
+        <v>147145</v>
       </c>
       <c r="I74" s="10">
-        <v>25971</v>
+        <v>28082</v>
       </c>
       <c r="J74" s="10">
-        <v>3310</v>
+        <v>3566</v>
       </c>
       <c r="K74" s="10">
-        <v>1060</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="75" spans="2:11" hidden="1">
@@ -3115,31 +3119,31 @@
         <v>2019</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D75" s="8">
-        <v>18415</v>
+        <v>18283</v>
       </c>
       <c r="E75" s="8">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="F75" s="8">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G75" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H75" s="8">
-        <v>135981</v>
+        <v>135900</v>
       </c>
       <c r="I75" s="8">
-        <v>25844</v>
+        <v>26071</v>
       </c>
       <c r="J75" s="8">
-        <v>3256</v>
+        <v>3315</v>
       </c>
       <c r="K75" s="8">
-        <v>1052</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="76" spans="2:11" hidden="1">
@@ -3147,31 +3151,31 @@
         <v>2019</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" s="10">
-        <v>18061</v>
+        <v>18210</v>
       </c>
       <c r="E76" s="10">
-        <v>2503</v>
+        <v>2531</v>
       </c>
       <c r="F76" s="10">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G76" s="10">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H76" s="10">
-        <v>134678</v>
+        <v>135525</v>
       </c>
       <c r="I76" s="10">
-        <v>25745</v>
+        <v>25971</v>
       </c>
       <c r="J76" s="10">
-        <v>3256</v>
+        <v>3310</v>
       </c>
       <c r="K76" s="10">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="77" spans="2:11" hidden="1">
@@ -3179,31 +3183,31 @@
         <v>2019</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77" s="8">
-        <v>17466</v>
+        <v>18415</v>
       </c>
       <c r="E77" s="8">
-        <v>2457</v>
+        <v>2539</v>
       </c>
       <c r="F77" s="8">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="G77" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H77" s="8">
-        <v>124831</v>
+        <v>135981</v>
       </c>
       <c r="I77" s="8">
-        <v>25684</v>
+        <v>25844</v>
       </c>
       <c r="J77" s="8">
-        <v>3289</v>
+        <v>3256</v>
       </c>
       <c r="K77" s="8">
-        <v>1066</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="78" spans="2:11" hidden="1">
@@ -3211,31 +3215,31 @@
         <v>2019</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78" s="10">
-        <v>17400</v>
+        <v>18061</v>
       </c>
       <c r="E78" s="10">
-        <v>2444</v>
+        <v>2503</v>
       </c>
       <c r="F78" s="10">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="G78" s="10">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H78" s="10">
-        <v>124413</v>
+        <v>134678</v>
       </c>
       <c r="I78" s="10">
-        <v>25571</v>
+        <v>25745</v>
       </c>
       <c r="J78" s="10">
         <v>3256</v>
       </c>
       <c r="K78" s="10">
-        <v>1066</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="79" spans="2:11" hidden="1">
@@ -3243,31 +3247,31 @@
         <v>2019</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" s="8">
-        <v>17310</v>
+        <v>17466</v>
       </c>
       <c r="E79" s="8">
-        <v>2439</v>
+        <v>2457</v>
       </c>
       <c r="F79" s="8">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="G79" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H79" s="8">
-        <v>124028</v>
+        <v>124831</v>
       </c>
       <c r="I79" s="8">
-        <v>25443</v>
+        <v>25684</v>
       </c>
       <c r="J79" s="8">
-        <v>3244</v>
+        <v>3289</v>
       </c>
       <c r="K79" s="8">
-        <v>1056</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="80" spans="2:11" hidden="1">
@@ -3275,127 +3279,127 @@
         <v>2019</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D80" s="10">
-        <v>17252</v>
+        <v>17400</v>
       </c>
       <c r="E80" s="10">
-        <v>2424</v>
+        <v>2444</v>
       </c>
       <c r="F80" s="10">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="G80" s="10">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H80" s="10">
-        <v>123619</v>
+        <v>124413</v>
       </c>
       <c r="I80" s="10">
-        <v>25350</v>
+        <v>25571</v>
       </c>
       <c r="J80" s="10">
-        <v>3211</v>
+        <v>3256</v>
       </c>
       <c r="K80" s="10">
-        <v>1050</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="11">
+      <c r="B81" s="7">
         <v>2019</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="12">
-        <v>17187</v>
-      </c>
-      <c r="E81" s="12">
-        <v>2415</v>
-      </c>
-      <c r="F81" s="12">
-        <v>397</v>
-      </c>
-      <c r="G81" s="12">
-        <v>170</v>
-      </c>
-      <c r="H81" s="12">
-        <v>123279</v>
-      </c>
-      <c r="I81" s="12">
-        <v>25269</v>
-      </c>
-      <c r="J81" s="12">
-        <v>3198</v>
-      </c>
-      <c r="K81" s="12">
-        <v>1045</v>
+      <c r="C81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="8">
+        <v>17310</v>
+      </c>
+      <c r="E81" s="8">
+        <v>2439</v>
+      </c>
+      <c r="F81" s="8">
+        <v>406</v>
+      </c>
+      <c r="G81" s="8">
+        <v>172</v>
+      </c>
+      <c r="H81" s="8">
+        <v>124028</v>
+      </c>
+      <c r="I81" s="8">
+        <v>25443</v>
+      </c>
+      <c r="J81" s="8">
+        <v>3244</v>
+      </c>
+      <c r="K81" s="8">
+        <v>1056</v>
       </c>
     </row>
     <row r="82" spans="2:11" hidden="1">
       <c r="B82" s="9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D82" s="10">
-        <v>17176</v>
+        <v>17252</v>
       </c>
       <c r="E82" s="10">
-        <v>2409</v>
+        <v>2424</v>
       </c>
       <c r="F82" s="10">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="G82" s="10">
+        <v>171</v>
+      </c>
+      <c r="H82" s="10">
+        <v>123619</v>
+      </c>
+      <c r="I82" s="10">
+        <v>25350</v>
+      </c>
+      <c r="J82" s="10">
+        <v>3211</v>
+      </c>
+      <c r="K82" s="10">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="12">
+        <v>17187</v>
+      </c>
+      <c r="E83" s="12">
+        <v>2415</v>
+      </c>
+      <c r="F83" s="12">
+        <v>397</v>
+      </c>
+      <c r="G83" s="12">
         <v>170</v>
       </c>
-      <c r="H82" s="10">
-        <v>123073</v>
-      </c>
-      <c r="I82" s="10">
-        <v>25189</v>
-      </c>
-      <c r="J82" s="10">
-        <v>3183</v>
-      </c>
-      <c r="K82" s="10">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="8">
-        <v>17063</v>
-      </c>
-      <c r="E83" s="8">
-        <v>2394</v>
-      </c>
-      <c r="F83" s="8">
-        <v>392</v>
-      </c>
-      <c r="G83" s="8">
-        <v>167</v>
-      </c>
-      <c r="H83" s="8">
-        <v>122612</v>
-      </c>
-      <c r="I83" s="8">
-        <v>25091</v>
-      </c>
-      <c r="J83" s="8">
-        <v>3170</v>
-      </c>
-      <c r="K83" s="8">
-        <v>1035</v>
+      <c r="H83" s="12">
+        <v>123279</v>
+      </c>
+      <c r="I83" s="12">
+        <v>25269</v>
+      </c>
+      <c r="J83" s="12">
+        <v>3198</v>
+      </c>
+      <c r="K83" s="12">
+        <v>1045</v>
       </c>
     </row>
     <row r="84" spans="2:11" hidden="1">
@@ -3403,31 +3407,31 @@
         <v>2018</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D84" s="10">
-        <v>16927</v>
+        <v>17176</v>
       </c>
       <c r="E84" s="10">
-        <v>2392</v>
+        <v>2409</v>
       </c>
       <c r="F84" s="10">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="G84" s="10">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H84" s="10">
-        <v>122104</v>
+        <v>123073</v>
       </c>
       <c r="I84" s="10">
-        <v>24950</v>
+        <v>25189</v>
       </c>
       <c r="J84" s="10">
-        <v>3156</v>
+        <v>3183</v>
       </c>
       <c r="K84" s="10">
-        <v>1026</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="85" spans="2:11" hidden="1">
@@ -3435,31 +3439,31 @@
         <v>2018</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D85" s="8">
-        <v>16818</v>
+        <v>17063</v>
       </c>
       <c r="E85" s="8">
-        <v>2382</v>
+        <v>2394</v>
       </c>
       <c r="F85" s="8">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="G85" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H85" s="8">
-        <v>121579</v>
+        <v>122612</v>
       </c>
       <c r="I85" s="8">
-        <v>24817</v>
+        <v>25091</v>
       </c>
       <c r="J85" s="8">
-        <v>3133</v>
+        <v>3170</v>
       </c>
       <c r="K85" s="8">
-        <v>1019</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="86" spans="2:11" hidden="1">
@@ -3467,31 +3471,31 @@
         <v>2018</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D86" s="10">
-        <v>16753</v>
+        <v>16927</v>
       </c>
       <c r="E86" s="10">
-        <v>2373</v>
+        <v>2392</v>
       </c>
       <c r="F86" s="10">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G86" s="10">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H86" s="10">
-        <v>121024</v>
+        <v>122104</v>
       </c>
       <c r="I86" s="10">
-        <v>24729</v>
+        <v>24950</v>
       </c>
       <c r="J86" s="10">
-        <v>3111</v>
+        <v>3156</v>
       </c>
       <c r="K86" s="10">
-        <v>1016</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="87" spans="2:11" hidden="1">
@@ -3499,31 +3503,31 @@
         <v>2018</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D87" s="8">
-        <v>16665</v>
+        <v>16818</v>
       </c>
       <c r="E87" s="8">
-        <v>2355</v>
+        <v>2382</v>
       </c>
       <c r="F87" s="8">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G87" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H87" s="8">
-        <v>120510</v>
+        <v>121579</v>
       </c>
       <c r="I87" s="8">
-        <v>24592</v>
+        <v>24817</v>
       </c>
       <c r="J87" s="8">
-        <v>3094</v>
+        <v>3133</v>
       </c>
       <c r="K87" s="8">
-        <v>1005</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="88" spans="2:11" hidden="1">
@@ -3531,31 +3535,31 @@
         <v>2018</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" s="10">
-        <v>16612</v>
+        <v>16753</v>
       </c>
       <c r="E88" s="10">
-        <v>2334</v>
+        <v>2373</v>
       </c>
       <c r="F88" s="10">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G88" s="10">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H88" s="10">
-        <v>120020</v>
+        <v>121024</v>
       </c>
       <c r="I88" s="10">
-        <v>24500</v>
+        <v>24729</v>
       </c>
       <c r="J88" s="10">
-        <v>3076</v>
+        <v>3111</v>
       </c>
       <c r="K88" s="10">
-        <v>1003</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="89" spans="2:11" hidden="1">
@@ -3563,31 +3567,31 @@
         <v>2018</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89" s="8">
-        <v>16553</v>
+        <v>16665</v>
       </c>
       <c r="E89" s="8">
-        <v>2326</v>
+        <v>2355</v>
       </c>
       <c r="F89" s="8">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G89" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H89" s="8">
-        <v>119627</v>
+        <v>120510</v>
       </c>
       <c r="I89" s="8">
-        <v>24395</v>
+        <v>24592</v>
       </c>
       <c r="J89" s="8">
-        <v>3068</v>
+        <v>3094</v>
       </c>
       <c r="K89" s="8">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="90" spans="2:11" hidden="1">
@@ -3595,31 +3599,31 @@
         <v>2018</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D90" s="10">
-        <v>16474</v>
+        <v>16612</v>
       </c>
       <c r="E90" s="10">
-        <v>2306</v>
+        <v>2334</v>
       </c>
       <c r="F90" s="10">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G90" s="10">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H90" s="10">
-        <v>119076</v>
+        <v>120020</v>
       </c>
       <c r="I90" s="10">
-        <v>24234</v>
+        <v>24500</v>
       </c>
       <c r="J90" s="10">
-        <v>3031</v>
+        <v>3076</v>
       </c>
       <c r="K90" s="10">
-        <v>994</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="91" spans="2:11" hidden="1">
@@ -3627,31 +3631,31 @@
         <v>2018</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D91" s="8">
-        <v>16403</v>
+        <v>16553</v>
       </c>
       <c r="E91" s="8">
-        <v>2307</v>
+        <v>2326</v>
       </c>
       <c r="F91" s="8">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="G91" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H91" s="8">
-        <v>118573</v>
+        <v>119627</v>
       </c>
       <c r="I91" s="8">
-        <v>24067</v>
+        <v>24395</v>
       </c>
       <c r="J91" s="8">
-        <v>3016</v>
+        <v>3068</v>
       </c>
       <c r="K91" s="8">
-        <v>982</v>
+        <v>998</v>
       </c>
     </row>
     <row r="92" spans="2:11" hidden="1">
@@ -3659,31 +3663,31 @@
         <v>2018</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D92" s="10">
-        <v>16312</v>
+        <v>16474</v>
       </c>
       <c r="E92" s="10">
-        <v>2280</v>
+        <v>2306</v>
       </c>
       <c r="F92" s="10">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G92" s="10">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H92" s="10">
-        <v>118068</v>
+        <v>119076</v>
       </c>
       <c r="I92" s="10">
-        <v>23912</v>
+        <v>24234</v>
       </c>
       <c r="J92" s="10">
-        <v>3000</v>
+        <v>3031</v>
       </c>
       <c r="K92" s="10">
-        <v>971</v>
+        <v>994</v>
       </c>
     </row>
     <row r="93" spans="2:11" hidden="1">
@@ -3691,45 +3695,109 @@
         <v>2018</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D93" s="8">
-        <v>16235</v>
+        <v>16403</v>
       </c>
       <c r="E93" s="8">
-        <v>2282</v>
+        <v>2307</v>
       </c>
       <c r="F93" s="8">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G93" s="8">
         <v>164</v>
       </c>
       <c r="H93" s="8">
+        <v>118573</v>
+      </c>
+      <c r="I93" s="8">
+        <v>24067</v>
+      </c>
+      <c r="J93" s="8">
+        <v>3016</v>
+      </c>
+      <c r="K93" s="8">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" hidden="1">
+      <c r="B94" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="10">
+        <v>16312</v>
+      </c>
+      <c r="E94" s="10">
+        <v>2280</v>
+      </c>
+      <c r="F94" s="10">
+        <v>355</v>
+      </c>
+      <c r="G94" s="10">
+        <v>163</v>
+      </c>
+      <c r="H94" s="10">
+        <v>118068</v>
+      </c>
+      <c r="I94" s="10">
+        <v>23912</v>
+      </c>
+      <c r="J94" s="10">
+        <v>3000</v>
+      </c>
+      <c r="K94" s="10">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" hidden="1">
+      <c r="B95" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="8">
+        <v>16235</v>
+      </c>
+      <c r="E95" s="8">
+        <v>2282</v>
+      </c>
+      <c r="F95" s="8">
+        <v>350</v>
+      </c>
+      <c r="G95" s="8">
+        <v>164</v>
+      </c>
+      <c r="H95" s="8">
         <v>117820</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I95" s="8">
         <v>23812</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J95" s="8">
         <v>2985</v>
       </c>
-      <c r="K93" s="8">
+      <c r="K95" s="8">
         <v>967</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="3" t="s">
+    <row r="96" spans="2:11">
+      <c r="B96" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="3" t="s">
+    <row r="97" spans="2:11">
+      <c r="B97" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
-      <c r="K96" s="6"/>
+    <row r="98" spans="2:11">
+      <c r="K98" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961C7056-41DE-469D-870F-447672361682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2865B1-70F6-4E9B-B242-C170F2959534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_15.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
   <si>
     <t>Empresas permisionarios de pasaje</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K95" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K95" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K96" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K96" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -827,9 +827,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:M98"/>
+  <dimension ref="B2:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -907,2897 +907,2929 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>2025</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <v>22806</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3575</v>
+      </c>
+      <c r="F6" s="8">
+        <v>550</v>
+      </c>
+      <c r="G6" s="8">
+        <v>231</v>
+      </c>
+      <c r="H6" s="8">
+        <v>176161</v>
+      </c>
+      <c r="I6" s="8">
+        <v>37186</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5100</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D7" s="10">
         <v>22751</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E7" s="10">
         <v>3558</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>542</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>232</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H7" s="10">
         <v>175746</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I7" s="10">
         <v>37123</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J7" s="10">
         <v>5095</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K7" s="10">
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="7">
+    <row r="8" spans="2:13">
+      <c r="B8" s="7">
         <v>2025</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>22689</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>3537</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="8">
         <v>549</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8" s="8">
         <v>228</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H8" s="8">
         <v>174987</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8" s="8">
         <v>36850</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J8" s="8">
         <v>5020</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K8" s="8">
         <v>1501</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="9">
+    <row r="9" spans="2:13">
+      <c r="B9" s="9">
         <v>2025</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D9" s="10">
         <v>22639</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="10">
         <v>3528</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>553</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G9" s="10">
         <v>226</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H9" s="10">
         <v>174556</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I9" s="10">
         <v>36699</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J9" s="10">
         <v>4986</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K9" s="10">
         <v>1492</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="7">
+    <row r="10" spans="2:13">
+      <c r="B10" s="7">
         <v>2025</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>22561</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>3520</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>554</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>226</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="8">
         <v>173913</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <v>36543</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J10" s="8">
         <v>4955</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K10" s="8">
         <v>1488</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="9">
+    <row r="11" spans="2:13">
+      <c r="B11" s="9">
         <v>2025</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="10">
         <v>22503</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <v>3507</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <v>555</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G11" s="10">
         <v>227</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H11" s="10">
         <v>173335</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I11" s="10">
         <v>36398</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J11" s="10">
         <v>4921</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K11" s="10">
         <v>1482</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="11">
+    <row r="12" spans="2:13">
+      <c r="B12" s="11">
         <v>2025</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <v>22455</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>3502</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F12" s="12">
         <v>555</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>228</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H12" s="12">
         <v>172885</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I12" s="12">
         <v>36217</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J12" s="12">
         <v>4897</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K12" s="12">
         <v>1474</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="9">
+    <row r="13" spans="2:13">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>22428</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>3496</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>554</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G13" s="10">
         <v>227</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H13" s="10">
         <v>172611</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I13" s="10">
         <v>36098</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J13" s="10">
         <v>4868</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K13" s="10">
         <v>1468</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="7">
+    <row r="14" spans="2:13">
+      <c r="B14" s="7">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>22336</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>3475</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <v>549</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>225</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>172070</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <v>35927</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J14" s="8">
         <v>4832</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K14" s="8">
         <v>1464</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="9">
+    <row r="15" spans="2:13">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>22266</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <v>3453</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>553</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G15" s="10">
         <v>222</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H15" s="10">
         <v>171475</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I15" s="10">
         <v>35741</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J15" s="10">
         <v>4799</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K15" s="10">
         <v>1462</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="7">
+    <row r="16" spans="2:13">
+      <c r="B16" s="7">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>22164</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>3444</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <v>550</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>222</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <v>170782</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <v>35496</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J16" s="8">
         <v>4768</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K16" s="8">
         <v>1447</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="9">
+    <row r="17" spans="2:11">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="10">
         <v>22054</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>3448</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>545</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="10">
         <v>221</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H17" s="10">
         <v>170125</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I17" s="10">
         <v>35287</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J17" s="10">
         <v>4743</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K17" s="10">
         <v>1439</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="7">
+    <row r="18" spans="2:11">
+      <c r="B18" s="7">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>21977</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>3439</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>539</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>222</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <v>169471</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <v>35095</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J18" s="8">
         <v>4695</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K18" s="8">
         <v>1433</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="9">
+    <row r="19" spans="2:11">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="10">
         <v>21900</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <v>3414</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>541</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G19" s="10">
         <v>222</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H19" s="10">
         <v>168764</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I19" s="10">
         <v>34901</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J19" s="10">
         <v>4637</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K19" s="10">
         <v>1428</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="7">
+    <row r="20" spans="2:11">
+      <c r="B20" s="7">
         <v>2024</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>21844</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>3399</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>540</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>221</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H20" s="8">
         <v>167901</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I20" s="8">
         <v>34526</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="8">
         <v>4584</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K20" s="8">
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="9">
+    <row r="21" spans="2:11">
+      <c r="B21" s="9">
         <v>2024</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D21" s="10">
         <v>21782</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E21" s="10">
         <v>3381</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>537</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>221</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H21" s="10">
         <v>167537</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I21" s="10">
         <v>34455</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J21" s="10">
         <v>4564</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K21" s="10">
         <v>1401</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="7">
+    <row r="22" spans="2:11">
+      <c r="B22" s="7">
         <v>2024</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>21711</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>3370</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="8">
         <v>537</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>216</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>166979</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22" s="8">
         <v>34249</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="8">
         <v>4522</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K22" s="8">
         <v>1391</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="9">
+    <row r="23" spans="2:11">
+      <c r="B23" s="9">
         <v>2024</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="10">
         <v>21675</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>3345</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>538</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G23" s="10">
         <v>215</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H23" s="10">
         <v>166478</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I23" s="10">
         <v>34057</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J23" s="10">
         <v>4499</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K23" s="10">
         <v>1379</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="11">
+    <row r="24" spans="2:11">
+      <c r="B24" s="11">
         <v>2024</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>21635</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E24" s="12">
         <v>3332</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F24" s="12">
         <v>535</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <v>212</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H24" s="12">
         <v>166076</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I24" s="12">
         <v>33897</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J24" s="12">
         <v>4471</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K24" s="12">
         <v>1371</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1">
-      <c r="B24" s="13">
+    <row r="25" spans="2:11" hidden="1">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <v>21607</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E25" s="14">
         <v>3331</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F25" s="14">
         <v>527</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G25" s="14">
         <v>213</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <v>165843</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I25" s="14">
         <v>33744</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J25" s="14">
         <v>4441</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K25" s="14">
         <v>1370</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="7">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="7">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>21539</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>3304</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="8">
         <v>524</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>215</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="8">
         <v>165469</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I26" s="8">
         <v>33558</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J26" s="8">
         <v>4409</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K26" s="8">
         <v>1361</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D27" s="10">
         <v>21461</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>3281</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F27" s="10">
         <v>527</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G27" s="10">
         <v>213</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H27" s="10">
         <v>164931</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I27" s="10">
         <v>33376</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J27" s="10">
         <v>4381</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K27" s="10">
         <v>1353</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="7">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="7">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>21397</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>3274</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="8">
         <v>524</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>214</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="8">
         <v>164459</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="8">
         <v>33219</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28" s="8">
         <v>4371</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K28" s="8">
         <v>1339</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D29" s="10">
         <v>21333</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>3249</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>520</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G29" s="10">
         <v>213</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H29" s="10">
         <v>164018</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I29" s="10">
         <v>33086</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J29" s="10">
         <v>4345</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K29" s="10">
         <v>1335</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="7">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="7">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>21275</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>3244</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="8">
         <v>515</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>214</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="8">
         <v>163591</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I30" s="8">
         <v>32899</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J30" s="8">
         <v>4314</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K30" s="8">
         <v>1333</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>21204</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>3230</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>515</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G31" s="10">
         <v>213</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H31" s="10">
         <v>163109</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I31" s="10">
         <v>32765</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J31" s="10">
         <v>4282</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K31" s="10">
         <v>1324</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="7">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="7">
         <v>2023</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>21106</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <v>3207</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="8">
         <v>515</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <v>214</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H32" s="8">
         <v>162727</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I32" s="8">
         <v>32622</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J32" s="8">
         <v>4264</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K32" s="8">
         <v>1317</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="9">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="9">
         <v>2023</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <v>21068</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>3196</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>508</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G33" s="10">
         <v>215</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H33" s="10">
         <v>162289</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I33" s="10">
         <v>32483</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J33" s="10">
         <v>4234</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K33" s="10">
         <v>1308</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="7">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="7">
         <v>2023</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>21005</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>3186</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="8">
         <v>509</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <v>213</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H34" s="8">
         <v>161844</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I34" s="8">
         <v>32370</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J34" s="8">
         <v>4232</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K34" s="8">
         <v>1304</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="9">
         <v>2023</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D35" s="10">
         <v>20929</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>3165</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>506</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G35" s="10">
         <v>212</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H35" s="10">
         <v>161330</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I35" s="10">
         <v>32261</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J35" s="10">
         <v>4201</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K35" s="10">
         <v>1299</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="11">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="11">
         <v>2023</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <v>20899</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E36" s="12">
         <v>3142</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F36" s="12">
         <v>506</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G36" s="12">
         <v>211</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H36" s="12">
         <v>161006</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I36" s="12">
         <v>32141</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J36" s="12">
         <v>4183</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K36" s="12">
         <v>1295</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="13">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <v>20835</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="14">
         <v>3137</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="14">
         <v>506</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <v>209</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H37" s="14">
         <v>160773</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I37" s="14">
         <v>32040</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J37" s="14">
         <v>4173</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K37" s="14">
         <v>1286</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="7">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="7">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <v>20752</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="8">
         <v>3107</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="8">
         <v>505</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <v>211</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H38" s="8">
         <v>160470</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I38" s="8">
         <v>31958</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J38" s="8">
         <v>4162</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K38" s="8">
         <v>1280</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D39" s="10">
         <v>20711</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E39" s="10">
         <v>3095</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F39" s="10">
         <v>501</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G39" s="10">
         <v>210</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H39" s="10">
         <v>160213</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I39" s="10">
         <v>31874</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J39" s="10">
         <v>4145</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K39" s="10">
         <v>1274</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="7">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="7">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>20657</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="8">
         <v>3083</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="8">
         <v>499</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <v>209</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H40" s="8">
         <v>159867</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I40" s="8">
         <v>31794</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J40" s="8">
         <v>4135</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K40" s="8">
         <v>1270</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D41" s="10">
         <v>20751</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <v>3106</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>501</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G41" s="10">
         <v>211</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H41" s="10">
         <v>159400</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I41" s="10">
         <v>31688</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J41" s="10">
         <v>4111</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K41" s="10">
         <v>1260</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="7">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="7">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>20551</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E42" s="8">
         <v>3046</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F42" s="8">
         <v>490</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <v>208</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H42" s="8">
         <v>158821</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I42" s="8">
         <v>31547</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J42" s="8">
         <v>4081</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K42" s="8">
         <v>1253</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D43" s="10">
         <v>20522</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>3038</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <v>490</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G43" s="10">
         <v>207</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H43" s="10">
         <v>158518</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I43" s="10">
         <v>31468</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J43" s="10">
         <v>4073</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K43" s="10">
         <v>1251</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="7">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="7">
         <v>2022</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D44" s="8">
         <v>20484</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E44" s="8">
         <v>3026</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F44" s="8">
         <v>488</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G44" s="8">
         <v>206</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H44" s="8">
         <v>158024</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I44" s="8">
         <v>31395</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J44" s="8">
         <v>4062</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K44" s="8">
         <v>1250</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="9">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="9">
         <v>2022</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D45" s="10">
         <v>20432</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E45" s="10">
         <v>3010</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>487</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>206</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H45" s="10">
         <v>157470</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I45" s="10">
         <v>31286</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J45" s="10">
         <v>4046</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K45" s="10">
         <v>1244</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="7">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="7">
         <v>2022</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>20400</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E46" s="8">
         <v>3000</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F46" s="8">
         <v>487</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="8">
         <v>207</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H46" s="8">
         <v>156952</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I46" s="8">
         <v>31147</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J46" s="8">
         <v>4034</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K46" s="8">
         <v>1237</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="9">
         <v>2022</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D47" s="10">
         <v>20318</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>2994</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>489</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G47" s="10">
         <v>204</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H47" s="10">
         <v>156255</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I47" s="10">
         <v>31032</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J47" s="10">
         <v>4013</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K47" s="10">
         <v>1234</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="11">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="11">
         <v>2022</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>20280</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E48" s="12">
         <v>2988</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F48" s="12">
         <v>491</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G48" s="12">
         <v>203</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H48" s="12">
         <v>155756</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I48" s="12">
         <v>30919</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J48" s="12">
         <v>4015</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K48" s="12">
         <v>1222</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="13">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <v>20263</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E49" s="14">
         <v>2989</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>487</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G49" s="14">
         <v>203</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H49" s="14">
         <v>155476</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I49" s="14">
         <v>30843</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J49" s="14">
         <v>4009</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K49" s="14">
         <v>1222</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="7">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="7">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <v>20206</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E50" s="8">
         <v>2973</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F50" s="8">
         <v>485</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G50" s="8">
         <v>203</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H50" s="8">
         <v>154922</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I50" s="8">
         <v>30721</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J50" s="8">
         <v>3992</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K50" s="8">
         <v>1216</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D51" s="10">
         <v>20146</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E51" s="10">
         <v>2967</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="10">
         <v>483</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G51" s="10">
         <v>203</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H51" s="10">
         <v>154593</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I51" s="10">
         <v>30634</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J51" s="10">
         <v>3971</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K51" s="10">
         <v>1218</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="7">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="7">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <v>20103</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E52" s="8">
         <v>2962</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F52" s="8">
         <v>483</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="8">
         <v>201</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H52" s="8">
         <v>154071</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I52" s="8">
         <v>30444</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J52" s="8">
         <v>3948</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K52" s="8">
         <v>1214</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D53" s="10">
         <v>20021</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E53" s="10">
         <v>2931</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F53" s="10">
         <v>477</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G53" s="10">
         <v>205</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H53" s="10">
         <v>153674</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I53" s="10">
         <v>30371</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J53" s="10">
         <v>3913</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K53" s="10">
         <v>1220</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="7">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="7">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <v>20037</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E54" s="8">
         <v>2938</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F54" s="8">
         <v>478</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G54" s="8">
         <v>205</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H54" s="8">
         <v>153148</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I54" s="8">
         <v>30163</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J54" s="8">
         <v>3889</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K54" s="8">
         <v>1215</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D55" s="10">
         <v>19989</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E55" s="10">
         <v>2916</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>479</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G55" s="10">
         <v>204</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H55" s="10">
         <v>152772</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I55" s="10">
         <v>30071</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J55" s="10">
         <v>3878</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K55" s="10">
         <v>1211</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="7">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="7">
         <v>2021</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="8">
         <v>19946</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E56" s="8">
         <v>2902</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F56" s="8">
         <v>478</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G56" s="8">
         <v>204</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H56" s="8">
         <v>152274</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I56" s="8">
         <v>29923</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J56" s="8">
         <v>3848</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K56" s="8">
         <v>1208</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="9">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="9">
         <v>2021</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D57" s="10">
         <v>19923</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E57" s="10">
         <v>2897</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>476</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G57" s="10">
         <v>205</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H57" s="10">
         <v>151877</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I57" s="10">
         <v>29764</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J57" s="10">
         <v>3855</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K57" s="10">
         <v>1197</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="7">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="7">
         <v>2021</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <v>19894</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="8">
         <v>2881</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F58" s="8">
         <v>475</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="8">
         <v>209</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H58" s="8">
         <v>151428</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I58" s="8">
         <v>29625</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J58" s="8">
         <v>3837</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K58" s="8">
         <v>1196</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="9">
         <v>2021</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="10">
         <v>19844</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>2870</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>478</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G59" s="10">
         <v>208</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H59" s="10">
         <v>150941</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I59" s="10">
         <v>29527</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J59" s="10">
         <v>3793</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K59" s="10">
         <v>1186</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="11">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="11">
         <v>2021</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <v>19809</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E60" s="12">
         <v>2878</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F60" s="12">
         <v>478</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G60" s="12">
         <v>210</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H60" s="12">
         <v>150642</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I60" s="12">
         <v>29399</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J60" s="12">
         <v>3775</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K60" s="12">
         <v>1181</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="13">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <v>19806</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E61" s="14">
         <v>2877</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F61" s="14">
         <v>477</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G61" s="14">
         <v>210</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H61" s="14">
         <v>150512</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I61" s="14">
         <v>29328</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J61" s="14">
         <v>3753</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="14">
         <v>1181</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="7">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="7">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <v>19746</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <v>2866</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F62" s="8">
         <v>480</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="8">
         <v>208</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H62" s="8">
         <v>149978</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I62" s="8">
         <v>29202</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J62" s="8">
         <v>3724</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K62" s="8">
         <v>1177</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="10">
         <v>19711</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E63" s="10">
         <v>2853</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F63" s="10">
         <v>483</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G63" s="10">
         <v>207</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H63" s="10">
         <v>149557</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I63" s="10">
         <v>29064</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J63" s="10">
         <v>3720</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K63" s="10">
         <v>1169</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="7">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="7">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <v>19666</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="8">
         <v>2846</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F64" s="8">
         <v>481</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="8">
         <v>209</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H64" s="8">
         <v>149333</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I64" s="8">
         <v>28918</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J64" s="8">
         <v>3682</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K64" s="8">
         <v>1165</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <v>19641</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E65" s="10">
         <v>2841</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <v>482</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G65" s="10">
         <v>209</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H65" s="10">
         <v>149165</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I65" s="10">
         <v>28805</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J65" s="10">
         <v>3675</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K65" s="10">
         <v>1160</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="7">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="7">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <v>19637</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E66" s="8">
         <v>2839</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F66" s="8">
         <v>481</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G66" s="8">
         <v>209</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H66" s="8">
         <v>149034</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I66" s="8">
         <v>28738</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J66" s="8">
         <v>3651</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K66" s="8">
         <v>1156</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <v>19635</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E67" s="10">
         <v>2839</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>481</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G67" s="10">
         <v>208</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H67" s="10">
         <v>148936</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I67" s="10">
         <v>28662</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J67" s="10">
         <v>3641</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K67" s="10">
         <v>1154</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="7">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="7">
         <v>2020</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="8">
         <v>19634</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E68" s="8">
         <v>2839</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F68" s="8">
         <v>481</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G68" s="8">
         <v>207</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H68" s="8">
         <v>148915</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I68" s="8">
         <v>28646</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J68" s="8">
         <v>3645</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K68" s="8">
         <v>1152</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="9">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="9">
         <v>2020</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <v>19634</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E69" s="10">
         <v>2839</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>481</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G69" s="10">
         <v>207</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H69" s="10">
         <v>148909</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I69" s="10">
         <v>28641</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J69" s="10">
         <v>3645</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K69" s="10">
         <v>1151</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="7">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="7">
         <v>2020</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <v>19633</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E70" s="8">
         <v>2839</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F70" s="8">
         <v>481</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="8">
         <v>207</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H70" s="8">
         <v>148896</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I70" s="8">
         <v>28639</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J70" s="8">
         <v>3647</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K70" s="8">
         <v>1150</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="9">
         <v>2020</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>19600</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>2827</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>479</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G71" s="10">
         <v>207</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H71" s="10">
         <v>148599</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I71" s="10">
         <v>28517</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J71" s="10">
         <v>3624</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K71" s="10">
         <v>1150</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="11">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="11">
         <v>2020</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <v>19541</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E72" s="12">
         <v>2817</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F72" s="12">
         <v>476</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="12">
         <v>207</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H72" s="12">
         <v>148188</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I72" s="12">
         <v>28401</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J72" s="12">
         <v>3614</v>
       </c>
-      <c r="K71" s="12">
+      <c r="K72" s="12">
         <v>1147</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="13">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <v>19514</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E73" s="14">
         <v>2807</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F73" s="14">
         <v>477</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="14">
         <v>206</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H73" s="14">
         <v>147966</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I73" s="14">
         <v>28318</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J73" s="14">
         <v>3601</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K73" s="14">
         <v>1146</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="7">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="7">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <v>19374</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>2784</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F74" s="8">
         <v>474</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <v>205</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H74" s="8">
         <v>147552</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I74" s="8">
         <v>28216</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J74" s="8">
         <v>3578</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K74" s="8">
         <v>1143</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <v>19270</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E75" s="10">
         <v>2775</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <v>473</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G75" s="10">
         <v>203</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H75" s="10">
         <v>147145</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I75" s="10">
         <v>28082</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J75" s="10">
         <v>3566</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K75" s="10">
         <v>1131</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="7">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="7">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>18283</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E76" s="8">
         <v>2541</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F76" s="8">
         <v>429</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="8">
         <v>173</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H76" s="8">
         <v>135900</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I76" s="8">
         <v>26071</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J76" s="8">
         <v>3315</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K76" s="8">
         <v>1067</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <v>18210</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E77" s="10">
         <v>2531</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <v>428</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G77" s="10">
         <v>174</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H77" s="10">
         <v>135525</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I77" s="10">
         <v>25971</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J77" s="10">
         <v>3310</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K77" s="10">
         <v>1060</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="7">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="7">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <v>18415</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="8">
         <v>2539</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F78" s="8">
         <v>433</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G78" s="8">
         <v>170</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H78" s="8">
         <v>135981</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I78" s="8">
         <v>25844</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J78" s="8">
         <v>3256</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K78" s="8">
         <v>1052</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D79" s="10">
         <v>18061</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>2503</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>431</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G79" s="10">
         <v>171</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H79" s="10">
         <v>134678</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I79" s="10">
         <v>25745</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J79" s="10">
         <v>3256</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K79" s="10">
         <v>1054</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="7">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="7">
         <v>2019</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <v>17466</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="8">
         <v>2457</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F80" s="8">
         <v>414</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="8">
         <v>174</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H80" s="8">
         <v>124831</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I80" s="8">
         <v>25684</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J80" s="8">
         <v>3289</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K80" s="8">
         <v>1066</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="9">
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="9">
         <v>2019</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D81" s="10">
         <v>17400</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E81" s="10">
         <v>2444</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <v>408</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G81" s="10">
         <v>174</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H81" s="10">
         <v>124413</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I81" s="10">
         <v>25571</v>
       </c>
-      <c r="J80" s="10">
+      <c r="J81" s="10">
         <v>3256</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K81" s="10">
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="7">
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="7">
         <v>2019</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <v>17310</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="8">
         <v>2439</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F82" s="8">
         <v>406</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="8">
         <v>172</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H82" s="8">
         <v>124028</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I82" s="8">
         <v>25443</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J82" s="8">
         <v>3244</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K82" s="8">
         <v>1056</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="9">
         <v>2019</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D83" s="10">
         <v>17252</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E83" s="10">
         <v>2424</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>401</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G83" s="10">
         <v>171</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H83" s="10">
         <v>123619</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I83" s="10">
         <v>25350</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J83" s="10">
         <v>3211</v>
       </c>
-      <c r="K82" s="10">
+      <c r="K83" s="10">
         <v>1050</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="11">
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="11">
         <v>2019</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <v>17187</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E84" s="12">
         <v>2415</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F84" s="12">
         <v>397</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="12">
         <v>170</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H84" s="12">
         <v>123279</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I84" s="12">
         <v>25269</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J84" s="12">
         <v>3198</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K84" s="12">
         <v>1045</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1">
-      <c r="B84" s="9">
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D85" s="10">
         <v>17176</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E85" s="10">
         <v>2409</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>394</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G85" s="10">
         <v>170</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H85" s="10">
         <v>123073</v>
       </c>
-      <c r="I84" s="10">
+      <c r="I85" s="10">
         <v>25189</v>
       </c>
-      <c r="J84" s="10">
+      <c r="J85" s="10">
         <v>3183</v>
       </c>
-      <c r="K84" s="10">
+      <c r="K85" s="10">
         <v>1042</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1">
-      <c r="B85" s="7">
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <v>17063</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E86" s="8">
         <v>2394</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F86" s="8">
         <v>392</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="8">
         <v>167</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H86" s="8">
         <v>122612</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I86" s="8">
         <v>25091</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J86" s="8">
         <v>3170</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K86" s="8">
         <v>1035</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1">
-      <c r="B86" s="9">
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D87" s="10">
         <v>16927</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E87" s="10">
         <v>2392</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <v>382</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G87" s="10">
         <v>168</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H87" s="10">
         <v>122104</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I87" s="10">
         <v>24950</v>
       </c>
-      <c r="J86" s="10">
+      <c r="J87" s="10">
         <v>3156</v>
       </c>
-      <c r="K86" s="10">
+      <c r="K87" s="10">
         <v>1026</v>
       </c>
     </row>
-    <row r="87" spans="2:11" hidden="1">
-      <c r="B87" s="7">
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <v>16818</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E88" s="8">
         <v>2382</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F88" s="8">
         <v>382</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G88" s="8">
         <v>168</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H88" s="8">
         <v>121579</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I88" s="8">
         <v>24817</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J88" s="8">
         <v>3133</v>
       </c>
-      <c r="K87" s="8">
+      <c r="K88" s="8">
         <v>1019</v>
       </c>
     </row>
-    <row r="88" spans="2:11" hidden="1">
-      <c r="B88" s="9">
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C89" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D89" s="10">
         <v>16753</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E89" s="10">
         <v>2373</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F89" s="10">
         <v>373</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G89" s="10">
         <v>165</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H89" s="10">
         <v>121024</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I89" s="10">
         <v>24729</v>
       </c>
-      <c r="J88" s="10">
+      <c r="J89" s="10">
         <v>3111</v>
       </c>
-      <c r="K88" s="10">
+      <c r="K89" s="10">
         <v>1016</v>
       </c>
     </row>
-    <row r="89" spans="2:11" hidden="1">
-      <c r="B89" s="7">
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <v>16665</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E90" s="8">
         <v>2355</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F90" s="8">
         <v>371</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G90" s="8">
         <v>165</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H90" s="8">
         <v>120510</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I90" s="8">
         <v>24592</v>
       </c>
-      <c r="J89" s="8">
+      <c r="J90" s="8">
         <v>3094</v>
       </c>
-      <c r="K89" s="8">
+      <c r="K90" s="8">
         <v>1005</v>
       </c>
     </row>
-    <row r="90" spans="2:11" hidden="1">
-      <c r="B90" s="9">
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="9">
         <v>2018</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D91" s="10">
         <v>16612</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E91" s="10">
         <v>2334</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F91" s="10">
         <v>369</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G91" s="10">
         <v>168</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H91" s="10">
         <v>120020</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I91" s="10">
         <v>24500</v>
       </c>
-      <c r="J90" s="10">
+      <c r="J91" s="10">
         <v>3076</v>
       </c>
-      <c r="K90" s="10">
+      <c r="K91" s="10">
         <v>1003</v>
       </c>
     </row>
-    <row r="91" spans="2:11" hidden="1">
-      <c r="B91" s="7">
+    <row r="92" spans="2:11" hidden="1">
+      <c r="B92" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <v>16553</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E92" s="8">
         <v>2326</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F92" s="8">
         <v>368</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G92" s="8">
         <v>167</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H92" s="8">
         <v>119627</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I92" s="8">
         <v>24395</v>
       </c>
-      <c r="J91" s="8">
+      <c r="J92" s="8">
         <v>3068</v>
       </c>
-      <c r="K91" s="8">
+      <c r="K92" s="8">
         <v>998</v>
       </c>
     </row>
-    <row r="92" spans="2:11" hidden="1">
-      <c r="B92" s="9">
+    <row r="93" spans="2:11" hidden="1">
+      <c r="B93" s="9">
         <v>2018</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D93" s="10">
         <v>16474</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E93" s="10">
         <v>2306</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F93" s="10">
         <v>363</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G93" s="10">
         <v>166</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H93" s="10">
         <v>119076</v>
       </c>
-      <c r="I92" s="10">
+      <c r="I93" s="10">
         <v>24234</v>
       </c>
-      <c r="J92" s="10">
+      <c r="J93" s="10">
         <v>3031</v>
       </c>
-      <c r="K92" s="10">
+      <c r="K93" s="10">
         <v>994</v>
       </c>
     </row>
-    <row r="93" spans="2:11" hidden="1">
-      <c r="B93" s="7">
+    <row r="94" spans="2:11" hidden="1">
+      <c r="B94" s="7">
         <v>2018</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D94" s="8">
         <v>16403</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E94" s="8">
         <v>2307</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F94" s="8">
         <v>356</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G94" s="8">
         <v>164</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H94" s="8">
         <v>118573</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I94" s="8">
         <v>24067</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J94" s="8">
         <v>3016</v>
       </c>
-      <c r="K93" s="8">
+      <c r="K94" s="8">
         <v>982</v>
       </c>
     </row>
-    <row r="94" spans="2:11" hidden="1">
-      <c r="B94" s="9">
+    <row r="95" spans="2:11" hidden="1">
+      <c r="B95" s="9">
         <v>2018</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C95" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D95" s="10">
         <v>16312</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E95" s="10">
         <v>2280</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F95" s="10">
         <v>355</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G95" s="10">
         <v>163</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H95" s="10">
         <v>118068</v>
       </c>
-      <c r="I94" s="10">
+      <c r="I95" s="10">
         <v>23912</v>
       </c>
-      <c r="J94" s="10">
+      <c r="J95" s="10">
         <v>3000</v>
       </c>
-      <c r="K94" s="10">
+      <c r="K95" s="10">
         <v>971</v>
       </c>
     </row>
-    <row r="95" spans="2:11" hidden="1">
-      <c r="B95" s="7">
+    <row r="96" spans="2:11" hidden="1">
+      <c r="B96" s="7">
         <v>2018</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D96" s="8">
         <v>16235</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E96" s="8">
         <v>2282</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F96" s="8">
         <v>350</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G96" s="8">
         <v>164</v>
       </c>
-      <c r="H95" s="8">
+      <c r="H96" s="8">
         <v>117820</v>
       </c>
-      <c r="I95" s="8">
+      <c r="I96" s="8">
         <v>23812</v>
       </c>
-      <c r="J95" s="8">
+      <c r="J96" s="8">
         <v>2985</v>
       </c>
-      <c r="K95" s="8">
+      <c r="K96" s="8">
         <v>967</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
-      <c r="K98" s="6"/>
+    <row r="99" spans="2:11">
+      <c r="K99" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Empresas_Permisionarias.xlsx
+++ b/Empresas_Permisionarias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2865B1-70F6-4E9B-B242-C170F2959534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E1CD43-79BA-4EEA-9F33-F1A0BAB3AAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="27">
   <si>
     <t>Empresas permisionarios de pasaje</t>
   </si>
@@ -119,7 +119,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K96" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="B5:K96" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}" name="Tabla1" displayName="Tabla1" ref="B5:K97" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="B5:K97" xr:uid="{3CC595C0-7FE3-4730-A4DB-BCC8B5F31EE9}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -827,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:M99"/>
+  <dimension ref="B2:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -907,2929 +907,2961 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10">
+        <v>22860</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3585</v>
+      </c>
+      <c r="F6" s="10">
+        <v>552</v>
+      </c>
+      <c r="G6" s="10">
+        <v>230</v>
+      </c>
+      <c r="H6" s="10">
+        <v>176736</v>
+      </c>
+      <c r="I6" s="10">
+        <v>37338</v>
+      </c>
+      <c r="J6" s="10">
+        <v>5144</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="7">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>22806</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>3575</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F7" s="8">
         <v>550</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="8">
         <v>231</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7" s="8">
         <v>176161</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I7" s="8">
         <v>37186</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7" s="8">
         <v>5100</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K7" s="8">
         <v>1501</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="9">
+    <row r="8" spans="2:13">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D8" s="10">
         <v>22751</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>3558</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>542</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>232</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H8" s="10">
         <v>175746</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I8" s="10">
         <v>37123</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J8" s="10">
         <v>5095</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K8" s="10">
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="7">
+    <row r="9" spans="2:13">
+      <c r="B9" s="7">
         <v>2025</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <v>22689</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>3537</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="8">
         <v>549</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="8">
         <v>228</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="8">
         <v>174987</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="8">
         <v>36850</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9" s="8">
         <v>5020</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K9" s="8">
         <v>1501</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="9">
+    <row r="10" spans="2:13">
+      <c r="B10" s="9">
         <v>2025</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="10">
         <v>22639</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>3528</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <v>553</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>226</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H10" s="10">
         <v>174556</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I10" s="10">
         <v>36699</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J10" s="10">
         <v>4986</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K10" s="10">
         <v>1492</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="7">
+    <row r="11" spans="2:13">
+      <c r="B11" s="7">
         <v>2025</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>22561</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>3520</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="8">
         <v>554</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <v>226</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="8">
         <v>173913</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="8">
         <v>36543</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J11" s="8">
         <v>4955</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K11" s="8">
         <v>1488</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="9">
+    <row r="12" spans="2:13">
+      <c r="B12" s="9">
         <v>2025</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>22503</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>3507</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>555</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G12" s="10">
         <v>227</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H12" s="10">
         <v>173335</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I12" s="10">
         <v>36398</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J12" s="10">
         <v>4921</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K12" s="10">
         <v>1482</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="11">
+    <row r="13" spans="2:13">
+      <c r="B13" s="11">
         <v>2025</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <v>22455</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>3502</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <v>555</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <v>228</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="12">
         <v>172885</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I13" s="12">
         <v>36217</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J13" s="12">
         <v>4897</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K13" s="12">
         <v>1474</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="9">
+    <row r="14" spans="2:13">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>22428</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <v>3496</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <v>554</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="10">
         <v>227</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H14" s="10">
         <v>172611</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I14" s="10">
         <v>36098</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J14" s="10">
         <v>4868</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K14" s="10">
         <v>1468</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="7">
+    <row r="15" spans="2:13">
+      <c r="B15" s="7">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>22336</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>3475</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <v>549</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <v>225</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="8">
         <v>172070</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <v>35927</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J15" s="8">
         <v>4832</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K15" s="8">
         <v>1464</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="9">
+    <row r="16" spans="2:13">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="10">
         <v>22266</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="10">
         <v>3453</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <v>553</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>222</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H16" s="10">
         <v>171475</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I16" s="10">
         <v>35741</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J16" s="10">
         <v>4799</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K16" s="10">
         <v>1462</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="7">
+    <row r="17" spans="2:11">
+      <c r="B17" s="7">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>22164</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>3444</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <v>550</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>222</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <v>170782</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <v>35496</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J17" s="8">
         <v>4768</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K17" s="8">
         <v>1447</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="9">
+    <row r="18" spans="2:11">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="10">
         <v>22054</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="10">
         <v>3448</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>545</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G18" s="10">
         <v>221</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H18" s="10">
         <v>170125</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I18" s="10">
         <v>35287</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J18" s="10">
         <v>4743</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K18" s="10">
         <v>1439</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="7">
+    <row r="19" spans="2:11">
+      <c r="B19" s="7">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>21977</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>3439</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>539</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>222</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <v>169471</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I19" s="8">
         <v>35095</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J19" s="8">
         <v>4695</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K19" s="8">
         <v>1433</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="9">
+    <row r="20" spans="2:11">
+      <c r="B20" s="9">
         <v>2024</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D20" s="10">
         <v>21900</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>3414</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F20" s="10">
         <v>541</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>222</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H20" s="10">
         <v>168764</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I20" s="10">
         <v>34901</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J20" s="10">
         <v>4637</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K20" s="10">
         <v>1428</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="7">
+    <row r="21" spans="2:11">
+      <c r="B21" s="7">
         <v>2024</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <v>21844</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>3399</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <v>540</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <v>221</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <v>167901</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I21" s="8">
         <v>34526</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J21" s="8">
         <v>4584</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K21" s="8">
         <v>1400</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="9">
+    <row r="22" spans="2:11">
+      <c r="B22" s="9">
         <v>2024</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D22" s="10">
         <v>21782</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E22" s="10">
         <v>3381</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F22" s="10">
         <v>537</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G22" s="10">
         <v>221</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H22" s="10">
         <v>167537</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I22" s="10">
         <v>34455</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J22" s="10">
         <v>4564</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K22" s="10">
         <v>1401</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="7">
+    <row r="23" spans="2:11">
+      <c r="B23" s="7">
         <v>2024</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>21711</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>3370</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="8">
         <v>537</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>216</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="8">
         <v>166979</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I23" s="8">
         <v>34249</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J23" s="8">
         <v>4522</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K23" s="8">
         <v>1391</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="9">
+    <row r="24" spans="2:11">
+      <c r="B24" s="9">
         <v>2024</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>21675</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>3345</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>538</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G24" s="10">
         <v>215</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H24" s="10">
         <v>166478</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I24" s="10">
         <v>34057</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J24" s="10">
         <v>4499</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K24" s="10">
         <v>1379</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="11">
+    <row r="25" spans="2:11">
+      <c r="B25" s="11">
         <v>2024</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>21635</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>3332</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>535</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>212</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H25" s="12">
         <v>166076</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I25" s="12">
         <v>33897</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J25" s="12">
         <v>4471</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K25" s="12">
         <v>1371</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1">
-      <c r="B25" s="13">
+    <row r="26" spans="2:11" hidden="1">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <v>21607</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="14">
         <v>3331</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F26" s="14">
         <v>527</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G26" s="14">
         <v>213</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="14">
         <v>165843</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I26" s="14">
         <v>33744</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J26" s="14">
         <v>4441</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K26" s="14">
         <v>1370</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1">
-      <c r="B26" s="7">
+    <row r="27" spans="2:11" hidden="1">
+      <c r="B27" s="7">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>21539</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>3304</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="8">
         <v>524</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <v>215</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="8">
         <v>165469</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I27" s="8">
         <v>33558</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="8">
         <v>4409</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K27" s="8">
         <v>1361</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:11" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="10">
         <v>21461</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>3281</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F28" s="10">
         <v>527</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="10">
         <v>213</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H28" s="10">
         <v>164931</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I28" s="10">
         <v>33376</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J28" s="10">
         <v>4381</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K28" s="10">
         <v>1353</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1">
-      <c r="B28" s="7">
+    <row r="29" spans="2:11" hidden="1">
+      <c r="B29" s="7">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>21397</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>3274</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F29" s="8">
         <v>524</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="8">
         <v>214</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="8">
         <v>164459</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I29" s="8">
         <v>33219</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J29" s="8">
         <v>4371</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K29" s="8">
         <v>1339</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:11" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D30" s="10">
         <v>21333</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E30" s="10">
         <v>3249</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F30" s="10">
         <v>520</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="10">
         <v>213</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H30" s="10">
         <v>164018</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I30" s="10">
         <v>33086</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J30" s="10">
         <v>4345</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K30" s="10">
         <v>1335</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1">
-      <c r="B30" s="7">
+    <row r="31" spans="2:11" hidden="1">
+      <c r="B31" s="7">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>21275</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>3244</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>515</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <v>214</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="8">
         <v>163591</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I31" s="8">
         <v>32899</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J31" s="8">
         <v>4314</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K31" s="8">
         <v>1333</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1">
-      <c r="B31" s="9">
+    <row r="32" spans="2:11" hidden="1">
+      <c r="B32" s="9">
         <v>2023</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D32" s="10">
         <v>21204</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <v>3230</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F32" s="10">
         <v>515</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G32" s="10">
         <v>213</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H32" s="10">
         <v>163109</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I32" s="10">
         <v>32765</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J32" s="10">
         <v>4282</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K32" s="10">
         <v>1324</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1">
-      <c r="B32" s="7">
+    <row r="33" spans="2:11" hidden="1">
+      <c r="B33" s="7">
         <v>2023</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>21106</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <v>3207</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="8">
         <v>515</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="8">
         <v>214</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H33" s="8">
         <v>162727</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I33" s="8">
         <v>32622</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J33" s="8">
         <v>4264</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K33" s="8">
         <v>1317</v>
       </c>
     </row>
-    <row r="33" spans="2:11" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:11" hidden="1">
+      <c r="B34" s="9">
         <v>2023</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <v>21068</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>3196</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>508</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G34" s="10">
         <v>215</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="10">
         <v>162289</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I34" s="10">
         <v>32483</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J34" s="10">
         <v>4234</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K34" s="10">
         <v>1308</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1">
-      <c r="B34" s="7">
+    <row r="35" spans="2:11" hidden="1">
+      <c r="B35" s="7">
         <v>2023</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <v>21005</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <v>3186</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F35" s="8">
         <v>509</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <v>213</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H35" s="8">
         <v>161844</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I35" s="8">
         <v>32370</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J35" s="8">
         <v>4232</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K35" s="8">
         <v>1304</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1">
-      <c r="B35" s="9">
+    <row r="36" spans="2:11" hidden="1">
+      <c r="B36" s="9">
         <v>2023</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D36" s="10">
         <v>20929</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>3165</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F36" s="10">
         <v>506</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G36" s="10">
         <v>212</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H36" s="10">
         <v>161330</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I36" s="10">
         <v>32261</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J36" s="10">
         <v>4201</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K36" s="10">
         <v>1299</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1">
-      <c r="B36" s="11">
+    <row r="37" spans="2:11" hidden="1">
+      <c r="B37" s="11">
         <v>2023</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <v>20899</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="12">
         <v>3142</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F37" s="12">
         <v>506</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="12">
         <v>211</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H37" s="12">
         <v>161006</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I37" s="12">
         <v>32141</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J37" s="12">
         <v>4183</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K37" s="12">
         <v>1295</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1">
-      <c r="B37" s="13">
+    <row r="38" spans="2:11" hidden="1">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <v>20835</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E38" s="14">
         <v>3137</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F38" s="14">
         <v>506</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="14">
         <v>209</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H38" s="14">
         <v>160773</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I38" s="14">
         <v>32040</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J38" s="14">
         <v>4173</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K38" s="14">
         <v>1286</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1">
-      <c r="B38" s="7">
+    <row r="39" spans="2:11" hidden="1">
+      <c r="B39" s="7">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>20752</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>3107</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="8">
         <v>505</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <v>211</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H39" s="8">
         <v>160470</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I39" s="8">
         <v>31958</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J39" s="8">
         <v>4162</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K39" s="8">
         <v>1280</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:11" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <v>20711</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <v>3095</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F40" s="10">
         <v>501</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G40" s="10">
         <v>210</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H40" s="10">
         <v>160213</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I40" s="10">
         <v>31874</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J40" s="10">
         <v>4145</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K40" s="10">
         <v>1274</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1">
-      <c r="B40" s="7">
+    <row r="41" spans="2:11" hidden="1">
+      <c r="B41" s="7">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <v>20657</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E41" s="8">
         <v>3083</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F41" s="8">
         <v>499</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="8">
         <v>209</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H41" s="8">
         <v>159867</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I41" s="8">
         <v>31794</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J41" s="8">
         <v>4135</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K41" s="8">
         <v>1270</v>
       </c>
     </row>
-    <row r="41" spans="2:11" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:11" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D42" s="10">
         <v>20751</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <v>3106</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F42" s="10">
         <v>501</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G42" s="10">
         <v>211</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H42" s="10">
         <v>159400</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I42" s="10">
         <v>31688</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J42" s="10">
         <v>4111</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K42" s="10">
         <v>1260</v>
       </c>
     </row>
-    <row r="42" spans="2:11" hidden="1">
-      <c r="B42" s="7">
+    <row r="43" spans="2:11" hidden="1">
+      <c r="B43" s="7">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>20551</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="8">
         <v>3046</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F43" s="8">
         <v>490</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G43" s="8">
         <v>208</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H43" s="8">
         <v>158821</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I43" s="8">
         <v>31547</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J43" s="8">
         <v>4081</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K43" s="8">
         <v>1253</v>
       </c>
     </row>
-    <row r="43" spans="2:11" hidden="1">
-      <c r="B43" s="9">
+    <row r="44" spans="2:11" hidden="1">
+      <c r="B44" s="9">
         <v>2022</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D44" s="10">
         <v>20522</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>3038</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F44" s="10">
         <v>490</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>207</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H44" s="10">
         <v>158518</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I44" s="10">
         <v>31468</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J44" s="10">
         <v>4073</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K44" s="10">
         <v>1251</v>
       </c>
     </row>
-    <row r="44" spans="2:11" hidden="1">
-      <c r="B44" s="7">
+    <row r="45" spans="2:11" hidden="1">
+      <c r="B45" s="7">
         <v>2022</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="8">
         <v>20484</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E45" s="8">
         <v>3026</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F45" s="8">
         <v>488</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G45" s="8">
         <v>206</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H45" s="8">
         <v>158024</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I45" s="8">
         <v>31395</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J45" s="8">
         <v>4062</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K45" s="8">
         <v>1250</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:11" hidden="1">
+      <c r="B46" s="9">
         <v>2022</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D46" s="10">
         <v>20432</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>3010</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F46" s="10">
         <v>487</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G46" s="10">
         <v>206</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H46" s="10">
         <v>157470</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I46" s="10">
         <v>31286</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J46" s="10">
         <v>4046</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K46" s="10">
         <v>1244</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1">
-      <c r="B46" s="7">
+    <row r="47" spans="2:11" hidden="1">
+      <c r="B47" s="7">
         <v>2022</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <v>20400</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E47" s="8">
         <v>3000</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F47" s="8">
         <v>487</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G47" s="8">
         <v>207</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H47" s="8">
         <v>156952</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I47" s="8">
         <v>31147</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J47" s="8">
         <v>4034</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K47" s="8">
         <v>1237</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1">
-      <c r="B47" s="9">
+    <row r="48" spans="2:11" hidden="1">
+      <c r="B48" s="9">
         <v>2022</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D48" s="10">
         <v>20318</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E48" s="10">
         <v>2994</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="10">
         <v>489</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G48" s="10">
         <v>204</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H48" s="10">
         <v>156255</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I48" s="10">
         <v>31032</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J48" s="10">
         <v>4013</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K48" s="10">
         <v>1234</v>
       </c>
     </row>
-    <row r="48" spans="2:11" hidden="1">
-      <c r="B48" s="11">
+    <row r="49" spans="2:11" hidden="1">
+      <c r="B49" s="11">
         <v>2022</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>20280</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="12">
         <v>2988</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F49" s="12">
         <v>491</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="12">
         <v>203</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H49" s="12">
         <v>155756</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I49" s="12">
         <v>30919</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J49" s="12">
         <v>4015</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K49" s="12">
         <v>1222</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1">
-      <c r="B49" s="13">
+    <row r="50" spans="2:11" hidden="1">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <v>20263</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E50" s="14">
         <v>2989</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F50" s="14">
         <v>487</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="14">
         <v>203</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H50" s="14">
         <v>155476</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I50" s="14">
         <v>30843</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J50" s="14">
         <v>4009</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K50" s="14">
         <v>1222</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1">
-      <c r="B50" s="7">
+    <row r="51" spans="2:11" hidden="1">
+      <c r="B51" s="7">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <v>20206</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E51" s="8">
         <v>2973</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F51" s="8">
         <v>485</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="8">
         <v>203</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H51" s="8">
         <v>154922</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I51" s="8">
         <v>30721</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J51" s="8">
         <v>3992</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K51" s="8">
         <v>1216</v>
       </c>
     </row>
-    <row r="51" spans="2:11" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:11" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="10">
         <v>20146</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E52" s="10">
         <v>2967</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F52" s="10">
         <v>483</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G52" s="10">
         <v>203</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H52" s="10">
         <v>154593</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I52" s="10">
         <v>30634</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J52" s="10">
         <v>3971</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K52" s="10">
         <v>1218</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1">
-      <c r="B52" s="7">
+    <row r="53" spans="2:11" hidden="1">
+      <c r="B53" s="7">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <v>20103</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E53" s="8">
         <v>2962</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F53" s="8">
         <v>483</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G53" s="8">
         <v>201</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H53" s="8">
         <v>154071</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I53" s="8">
         <v>30444</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J53" s="8">
         <v>3948</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K53" s="8">
         <v>1214</v>
       </c>
     </row>
-    <row r="53" spans="2:11" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:11" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="10">
         <v>20021</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E54" s="10">
         <v>2931</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F54" s="10">
         <v>477</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G54" s="10">
         <v>205</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H54" s="10">
         <v>153674</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I54" s="10">
         <v>30371</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J54" s="10">
         <v>3913</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K54" s="10">
         <v>1220</v>
       </c>
     </row>
-    <row r="54" spans="2:11" hidden="1">
-      <c r="B54" s="7">
+    <row r="55" spans="2:11" hidden="1">
+      <c r="B55" s="7">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <v>20037</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E55" s="8">
         <v>2938</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F55" s="8">
         <v>478</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G55" s="8">
         <v>205</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H55" s="8">
         <v>153148</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I55" s="8">
         <v>30163</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J55" s="8">
         <v>3889</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K55" s="8">
         <v>1215</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1">
-      <c r="B55" s="9">
+    <row r="56" spans="2:11" hidden="1">
+      <c r="B56" s="9">
         <v>2021</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D56" s="10">
         <v>19989</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E56" s="10">
         <v>2916</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F56" s="10">
         <v>479</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G56" s="10">
         <v>204</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H56" s="10">
         <v>152772</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I56" s="10">
         <v>30071</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J56" s="10">
         <v>3878</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K56" s="10">
         <v>1211</v>
       </c>
     </row>
-    <row r="56" spans="2:11" hidden="1">
-      <c r="B56" s="7">
+    <row r="57" spans="2:11" hidden="1">
+      <c r="B57" s="7">
         <v>2021</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D57" s="8">
         <v>19946</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E57" s="8">
         <v>2902</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F57" s="8">
         <v>478</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G57" s="8">
         <v>204</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H57" s="8">
         <v>152274</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I57" s="8">
         <v>29923</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J57" s="8">
         <v>3848</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K57" s="8">
         <v>1208</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:11" hidden="1">
+      <c r="B58" s="9">
         <v>2021</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D58" s="10">
         <v>19923</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E58" s="10">
         <v>2897</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F58" s="10">
         <v>476</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G58" s="10">
         <v>205</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H58" s="10">
         <v>151877</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I58" s="10">
         <v>29764</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J58" s="10">
         <v>3855</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K58" s="10">
         <v>1197</v>
       </c>
     </row>
-    <row r="58" spans="2:11" hidden="1">
-      <c r="B58" s="7">
+    <row r="59" spans="2:11" hidden="1">
+      <c r="B59" s="7">
         <v>2021</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <v>19894</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="8">
         <v>2881</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F59" s="8">
         <v>475</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G59" s="8">
         <v>209</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H59" s="8">
         <v>151428</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I59" s="8">
         <v>29625</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J59" s="8">
         <v>3837</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K59" s="8">
         <v>1196</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1">
-      <c r="B59" s="9">
+    <row r="60" spans="2:11" hidden="1">
+      <c r="B60" s="9">
         <v>2021</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D60" s="10">
         <v>19844</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E60" s="10">
         <v>2870</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F60" s="10">
         <v>478</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G60" s="10">
         <v>208</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H60" s="10">
         <v>150941</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I60" s="10">
         <v>29527</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J60" s="10">
         <v>3793</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K60" s="10">
         <v>1186</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1">
-      <c r="B60" s="11">
+    <row r="61" spans="2:11" hidden="1">
+      <c r="B61" s="11">
         <v>2021</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <v>19809</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E61" s="12">
         <v>2878</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F61" s="12">
         <v>478</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="12">
         <v>210</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H61" s="12">
         <v>150642</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I61" s="12">
         <v>29399</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J61" s="12">
         <v>3775</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K61" s="12">
         <v>1181</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1">
-      <c r="B61" s="13">
+    <row r="62" spans="2:11" hidden="1">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <v>19806</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E62" s="14">
         <v>2877</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F62" s="14">
         <v>477</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="14">
         <v>210</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H62" s="14">
         <v>150512</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I62" s="14">
         <v>29328</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J62" s="14">
         <v>3753</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K62" s="14">
         <v>1181</v>
       </c>
     </row>
-    <row r="62" spans="2:11" hidden="1">
-      <c r="B62" s="7">
+    <row r="63" spans="2:11" hidden="1">
+      <c r="B63" s="7">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>19746</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="8">
         <v>2866</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F63" s="8">
         <v>480</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G63" s="8">
         <v>208</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H63" s="8">
         <v>149978</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I63" s="8">
         <v>29202</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J63" s="8">
         <v>3724</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K63" s="8">
         <v>1177</v>
       </c>
     </row>
-    <row r="63" spans="2:11" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:11" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C64" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="10">
         <v>19711</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E64" s="10">
         <v>2853</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F64" s="10">
         <v>483</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G64" s="10">
         <v>207</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H64" s="10">
         <v>149557</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I64" s="10">
         <v>29064</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J64" s="10">
         <v>3720</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K64" s="10">
         <v>1169</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1">
-      <c r="B64" s="7">
+    <row r="65" spans="2:11" hidden="1">
+      <c r="B65" s="7">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <v>19666</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E65" s="8">
         <v>2846</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F65" s="8">
         <v>481</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="8">
         <v>209</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H65" s="8">
         <v>149333</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I65" s="8">
         <v>28918</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J65" s="8">
         <v>3682</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K65" s="8">
         <v>1165</v>
       </c>
     </row>
-    <row r="65" spans="2:11" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:11" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D66" s="10">
         <v>19641</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E66" s="10">
         <v>2841</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F66" s="10">
         <v>482</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G66" s="10">
         <v>209</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H66" s="10">
         <v>149165</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I66" s="10">
         <v>28805</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J66" s="10">
         <v>3675</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K66" s="10">
         <v>1160</v>
       </c>
     </row>
-    <row r="66" spans="2:11" hidden="1">
-      <c r="B66" s="7">
+    <row r="67" spans="2:11" hidden="1">
+      <c r="B67" s="7">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <v>19637</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E67" s="8">
         <v>2839</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F67" s="8">
         <v>481</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G67" s="8">
         <v>209</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H67" s="8">
         <v>149034</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I67" s="8">
         <v>28738</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J67" s="8">
         <v>3651</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K67" s="8">
         <v>1156</v>
       </c>
     </row>
-    <row r="67" spans="2:11" hidden="1">
-      <c r="B67" s="9">
+    <row r="68" spans="2:11" hidden="1">
+      <c r="B68" s="9">
         <v>2020</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>19635</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>2839</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F68" s="10">
         <v>481</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G68" s="10">
         <v>208</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H68" s="10">
         <v>148936</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I68" s="10">
         <v>28662</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J68" s="10">
         <v>3641</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K68" s="10">
         <v>1154</v>
       </c>
     </row>
-    <row r="68" spans="2:11" hidden="1">
-      <c r="B68" s="7">
+    <row r="69" spans="2:11" hidden="1">
+      <c r="B69" s="7">
         <v>2020</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D69" s="8">
         <v>19634</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E69" s="8">
         <v>2839</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F69" s="8">
         <v>481</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G69" s="8">
         <v>207</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H69" s="8">
         <v>148915</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I69" s="8">
         <v>28646</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J69" s="8">
         <v>3645</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K69" s="8">
         <v>1152</v>
       </c>
     </row>
-    <row r="69" spans="2:11" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:11" hidden="1">
+      <c r="B70" s="9">
         <v>2020</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <v>19634</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E70" s="10">
         <v>2839</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F70" s="10">
         <v>481</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G70" s="10">
         <v>207</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H70" s="10">
         <v>148909</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I70" s="10">
         <v>28641</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J70" s="10">
         <v>3645</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K70" s="10">
         <v>1151</v>
       </c>
     </row>
-    <row r="70" spans="2:11" hidden="1">
-      <c r="B70" s="7">
+    <row r="71" spans="2:11" hidden="1">
+      <c r="B71" s="7">
         <v>2020</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <v>19633</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E71" s="8">
         <v>2839</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F71" s="8">
         <v>481</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G71" s="8">
         <v>207</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H71" s="8">
         <v>148896</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I71" s="8">
         <v>28639</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J71" s="8">
         <v>3647</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K71" s="8">
         <v>1150</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1">
-      <c r="B71" s="9">
+    <row r="72" spans="2:11" hidden="1">
+      <c r="B72" s="9">
         <v>2020</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>19600</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E72" s="10">
         <v>2827</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F72" s="10">
         <v>479</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G72" s="10">
         <v>207</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H72" s="10">
         <v>148599</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I72" s="10">
         <v>28517</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J72" s="10">
         <v>3624</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K72" s="10">
         <v>1150</v>
       </c>
     </row>
-    <row r="72" spans="2:11" hidden="1">
-      <c r="B72" s="11">
+    <row r="73" spans="2:11" hidden="1">
+      <c r="B73" s="11">
         <v>2020</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <v>19541</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E73" s="12">
         <v>2817</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F73" s="12">
         <v>476</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="12">
         <v>207</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H73" s="12">
         <v>148188</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I73" s="12">
         <v>28401</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J73" s="12">
         <v>3614</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K73" s="12">
         <v>1147</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1">
-      <c r="B73" s="13">
+    <row r="74" spans="2:11" hidden="1">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <v>19514</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E74" s="14">
         <v>2807</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F74" s="14">
         <v>477</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="14">
         <v>206</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H74" s="14">
         <v>147966</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I74" s="14">
         <v>28318</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J74" s="14">
         <v>3601</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K74" s="14">
         <v>1146</v>
       </c>
     </row>
-    <row r="74" spans="2:11" hidden="1">
-      <c r="B74" s="7">
+    <row r="75" spans="2:11" hidden="1">
+      <c r="B75" s="7">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <v>19374</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E75" s="8">
         <v>2784</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F75" s="8">
         <v>474</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G75" s="8">
         <v>205</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H75" s="8">
         <v>147552</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I75" s="8">
         <v>28216</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J75" s="8">
         <v>3578</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K75" s="8">
         <v>1143</v>
       </c>
     </row>
-    <row r="75" spans="2:11" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:11" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <v>19270</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E76" s="10">
         <v>2775</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <v>473</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G76" s="10">
         <v>203</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H76" s="10">
         <v>147145</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I76" s="10">
         <v>28082</v>
       </c>
-      <c r="J75" s="10">
+      <c r="J76" s="10">
         <v>3566</v>
       </c>
-      <c r="K75" s="10">
+      <c r="K76" s="10">
         <v>1131</v>
       </c>
     </row>
-    <row r="76" spans="2:11" hidden="1">
-      <c r="B76" s="7">
+    <row r="77" spans="2:11" hidden="1">
+      <c r="B77" s="7">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <v>18283</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E77" s="8">
         <v>2541</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F77" s="8">
         <v>429</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="8">
         <v>173</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H77" s="8">
         <v>135900</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I77" s="8">
         <v>26071</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J77" s="8">
         <v>3315</v>
       </c>
-      <c r="K76" s="8">
+      <c r="K77" s="8">
         <v>1067</v>
       </c>
     </row>
-    <row r="77" spans="2:11" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:11" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <v>18210</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E78" s="10">
         <v>2531</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <v>428</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G78" s="10">
         <v>174</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H78" s="10">
         <v>135525</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I78" s="10">
         <v>25971</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J78" s="10">
         <v>3310</v>
       </c>
-      <c r="K77" s="10">
+      <c r="K78" s="10">
         <v>1060</v>
       </c>
     </row>
-    <row r="78" spans="2:11" hidden="1">
-      <c r="B78" s="7">
+    <row r="79" spans="2:11" hidden="1">
+      <c r="B79" s="7">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <v>18415</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="8">
         <v>2539</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F79" s="8">
         <v>433</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G79" s="8">
         <v>170</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H79" s="8">
         <v>135981</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I79" s="8">
         <v>25844</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J79" s="8">
         <v>3256</v>
       </c>
-      <c r="K78" s="8">
+      <c r="K79" s="8">
         <v>1052</v>
       </c>
     </row>
-    <row r="79" spans="2:11" hidden="1">
-      <c r="B79" s="9">
+    <row r="80" spans="2:11" hidden="1">
+      <c r="B80" s="9">
         <v>2019</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <v>18061</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>2503</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F80" s="10">
         <v>431</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G80" s="10">
         <v>171</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H80" s="10">
         <v>134678</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I80" s="10">
         <v>25745</v>
       </c>
-      <c r="J79" s="10">
+      <c r="J80" s="10">
         <v>3256</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K80" s="10">
         <v>1054</v>
       </c>
     </row>
-    <row r="80" spans="2:11" hidden="1">
-      <c r="B80" s="7">
+    <row r="81" spans="2:11" hidden="1">
+      <c r="B81" s="7">
         <v>2019</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <v>17466</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E81" s="8">
         <v>2457</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F81" s="8">
         <v>414</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G81" s="8">
         <v>174</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H81" s="8">
         <v>124831</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I81" s="8">
         <v>25684</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J81" s="8">
         <v>3289</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K81" s="8">
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="2:11" hidden="1">
-      <c r="B81" s="9">
+    <row r="82" spans="2:11" hidden="1">
+      <c r="B82" s="9">
         <v>2019</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D82" s="10">
         <v>17400</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E82" s="10">
         <v>2444</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F82" s="10">
         <v>408</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G82" s="10">
         <v>174</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H82" s="10">
         <v>124413</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I82" s="10">
         <v>25571</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J82" s="10">
         <v>3256</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K82" s="10">
         <v>1066</v>
       </c>
     </row>
-    <row r="82" spans="2:11" hidden="1">
-      <c r="B82" s="7">
+    <row r="83" spans="2:11" hidden="1">
+      <c r="B83" s="7">
         <v>2019</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <v>17310</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E83" s="8">
         <v>2439</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F83" s="8">
         <v>406</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G83" s="8">
         <v>172</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H83" s="8">
         <v>124028</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I83" s="8">
         <v>25443</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J83" s="8">
         <v>3244</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K83" s="8">
         <v>1056</v>
       </c>
     </row>
-    <row r="83" spans="2:11" hidden="1">
-      <c r="B83" s="9">
+    <row r="84" spans="2:11" hidden="1">
+      <c r="B84" s="9">
         <v>2019</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D84" s="10">
         <v>17252</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E84" s="10">
         <v>2424</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F84" s="10">
         <v>401</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G84" s="10">
         <v>171</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H84" s="10">
         <v>123619</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I84" s="10">
         <v>25350</v>
       </c>
-      <c r="J83" s="10">
+      <c r="J84" s="10">
         <v>3211</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K84" s="10">
         <v>1050</v>
       </c>
     </row>
-    <row r="84" spans="2:11" hidden="1">
-      <c r="B84" s="11">
+    <row r="85" spans="2:11" hidden="1">
+      <c r="B85" s="11">
         <v>2019</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <v>17187</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E85" s="12">
         <v>2415</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F85" s="12">
         <v>397</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="12">
         <v>170</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H85" s="12">
         <v>123279</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I85" s="12">
         <v>25269</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J85" s="12">
         <v>3198</v>
       </c>
-      <c r="K84" s="12">
+      <c r="K85" s="12">
         <v>1045</v>
       </c>
     </row>
-    <row r="85" spans="2:11" hidden="1">
-      <c r="B85" s="9">
+    <row r="86" spans="2:11" hidden="1">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <v>17176</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E86" s="10">
         <v>2409</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F86" s="10">
         <v>394</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G86" s="10">
         <v>170</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H86" s="10">
         <v>123073</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I86" s="10">
         <v>25189</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J86" s="10">
         <v>3183</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K86" s="10">
         <v>1042</v>
       </c>
     </row>
-    <row r="86" spans="2:11" hidden="1">
-      <c r="B86" s="7">
+    <row r="87" spans="2:11" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <v>17063</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E87" s="8">
         <v>2394</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F87" s="8">
         <v>392</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G87" s="8">
         <v>167</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H87" s="8">
         <v>122612</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I87" s="8">
         <v>25091</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J87" s="8">
         <v>3170</v>
       </c>
-      <c r="K86" s="8">
+      <c r="K87" s="8">
         <v>1035</v>
       </c>
     </row>
-    <row r="87" spans="2:11" hidden="1">
-      <c r="B87" s="9">
+    <row r="88" spans="2:11" hidden="1">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D88" s="10">
         <v>16927</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E88" s="10">
         <v>2392</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F88" s="10">
         <v>382</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G88" s="10">
         <v>168</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H88" s="10">
         <v>122104</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I88" s="10">
         <v>24950</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J88" s="10">
         <v>3156</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K88" s="10">
         <v>1026</v>
       </c>
     </row>
-    <row r="88" spans="2:11" hidden="1">
-      <c r="B88" s="7">
+    <row r="89" spans="2:11" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <v>16818</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E89" s="8">
         <v>2382</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F89" s="8">
         <v>382</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G89" s="8">
         <v>168</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H89" s="8">
         <v>121579</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I89" s="8">
         <v>24817</v>
       </c>
-      <c r="J88" s="8">
+      <c r="J89" s="8">
         <v>3133</v>
       </c>
-      <c r="K88" s="8">
+      <c r="K89" s="8">
         <v>1019</v>
       </c>
     </row>
-    <row r="89" spans="2:11" hidden="1">
-      <c r="B89" s="9">
+    <row r="90" spans="2:11" hidden="1">
+      <c r="B90" s="9">
         <v>2018</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C90" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D90" s="10">
         <v>16753</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E90" s="10">
         <v>2373</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F90" s="10">
         <v>373</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G90" s="10">
         <v>165</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H90" s="10">
         <v>121024</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I90" s="10">
         <v>24729</v>
       </c>
-      <c r="J89" s="10">
+      <c r="J90" s="10">
         <v>3111</v>
       </c>
-      <c r="K89" s="10">
+      <c r="K90" s="10">
         <v>1016</v>
       </c>
     </row>
-    <row r="90" spans="2:11" hidden="1">
-      <c r="B90" s="7">
+    <row r="91" spans="2:11" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D91" s="8">
         <v>16665</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E91" s="8">
         <v>2355</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F91" s="8">
         <v>371</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G91" s="8">
         <v>165</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H91" s="8">
         <v>120510</v>
       </c>
-      <c r="I90" s="8">
+      <c r="I91" s="8">
         <v>24592</v>
       </c>
-      <c r="J90" s="8">
+      <c r="J91" s="8">
         <v>3094</v>
       </c>
-      <c r="K90" s="8">
+      <c r="K91" s="8">
         <v>1005</v>
       </c>
     </row>
-    <row r="91" spans="2:11" hidden="1">
-      <c r="B91" s="9">
+    <row r="92" spans="2:11" hidden="1">
+      <c r="B92" s="9">
         <v>2018</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C92" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D92" s="10">
         <v>16612</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E92" s="10">
         <v>2334</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F92" s="10">
         <v>369</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G92" s="10">
         <v>168</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H92" s="10">
         <v>120020</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I92" s="10">
         <v>24500</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J92" s="10">
         <v>3076</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K92" s="10">
         <v>1003</v>
       </c>
     </row>
-    <row r="92" spans="2:11" hidden="1">
-      <c r="B92" s="7">
+    <row r="93" spans="2:11" hidden="1">
+      <c r="B93" s="7">
         <v>2018</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D93" s="8">
         <v>16553</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E93" s="8">
         <v>2326</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F93" s="8">
         <v>368</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G93" s="8">
         <v>167</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H93" s="8">
         <v>119627</v>
       </c>
-      <c r="I92" s="8">
+      <c r="I93" s="8">
         <v>24395</v>
       </c>
-      <c r="J92" s="8">
+      <c r="J93" s="8">
         <v>3068</v>
       </c>
-      <c r="K92" s="8">
+      <c r="K93" s="8">
         <v>998</v>
       </c>
     </row>
-    <row r="93" spans="2:11" hidden="1">
-      <c r="B93" s="9">
+    <row r="94" spans="2:11" hidden="1">
+      <c r="B94" s="9">
         <v>2018</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D94" s="10">
         <v>16474</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E94" s="10">
         <v>2306</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F94" s="10">
         <v>363</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G94" s="10">
         <v>166</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H94" s="10">
         <v>119076</v>
       </c>
-      <c r="I93" s="10">
+      <c r="I94" s="10">
         <v>24234</v>
       </c>
-      <c r="J93" s="10">
+      <c r="J94" s="10">
         <v>3031</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K94" s="10">
         <v>994</v>
       </c>
     </row>
-    <row r="94" spans="2:11" hidden="1">
-      <c r="B94" s="7">
+    <row r="95" spans="2:11" hidden="1">
+      <c r="B95" s="7">
         <v>2018</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D95" s="8">
         <v>16403</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E95" s="8">
         <v>2307</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F95" s="8">
         <v>356</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G95" s="8">
         <v>164</v>
       </c>
-      <c r="H94" s="8">
+      <c r="H95" s="8">
         <v>118573</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I95" s="8">
         <v>24067</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J95" s="8">
         <v>3016</v>
       </c>
-      <c r="K94" s="8">
+      <c r="K95" s="8">
         <v>982</v>
       </c>
     </row>
-    <row r="95" spans="2:11" hidden="1">
-      <c r="B95" s="9">
+    <row r="96" spans="2:11" hidden="1">
+      <c r="B96" s="9">
         <v>2018</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C96" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D96" s="10">
         <v>16312</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E96" s="10">
         <v>2280</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F96" s="10">
         <v>355</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G96" s="10">
         <v>163</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H96" s="10">
         <v>118068</v>
       </c>
-      <c r="I95" s="10">
+      <c r="I96" s="10">
         <v>23912</v>
       </c>
-      <c r="J95" s="10">
+      <c r="J96" s="10">
         <v>3000</v>
       </c>
-      <c r="K95" s="10">
+      <c r="K96" s="10">
         <v>971</v>
       </c>
     </row>
-    <row r="96" spans="2:11" hidden="1">
-      <c r="B96" s="7">
+    <row r="97" spans="2:11" hidden="1">
+      <c r="B97" s="7">
         <v>2018</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D97" s="8">
         <v>16235</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E97" s="8">
         <v>2282</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F97" s="8">
         <v>350</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G97" s="8">
         <v>164</v>
       </c>
-      <c r="H96" s="8">
+      <c r="H97" s="8">
         <v>117820</v>
       </c>
-      <c r="I96" s="8">
+      <c r="I97" s="8">
         <v>23812</v>
       </c>
-      <c r="J96" s="8">
+      <c r="J97" s="8">
         <v>2985</v>
       </c>
-      <c r="K96" s="8">
+      <c r="K97" s="8">
         <v>967</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
-      <c r="K99" s="6"/>
+    <row r="100" spans="2:11">
+      <c r="K100" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
